--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP188"/>
+  <dimension ref="A1:BP195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.78</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.56</v>
@@ -1573,7 +1573,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.22</v>
@@ -3317,7 +3317,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.63</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.67</v>
@@ -5061,7 +5061,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR21" t="n">
         <v>1.34</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.63</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.67</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.78</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.22</v>
@@ -7677,7 +7677,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR33" t="n">
         <v>1.37</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.56</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.13</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.5</v>
@@ -8985,7 +8985,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR39" t="n">
         <v>1.75</v>
@@ -9203,7 +9203,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR40" t="n">
         <v>1.62</v>
@@ -9421,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR41" t="n">
         <v>0.74</v>
@@ -10072,10 +10072,10 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR44" t="n">
         <v>1.26</v>
@@ -10293,7 +10293,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR45" t="n">
         <v>1.84</v>
@@ -10511,7 +10511,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR46" t="n">
         <v>1.42</v>
@@ -10947,7 +10947,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR48" t="n">
         <v>1.59</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.67</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.67</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.63</v>
@@ -12473,7 +12473,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR55" t="n">
         <v>1.49</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.33</v>
@@ -12906,10 +12906,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR57" t="n">
         <v>1.41</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.56</v>
@@ -14435,7 +14435,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR64" t="n">
         <v>1.87</v>
@@ -14653,7 +14653,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR65" t="n">
         <v>1.48</v>
@@ -14868,7 +14868,7 @@
         <v>3</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66" t="n">
         <v>2</v>
@@ -15089,7 +15089,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR67" t="n">
         <v>1.35</v>
@@ -15522,10 +15522,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR69" t="n">
         <v>1.85</v>
@@ -16830,7 +16830,7 @@
         <v>0.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.33</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.67</v>
@@ -17269,7 +17269,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR77" t="n">
         <v>1.34</v>
@@ -17705,7 +17705,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR79" t="n">
         <v>1.39</v>
@@ -17920,7 +17920,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.67</v>
@@ -18141,7 +18141,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR81" t="n">
         <v>1.74</v>
@@ -18577,7 +18577,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR83" t="n">
         <v>1.49</v>
@@ -18792,7 +18792,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.22</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.5</v>
@@ -19446,7 +19446,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ87" t="n">
         <v>1</v>
@@ -19667,7 +19667,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR88" t="n">
         <v>1.43</v>
@@ -19882,7 +19882,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.33</v>
@@ -20321,7 +20321,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR91" t="n">
         <v>1.12</v>
@@ -20757,7 +20757,7 @@
         <v>2</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR93" t="n">
         <v>1.14</v>
@@ -21408,7 +21408,7 @@
         <v>2.33</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ96" t="n">
         <v>2</v>
@@ -21629,7 +21629,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR97" t="n">
         <v>1.37</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.67</v>
@@ -22501,7 +22501,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR101" t="n">
         <v>1.58</v>
@@ -22934,7 +22934,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.67</v>
@@ -23370,7 +23370,7 @@
         <v>0.75</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.13</v>
@@ -23806,7 +23806,7 @@
         <v>1.6</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.89</v>
@@ -24024,7 +24024,7 @@
         <v>1.6</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.67</v>
@@ -24245,7 +24245,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR109" t="n">
         <v>1.39</v>
@@ -24896,7 +24896,7 @@
         <v>0.6</v>
       </c>
       <c r="AP112" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.78</v>
@@ -25335,7 +25335,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR114" t="n">
         <v>1.72</v>
@@ -25553,7 +25553,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR115" t="n">
         <v>1.36</v>
@@ -25771,7 +25771,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR116" t="n">
         <v>1.21</v>
@@ -26207,7 +26207,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR118" t="n">
         <v>1.58</v>
@@ -26640,7 +26640,7 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.89</v>
@@ -26858,7 +26858,7 @@
         <v>1.75</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.5</v>
@@ -27076,10 +27076,10 @@
         <v>0</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR122" t="n">
         <v>1.93</v>
@@ -27294,7 +27294,7 @@
         <v>1.33</v>
       </c>
       <c r="AP123" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ123" t="n">
         <v>1</v>
@@ -27733,7 +27733,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR125" t="n">
         <v>1.68</v>
@@ -27951,7 +27951,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR126" t="n">
         <v>2.35</v>
@@ -28169,7 +28169,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR127" t="n">
         <v>1.55</v>
@@ -28384,7 +28384,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.63</v>
@@ -28602,7 +28602,7 @@
         <v>1</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.78</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.89</v>
@@ -29256,10 +29256,10 @@
         <v>1.2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR132" t="n">
         <v>1.91</v>
@@ -29477,7 +29477,7 @@
         <v>2</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR133" t="n">
         <v>1.1</v>
@@ -29913,7 +29913,7 @@
         <v>2</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR135" t="n">
         <v>1.14</v>
@@ -30349,7 +30349,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR137" t="n">
         <v>1.31</v>
@@ -30564,7 +30564,7 @@
         <v>1.5</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.67</v>
@@ -31872,7 +31872,7 @@
         <v>1.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.63</v>
@@ -32093,7 +32093,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR145" t="n">
         <v>1.85</v>
@@ -32311,7 +32311,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR146" t="n">
         <v>1.67</v>
@@ -32526,10 +32526,10 @@
         <v>1</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR147" t="n">
         <v>1.84</v>
@@ -32747,7 +32747,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR148" t="n">
         <v>1.46</v>
@@ -32962,10 +32962,10 @@
         <v>0.17</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR149" t="n">
         <v>1.43</v>
@@ -33183,7 +33183,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR150" t="n">
         <v>2.17</v>
@@ -33616,7 +33616,7 @@
         <v>1.57</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.89</v>
@@ -33834,10 +33834,10 @@
         <v>0.5</v>
       </c>
       <c r="AP153" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR153" t="n">
         <v>1.16</v>
@@ -34052,7 +34052,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.5</v>
@@ -35360,7 +35360,7 @@
         <v>0.86</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.78</v>
@@ -36886,10 +36886,10 @@
         <v>1</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR167" t="n">
         <v>1.46</v>
@@ -37322,10 +37322,10 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR169" t="n">
         <v>1.17</v>
@@ -37761,7 +37761,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR171" t="n">
         <v>2.14</v>
@@ -37976,7 +37976,7 @@
         <v>0.43</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.5</v>
@@ -38194,10 +38194,10 @@
         <v>1.63</v>
       </c>
       <c r="AP173" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR173" t="n">
         <v>1.11</v>
@@ -38412,10 +38412,10 @@
         <v>0.29</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR174" t="n">
         <v>1.79</v>
@@ -38630,10 +38630,10 @@
         <v>1</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR175" t="n">
         <v>1.78</v>
@@ -38851,7 +38851,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR176" t="n">
         <v>1.36</v>
@@ -40592,7 +40592,7 @@
         <v>1.38</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.56</v>
@@ -41543,6 +41543,1532 @@
       </c>
       <c r="BP188" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>8235138</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>46003.6875</v>
+      </c>
+      <c r="F189" t="n">
+        <v>18</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Cultural y Deportiva Leonesa</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>2</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['56', '82']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="R189" t="n">
+        <v>2</v>
+      </c>
+      <c r="S189" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X189" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL189" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM189" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN189" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO189" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP189" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8235025</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>46004.41666666666</v>
+      </c>
+      <c r="F190" t="n">
+        <v>18</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S190" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X190" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL190" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM190" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO190" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP190" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8235139</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>46004.51041666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>18</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R191" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S191" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X191" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL191" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM191" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN191" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO191" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP191" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>8234927</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>46004.51041666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>18</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S192" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V192" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X192" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL192" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM192" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP192" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8234900</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>46004.60416666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>18</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>2</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R193" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S193" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V193" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X193" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM193" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BN193" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO193" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP193" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>8235026</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>46004.70833333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>18</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2</v>
+      </c>
+      <c r="N194" t="n">
+        <v>3</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['59', '65']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R194" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S194" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X194" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL194" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM194" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN194" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP194" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8234929</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>46004.70833333334</v>
+      </c>
+      <c r="F195" t="n">
+        <v>18</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Deportivo La Coruña</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Real Sociedad II</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>3</v>
+      </c>
+      <c r="N195" t="n">
+        <v>3</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['36', '76', '80']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R195" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S195" t="n">
+        <v>6</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V195" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X195" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL195" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM195" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN195" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO195" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP195" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP195"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.33</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.13</v>
@@ -4625,7 +4625,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -5497,7 +5497,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR31" t="n">
         <v>1.03</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.78</v>
@@ -9639,7 +9639,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR42" t="n">
         <v>1.91</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ43" t="n">
         <v>2</v>
@@ -11165,7 +11165,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR49" t="n">
         <v>1.31</v>
@@ -12037,7 +12037,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR53" t="n">
         <v>1.5</v>
@@ -13345,7 +13345,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR59" t="n">
         <v>1.57</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.13</v>
@@ -13996,7 +13996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.89</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.5</v>
@@ -16397,7 +16397,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR73" t="n">
         <v>1.43</v>
@@ -17702,7 +17702,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.33</v>
@@ -18359,7 +18359,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -19231,7 +19231,7 @@
         <v>2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR86" t="n">
         <v>1.89</v>
@@ -20103,7 +20103,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR90" t="n">
         <v>1.45</v>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.89</v>
@@ -20972,7 +20972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.78</v>
@@ -22716,7 +22716,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ102" t="n">
         <v>1</v>
@@ -23155,7 +23155,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR104" t="n">
         <v>1.22</v>
@@ -24463,7 +24463,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR110" t="n">
         <v>1.34</v>
@@ -24681,7 +24681,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR111" t="n">
         <v>1.32</v>
@@ -25114,7 +25114,7 @@
         <v>1</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.22</v>
@@ -26422,7 +26422,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.56</v>
@@ -27515,7 +27515,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR124" t="n">
         <v>1.31</v>
@@ -27730,7 +27730,7 @@
         <v>0.75</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.78</v>
@@ -27948,7 +27948,7 @@
         <v>0.2</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.33</v>
@@ -28387,7 +28387,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR128" t="n">
         <v>1.56</v>
@@ -28823,7 +28823,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR130" t="n">
         <v>1.82</v>
@@ -31875,7 +31875,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR144" t="n">
         <v>1.93</v>
@@ -32308,7 +32308,7 @@
         <v>1.14</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.2</v>
@@ -32744,7 +32744,7 @@
         <v>1.43</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.4</v>
@@ -33180,7 +33180,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.44</v>
@@ -33401,7 +33401,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR151" t="n">
         <v>1.39</v>
@@ -34055,7 +34055,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR154" t="n">
         <v>1.26</v>
@@ -36668,7 +36668,7 @@
         <v>1.71</v>
       </c>
       <c r="AP166" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.67</v>
@@ -37104,10 +37104,10 @@
         <v>1.86</v>
       </c>
       <c r="AP168" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR168" t="n">
         <v>1.43</v>
@@ -37540,7 +37540,7 @@
         <v>1.75</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.89</v>
@@ -37758,7 +37758,7 @@
         <v>0.43</v>
       </c>
       <c r="AP171" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.78</v>
@@ -37979,7 +37979,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR172" t="n">
         <v>1.95</v>
@@ -39069,7 +39069,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR177" t="n">
         <v>1.94</v>
@@ -43069,6 +43069,660 @@
       </c>
       <c r="BP195" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>8234928</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>46005.51041666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>18</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>3</v>
+      </c>
+      <c r="N196" t="n">
+        <v>4</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['52', '59', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S196" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="V196" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X196" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL196" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM196" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN196" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO196" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP196" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>8235022</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>46005.60416666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>18</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="n">
+        <v>2</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>2</v>
+      </c>
+      <c r="N197" t="n">
+        <v>3</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['39', '58']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S197" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X197" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN197" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP197" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>8235196</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>46005.70833333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>18</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="n">
+        <v>2</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R198" t="n">
+        <v>2</v>
+      </c>
+      <c r="S198" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X198" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BL198" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BM198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN198" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP198" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,9 @@
     <t>['6', '65', '90+1']</t>
   </si>
   <si>
+    <t>['6', '48', '70']</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -1278,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1743,7 +1746,7 @@
         <v>93</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>2.66</v>
@@ -2155,7 +2158,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2361,7 +2364,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>3.3</v>
@@ -2442,7 +2445,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ6">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3185,7 +3188,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3263,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10">
         <v>1.4</v>
@@ -3391,7 +3394,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>2.68</v>
@@ -3597,7 +3600,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3881,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13">
         <v>1.11</v>
@@ -4090,7 +4093,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4627,7 +4630,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q17">
         <v>3.2</v>
@@ -4833,7 +4836,7 @@
         <v>106</v>
       </c>
       <c r="P18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q18">
         <v>2.44</v>
@@ -5245,7 +5248,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5657,7 +5660,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>2.36</v>
@@ -5738,7 +5741,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5863,7 +5866,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -6069,7 +6072,7 @@
         <v>110</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q24">
         <v>4.4</v>
@@ -7177,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
         <v>1.78</v>
@@ -7717,7 +7720,7 @@
         <v>115</v>
       </c>
       <c r="P32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -8001,7 +8004,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ33">
         <v>0.33</v>
@@ -8129,7 +8132,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>2.9</v>
@@ -8210,7 +8213,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ34">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR34">
         <v>1.16</v>
@@ -8335,7 +8338,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -9034,7 +9037,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>1.68</v>
@@ -9159,7 +9162,7 @@
         <v>121</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>2.65</v>
@@ -9571,7 +9574,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>3.85</v>
@@ -9983,7 +9986,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>2.28</v>
@@ -10064,7 +10067,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR43">
         <v>3.16</v>
@@ -10473,7 +10476,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
         <v>1.2</v>
@@ -10601,7 +10604,7 @@
         <v>126</v>
       </c>
       <c r="P46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10807,7 +10810,7 @@
         <v>127</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10888,7 +10891,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ47">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR47">
         <v>0.71</v>
@@ -11297,7 +11300,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49">
         <v>0.78</v>
@@ -11631,7 +11634,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q51">
         <v>2.66</v>
@@ -11709,7 +11712,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
         <v>1.22</v>
@@ -11837,7 +11840,7 @@
         <v>132</v>
       </c>
       <c r="P52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q52">
         <v>1.99</v>
@@ -12043,7 +12046,7 @@
         <v>133</v>
       </c>
       <c r="P53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q53">
         <v>2.7</v>
@@ -12249,7 +12252,7 @@
         <v>134</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>2.01</v>
@@ -12455,7 +12458,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -13073,7 +13076,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>3.3</v>
@@ -13279,7 +13282,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13485,7 +13488,7 @@
         <v>136</v>
       </c>
       <c r="P60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q60">
         <v>2.63</v>
@@ -13563,7 +13566,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>0.9</v>
@@ -14184,7 +14187,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.48</v>
@@ -14387,7 +14390,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ64">
         <v>0.33</v>
@@ -14515,7 +14518,7 @@
         <v>104</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>3.17</v>
@@ -14721,7 +14724,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>2.56</v>
@@ -14802,7 +14805,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR66">
         <v>1.39</v>
@@ -14927,7 +14930,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>2.99</v>
@@ -15339,7 +15342,7 @@
         <v>118</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q69">
         <v>2.39</v>
@@ -15545,7 +15548,7 @@
         <v>142</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q70">
         <v>3.3</v>
@@ -15623,10 +15626,10 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ70">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR70">
         <v>1.76</v>
@@ -16163,7 +16166,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q73">
         <v>2.93</v>
@@ -16575,7 +16578,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>2.55</v>
@@ -17065,7 +17068,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ77">
         <v>1.11</v>
@@ -17193,7 +17196,7 @@
         <v>104</v>
       </c>
       <c r="P78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>2.96</v>
@@ -17811,7 +17814,7 @@
         <v>107</v>
       </c>
       <c r="P81" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -17889,7 +17892,7 @@
         <v>1.67</v>
       </c>
       <c r="AP81">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
         <v>1.4</v>
@@ -18095,7 +18098,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ82">
         <v>1.78</v>
@@ -18223,7 +18226,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18635,7 +18638,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -20077,7 +20080,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20773,7 +20776,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ95">
         <v>1.56</v>
@@ -20982,7 +20985,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ96">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR96">
         <v>1.88</v>
@@ -21313,7 +21316,7 @@
         <v>104</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21394,7 +21397,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.3</v>
@@ -21600,7 +21603,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ99">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR99">
         <v>1.59</v>
@@ -22009,7 +22012,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ101">
         <v>1.11</v>
@@ -22343,7 +22346,7 @@
         <v>104</v>
       </c>
       <c r="P103" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22755,7 +22758,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23248,7 +23251,7 @@
         <v>2</v>
       </c>
       <c r="AQ107">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR107">
         <v>1.89</v>
@@ -23373,7 +23376,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>3.14</v>
@@ -23579,7 +23582,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23785,7 +23788,7 @@
         <v>165</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>3.02</v>
@@ -23991,7 +23994,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>3.7</v>
@@ -24069,7 +24072,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ111">
         <v>1.56</v>
@@ -24197,7 +24200,7 @@
         <v>104</v>
       </c>
       <c r="P112" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24403,7 +24406,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24687,7 +24690,7 @@
         <v>1.8</v>
       </c>
       <c r="AP114">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ114">
         <v>1.4</v>
@@ -25227,7 +25230,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25308,7 +25311,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ117">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR117">
         <v>1.16</v>
@@ -25433,7 +25436,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>2.82</v>
@@ -26051,7 +26054,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q121">
         <v>2.62</v>
@@ -26132,7 +26135,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR121">
         <v>1.5</v>
@@ -26463,7 +26466,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q123">
         <v>2.7</v>
@@ -26669,7 +26672,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q124">
         <v>2.8</v>
@@ -26875,7 +26878,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>2.8</v>
@@ -27365,7 +27368,7 @@
         <v>1.2</v>
       </c>
       <c r="AP127">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ127">
         <v>1.44</v>
@@ -28111,7 +28114,7 @@
         <v>104</v>
       </c>
       <c r="P131" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q131">
         <v>3.8</v>
@@ -28192,7 +28195,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ131">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR131">
         <v>1.13</v>
@@ -28317,7 +28320,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q132">
         <v>2.66</v>
@@ -28935,7 +28938,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q135">
         <v>3.81</v>
@@ -29141,7 +29144,7 @@
         <v>183</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q136">
         <v>2.6</v>
@@ -29219,7 +29222,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ136">
         <v>1.33</v>
@@ -29347,7 +29350,7 @@
         <v>184</v>
       </c>
       <c r="P137" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q137">
         <v>3.2</v>
@@ -29425,7 +29428,7 @@
         <v>1.17</v>
       </c>
       <c r="AP137">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ137">
         <v>1.2</v>
@@ -29759,7 +29762,7 @@
         <v>186</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>2.93</v>
@@ -29965,7 +29968,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>2.72</v>
@@ -30046,7 +30049,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ140">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR140">
         <v>1.41</v>
@@ -30171,7 +30174,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q141">
         <v>2.63</v>
@@ -30458,7 +30461,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ142">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR142">
         <v>1.3</v>
@@ -30789,7 +30792,7 @@
         <v>104</v>
       </c>
       <c r="P144" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -30995,7 +30998,7 @@
         <v>189</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q145">
         <v>1.76</v>
@@ -31407,7 +31410,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q147">
         <v>2.4</v>
@@ -31613,7 +31616,7 @@
         <v>142</v>
       </c>
       <c r="P148" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q148">
         <v>3.15</v>
@@ -32231,7 +32234,7 @@
         <v>104</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q151">
         <v>4.28</v>
@@ -32437,7 +32440,7 @@
         <v>138</v>
       </c>
       <c r="P152" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32518,7 +32521,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ152">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR152">
         <v>1.68</v>
@@ -33261,7 +33264,7 @@
         <v>109</v>
       </c>
       <c r="P156" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -33339,7 +33342,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ156">
         <v>1.56</v>
@@ -33467,7 +33470,7 @@
         <v>104</v>
       </c>
       <c r="P157" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q157">
         <v>3.02</v>
@@ -33673,7 +33676,7 @@
         <v>197</v>
       </c>
       <c r="P158" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q158">
         <v>2.45</v>
@@ -33751,7 +33754,7 @@
         <v>0.57</v>
       </c>
       <c r="AP158">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ158">
         <v>0.89</v>
@@ -33879,7 +33882,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q159">
         <v>2.62</v>
@@ -34291,7 +34294,7 @@
         <v>194</v>
       </c>
       <c r="P161" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>2.74</v>
@@ -34575,7 +34578,7 @@
         <v>1</v>
       </c>
       <c r="AP162">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ162">
         <v>1.13</v>
@@ -34703,7 +34706,7 @@
         <v>104</v>
       </c>
       <c r="P163" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34784,7 +34787,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ163">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR163">
         <v>1.22</v>
@@ -34909,7 +34912,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q164">
         <v>2.45</v>
@@ -35196,7 +35199,7 @@
         <v>2</v>
       </c>
       <c r="AQ165">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR165">
         <v>1.15</v>
@@ -35321,7 +35324,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35527,7 +35530,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q167">
         <v>2.7</v>
@@ -36145,7 +36148,7 @@
         <v>104</v>
       </c>
       <c r="P170" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36226,7 +36229,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ170">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR170">
         <v>1.69</v>
@@ -36763,7 +36766,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q173">
         <v>3.4</v>
@@ -37175,7 +37178,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q175">
         <v>2.72</v>
@@ -37793,7 +37796,7 @@
         <v>129</v>
       </c>
       <c r="P178" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q178">
         <v>3.98</v>
@@ -37871,7 +37874,7 @@
         <v>1.5</v>
       </c>
       <c r="AP178">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ178">
         <v>1.67</v>
@@ -37999,7 +38002,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q179">
         <v>3.86</v>
@@ -38077,10 +38080,10 @@
         <v>1.29</v>
       </c>
       <c r="AP179">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ179">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR179">
         <v>1.34</v>
@@ -38205,7 +38208,7 @@
         <v>104</v>
       </c>
       <c r="P180" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q180">
         <v>3.59</v>
@@ -38411,7 +38414,7 @@
         <v>210</v>
       </c>
       <c r="P181" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q181">
         <v>3.36</v>
@@ -38492,7 +38495,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ181">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR181">
         <v>1.34</v>
@@ -38823,7 +38826,7 @@
         <v>211</v>
       </c>
       <c r="P183" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q183">
         <v>2.35</v>
@@ -38901,7 +38904,7 @@
         <v>1.5</v>
       </c>
       <c r="AP183">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ183">
         <v>1.67</v>
@@ -39029,7 +39032,7 @@
         <v>143</v>
       </c>
       <c r="P184" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q184">
         <v>2.92</v>
@@ -39235,7 +39238,7 @@
         <v>212</v>
       </c>
       <c r="P185" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39441,7 +39444,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q186">
         <v>2.83</v>
@@ -40059,7 +40062,7 @@
         <v>104</v>
       </c>
       <c r="P189" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q189">
         <v>3.08</v>
@@ -40677,7 +40680,7 @@
         <v>104</v>
       </c>
       <c r="P192" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q192">
         <v>2.12</v>
@@ -40883,7 +40886,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q193">
         <v>2.15</v>
@@ -41089,7 +41092,7 @@
         <v>192</v>
       </c>
       <c r="P194" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q194">
         <v>2.88</v>
@@ -41295,7 +41298,7 @@
         <v>104</v>
       </c>
       <c r="P195" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q195">
         <v>2.03</v>
@@ -41501,7 +41504,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q196">
         <v>2.5</v>
@@ -41707,7 +41710,7 @@
         <v>146</v>
       </c>
       <c r="P197" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q197">
         <v>2.38</v>
@@ -41913,7 +41916,7 @@
         <v>109</v>
       </c>
       <c r="P198" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q198">
         <v>3.65</v>
@@ -42276,6 +42279,624 @@
       </c>
       <c r="BP199">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>8235027</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>46010.6875</v>
+      </c>
+      <c r="F200">
+        <v>19</v>
+      </c>
+      <c r="G200" t="s">
+        <v>81</v>
+      </c>
+      <c r="H200" t="s">
+        <v>70</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>3</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200" t="s">
+        <v>217</v>
+      </c>
+      <c r="P200" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q200">
+        <v>3.1</v>
+      </c>
+      <c r="R200">
+        <v>2.04</v>
+      </c>
+      <c r="S200">
+        <v>3.4</v>
+      </c>
+      <c r="T200">
+        <v>1.47</v>
+      </c>
+      <c r="U200">
+        <v>2.79</v>
+      </c>
+      <c r="V200">
+        <v>3.1</v>
+      </c>
+      <c r="W200">
+        <v>1.36</v>
+      </c>
+      <c r="X200">
+        <v>9</v>
+      </c>
+      <c r="Y200">
+        <v>1.06</v>
+      </c>
+      <c r="Z200">
+        <v>2.45</v>
+      </c>
+      <c r="AA200">
+        <v>2.92</v>
+      </c>
+      <c r="AB200">
+        <v>2.97</v>
+      </c>
+      <c r="AC200">
+        <v>1.1</v>
+      </c>
+      <c r="AD200">
+        <v>7</v>
+      </c>
+      <c r="AE200">
+        <v>1.43</v>
+      </c>
+      <c r="AF200">
+        <v>2.8</v>
+      </c>
+      <c r="AG200">
+        <v>2.25</v>
+      </c>
+      <c r="AH200">
+        <v>1.66</v>
+      </c>
+      <c r="AI200">
+        <v>1.94</v>
+      </c>
+      <c r="AJ200">
+        <v>1.83</v>
+      </c>
+      <c r="AK200">
+        <v>1.34</v>
+      </c>
+      <c r="AL200">
+        <v>1.36</v>
+      </c>
+      <c r="AM200">
+        <v>1.48</v>
+      </c>
+      <c r="AN200">
+        <v>1.67</v>
+      </c>
+      <c r="AO200">
+        <v>1.5</v>
+      </c>
+      <c r="AP200">
+        <v>1.8</v>
+      </c>
+      <c r="AQ200">
+        <v>1.33</v>
+      </c>
+      <c r="AR200">
+        <v>1.92</v>
+      </c>
+      <c r="AS200">
+        <v>1.44</v>
+      </c>
+      <c r="AT200">
+        <v>3.36</v>
+      </c>
+      <c r="AU200">
+        <v>4</v>
+      </c>
+      <c r="AV200">
+        <v>2</v>
+      </c>
+      <c r="AW200">
+        <v>5</v>
+      </c>
+      <c r="AX200">
+        <v>4</v>
+      </c>
+      <c r="AY200">
+        <v>9</v>
+      </c>
+      <c r="AZ200">
+        <v>6</v>
+      </c>
+      <c r="BA200">
+        <v>3</v>
+      </c>
+      <c r="BB200">
+        <v>4</v>
+      </c>
+      <c r="BC200">
+        <v>7</v>
+      </c>
+      <c r="BD200">
+        <v>1.87</v>
+      </c>
+      <c r="BE200">
+        <v>7</v>
+      </c>
+      <c r="BF200">
+        <v>2.14</v>
+      </c>
+      <c r="BG200">
+        <v>1.45</v>
+      </c>
+      <c r="BH200">
+        <v>2.87</v>
+      </c>
+      <c r="BI200">
+        <v>1.64</v>
+      </c>
+      <c r="BJ200">
+        <v>1.9</v>
+      </c>
+      <c r="BK200">
+        <v>2.34</v>
+      </c>
+      <c r="BL200">
+        <v>1.56</v>
+      </c>
+      <c r="BM200">
+        <v>2.95</v>
+      </c>
+      <c r="BN200">
+        <v>1.32</v>
+      </c>
+      <c r="BO200">
+        <v>3.84</v>
+      </c>
+      <c r="BP200">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>8235140</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>46011.41666666666</v>
+      </c>
+      <c r="F201">
+        <v>19</v>
+      </c>
+      <c r="G201" t="s">
+        <v>91</v>
+      </c>
+      <c r="H201" t="s">
+        <v>87</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>1</v>
+      </c>
+      <c r="O201" t="s">
+        <v>192</v>
+      </c>
+      <c r="P201" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q201">
+        <v>3.2</v>
+      </c>
+      <c r="R201">
+        <v>2.15</v>
+      </c>
+      <c r="S201">
+        <v>3</v>
+      </c>
+      <c r="T201">
+        <v>1.4</v>
+      </c>
+      <c r="U201">
+        <v>2.73</v>
+      </c>
+      <c r="V201">
+        <v>2.81</v>
+      </c>
+      <c r="W201">
+        <v>1.38</v>
+      </c>
+      <c r="X201">
+        <v>6.9</v>
+      </c>
+      <c r="Y201">
+        <v>1.04</v>
+      </c>
+      <c r="Z201">
+        <v>2.68</v>
+      </c>
+      <c r="AA201">
+        <v>3.25</v>
+      </c>
+      <c r="AB201">
+        <v>2.5</v>
+      </c>
+      <c r="AC201">
+        <v>1.06</v>
+      </c>
+      <c r="AD201">
+        <v>10</v>
+      </c>
+      <c r="AE201">
+        <v>1.3</v>
+      </c>
+      <c r="AF201">
+        <v>3.4</v>
+      </c>
+      <c r="AG201">
+        <v>1.91</v>
+      </c>
+      <c r="AH201">
+        <v>1.83</v>
+      </c>
+      <c r="AI201">
+        <v>1.7</v>
+      </c>
+      <c r="AJ201">
+        <v>2.05</v>
+      </c>
+      <c r="AK201">
+        <v>1.33</v>
+      </c>
+      <c r="AL201">
+        <v>1.25</v>
+      </c>
+      <c r="AM201">
+        <v>1.44</v>
+      </c>
+      <c r="AN201">
+        <v>1.13</v>
+      </c>
+      <c r="AO201">
+        <v>1.89</v>
+      </c>
+      <c r="AP201">
+        <v>1.33</v>
+      </c>
+      <c r="AQ201">
+        <v>1.7</v>
+      </c>
+      <c r="AR201">
+        <v>1.58</v>
+      </c>
+      <c r="AS201">
+        <v>1.39</v>
+      </c>
+      <c r="AT201">
+        <v>2.97</v>
+      </c>
+      <c r="AU201">
+        <v>4</v>
+      </c>
+      <c r="AV201">
+        <v>1</v>
+      </c>
+      <c r="AW201">
+        <v>8</v>
+      </c>
+      <c r="AX201">
+        <v>9</v>
+      </c>
+      <c r="AY201">
+        <v>12</v>
+      </c>
+      <c r="AZ201">
+        <v>10</v>
+      </c>
+      <c r="BA201">
+        <v>1</v>
+      </c>
+      <c r="BB201">
+        <v>4</v>
+      </c>
+      <c r="BC201">
+        <v>5</v>
+      </c>
+      <c r="BD201">
+        <v>1.7</v>
+      </c>
+      <c r="BE201">
+        <v>7.9</v>
+      </c>
+      <c r="BF201">
+        <v>2.6</v>
+      </c>
+      <c r="BG201">
+        <v>1.32</v>
+      </c>
+      <c r="BH201">
+        <v>3.11</v>
+      </c>
+      <c r="BI201">
+        <v>1.57</v>
+      </c>
+      <c r="BJ201">
+        <v>2.31</v>
+      </c>
+      <c r="BK201">
+        <v>2.21</v>
+      </c>
+      <c r="BL201">
+        <v>1.81</v>
+      </c>
+      <c r="BM201">
+        <v>2.42</v>
+      </c>
+      <c r="BN201">
+        <v>1.5</v>
+      </c>
+      <c r="BO201">
+        <v>3.16</v>
+      </c>
+      <c r="BP201">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>8235308</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>46011.51041666666</v>
+      </c>
+      <c r="F202">
+        <v>19</v>
+      </c>
+      <c r="G202" t="s">
+        <v>78</v>
+      </c>
+      <c r="H202" t="s">
+        <v>72</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>106</v>
+      </c>
+      <c r="P202" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q202">
+        <v>3.62</v>
+      </c>
+      <c r="R202">
+        <v>2.05</v>
+      </c>
+      <c r="S202">
+        <v>3</v>
+      </c>
+      <c r="T202">
+        <v>1.4</v>
+      </c>
+      <c r="U202">
+        <v>2.8</v>
+      </c>
+      <c r="V202">
+        <v>2.75</v>
+      </c>
+      <c r="W202">
+        <v>1.4</v>
+      </c>
+      <c r="X202">
+        <v>7.7</v>
+      </c>
+      <c r="Y202">
+        <v>1.03</v>
+      </c>
+      <c r="Z202">
+        <v>2.75</v>
+      </c>
+      <c r="AA202">
+        <v>3.3</v>
+      </c>
+      <c r="AB202">
+        <v>2.75</v>
+      </c>
+      <c r="AC202">
+        <v>1.06</v>
+      </c>
+      <c r="AD202">
+        <v>8.5</v>
+      </c>
+      <c r="AE202">
+        <v>1.3</v>
+      </c>
+      <c r="AF202">
+        <v>3.1</v>
+      </c>
+      <c r="AG202">
+        <v>2.12</v>
+      </c>
+      <c r="AH202">
+        <v>1.75</v>
+      </c>
+      <c r="AI202">
+        <v>1.73</v>
+      </c>
+      <c r="AJ202">
+        <v>2.05</v>
+      </c>
+      <c r="AK202">
+        <v>1.29</v>
+      </c>
+      <c r="AL202">
+        <v>1.3</v>
+      </c>
+      <c r="AM202">
+        <v>1.36</v>
+      </c>
+      <c r="AN202">
+        <v>1.67</v>
+      </c>
+      <c r="AO202">
+        <v>2</v>
+      </c>
+      <c r="AP202">
+        <v>1.6</v>
+      </c>
+      <c r="AQ202">
+        <v>1.89</v>
+      </c>
+      <c r="AR202">
+        <v>1.36</v>
+      </c>
+      <c r="AS202">
+        <v>1.44</v>
+      </c>
+      <c r="AT202">
+        <v>2.8</v>
+      </c>
+      <c r="AU202">
+        <v>3</v>
+      </c>
+      <c r="AV202">
+        <v>3</v>
+      </c>
+      <c r="AW202">
+        <v>12</v>
+      </c>
+      <c r="AX202">
+        <v>7</v>
+      </c>
+      <c r="AY202">
+        <v>15</v>
+      </c>
+      <c r="AZ202">
+        <v>10</v>
+      </c>
+      <c r="BA202">
+        <v>8</v>
+      </c>
+      <c r="BB202">
+        <v>3</v>
+      </c>
+      <c r="BC202">
+        <v>11</v>
+      </c>
+      <c r="BD202">
+        <v>2.23</v>
+      </c>
+      <c r="BE202">
+        <v>7.5</v>
+      </c>
+      <c r="BF202">
+        <v>1.81</v>
+      </c>
+      <c r="BG202">
+        <v>1.31</v>
+      </c>
+      <c r="BH202">
+        <v>3.13</v>
+      </c>
+      <c r="BI202">
+        <v>1.57</v>
+      </c>
+      <c r="BJ202">
+        <v>2.32</v>
+      </c>
+      <c r="BK202">
+        <v>1.98</v>
+      </c>
+      <c r="BL202">
+        <v>1.82</v>
+      </c>
+      <c r="BM202">
+        <v>2.4</v>
+      </c>
+      <c r="BN202">
+        <v>1.5</v>
+      </c>
+      <c r="BO202">
+        <v>3.14</v>
+      </c>
+      <c r="BP202">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP204"/>
+  <dimension ref="A1:BP207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.33</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.89</v>
@@ -2881,7 +2881,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.78</v>
@@ -4843,7 +4843,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.33</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR24" t="n">
         <v>0.47</v>
@@ -6151,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR26" t="n">
         <v>1.17</v>
@@ -6369,7 +6369,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR27" t="n">
         <v>2.09</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.11</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.44</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.7</v>
@@ -11383,7 +11383,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR50" t="n">
         <v>1.82</v>
@@ -11601,7 +11601,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR51" t="n">
         <v>1.54</v>
@@ -12255,7 +12255,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR54" t="n">
         <v>1.6</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.44</v>
@@ -15304,7 +15304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.89</v>
@@ -15961,7 +15961,7 @@
         <v>2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR71" t="n">
         <v>1.51</v>
@@ -16176,10 +16176,10 @@
         <v>0.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR72" t="n">
         <v>1.08</v>
@@ -16615,7 +16615,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR74" t="n">
         <v>1.49</v>
@@ -17923,7 +17923,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR80" t="n">
         <v>1.5</v>
@@ -18795,7 +18795,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR84" t="n">
         <v>1.2</v>
@@ -20318,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.4</v>
@@ -20754,7 +20754,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.2</v>
@@ -20975,7 +20975,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR94" t="n">
         <v>1.68</v>
@@ -22062,7 +22062,7 @@
         <v>2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.7</v>
@@ -24027,7 +24027,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR108" t="n">
         <v>1.76</v>
@@ -24899,7 +24899,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR112" t="n">
         <v>0.99</v>
@@ -25117,7 +25117,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR113" t="n">
         <v>1.59</v>
@@ -25986,7 +25986,7 @@
         <v>1.75</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.89</v>
@@ -26204,7 +26204,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.2</v>
@@ -28605,7 +28605,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR129" t="n">
         <v>1.71</v>
@@ -29474,7 +29474,7 @@
         <v>0.6</v>
       </c>
       <c r="AP133" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.78</v>
@@ -29692,7 +29692,7 @@
         <v>1.2</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.33</v>
@@ -29910,7 +29910,7 @@
         <v>1.67</v>
       </c>
       <c r="AP135" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.4</v>
@@ -30782,10 +30782,10 @@
         <v>1.33</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR139" t="n">
         <v>1.63</v>
@@ -33398,7 +33398,7 @@
         <v>1.67</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.78</v>
@@ -34709,7 +34709,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR157" t="n">
         <v>1.33</v>
@@ -35145,7 +35145,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR159" t="n">
         <v>1.46</v>
@@ -35363,7 +35363,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR160" t="n">
         <v>1.4</v>
@@ -36232,7 +36232,7 @@
         <v>1.14</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.9</v>
@@ -36450,7 +36450,7 @@
         <v>1.5</v>
       </c>
       <c r="AP165" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.33</v>
@@ -36671,7 +36671,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR166" t="n">
         <v>1.46</v>
@@ -38848,7 +38848,7 @@
         <v>0</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.33</v>
@@ -39287,7 +39287,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR178" t="n">
         <v>1.53</v>
@@ -39720,7 +39720,7 @@
         <v>0.86</v>
       </c>
       <c r="AP180" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.33</v>
@@ -40159,7 +40159,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR182" t="n">
         <v>1.49</v>
@@ -40813,7 +40813,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR185" t="n">
         <v>1.52</v>
@@ -41464,7 +41464,7 @@
         <v>0.88</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ188" t="n">
         <v>0.89</v>
@@ -45031,6 +45031,660 @@
       </c>
       <c r="BP204" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>8235194</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>46012.41666666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>19</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>3</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['33', '81']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R205" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S205" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>8235030</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>46012.51041666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>19</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Real Sociedad II</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="n">
+        <v>3</v>
+      </c>
+      <c r="N206" t="n">
+        <v>4</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['43', '50', '70']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R206" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S206" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V206" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X206" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>8234962</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>46012.51041666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>19</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2</v>
+      </c>
+      <c r="N207" t="n">
+        <v>3</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['1', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="R207" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S207" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V207" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X207" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP207"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.5</v>
@@ -1355,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.7</v>
@@ -2009,7 +2009,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.9</v>
@@ -3099,7 +3099,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR28" t="n">
         <v>1.46</v>
@@ -7020,10 +7020,10 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR30" t="n">
         <v>2.37</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.9</v>
@@ -8331,7 +8331,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR36" t="n">
         <v>1.51</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.56</v>
@@ -10944,7 +10944,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.33</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.4</v>
@@ -12691,7 +12691,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR56" t="n">
         <v>1.3</v>
@@ -13127,7 +13127,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR58" t="n">
         <v>1.07</v>
@@ -13999,7 +13999,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR62" t="n">
         <v>1.59</v>
@@ -15086,7 +15086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.11</v>
@@ -15307,7 +15307,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR68" t="n">
         <v>0.97</v>
@@ -16394,7 +16394,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.78</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ74" t="n">
         <v>1</v>
@@ -16833,7 +16833,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR75" t="n">
         <v>2.02</v>
@@ -17487,7 +17487,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR78" t="n">
         <v>1.36</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.33</v>
@@ -19885,7 +19885,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR89" t="n">
         <v>1.07</v>
@@ -20100,7 +20100,7 @@
         <v>2.33</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.56</v>
@@ -20539,7 +20539,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR92" t="n">
         <v>2.49</v>
@@ -21193,7 +21193,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR95" t="n">
         <v>1.99</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.78</v>
@@ -21844,7 +21844,7 @@
         <v>1.33</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.33</v>
@@ -23591,7 +23591,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR106" t="n">
         <v>1.71</v>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.78</v>
@@ -25550,7 +25550,7 @@
         <v>1.25</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.44</v>
@@ -25768,7 +25768,7 @@
         <v>0</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.33</v>
@@ -26425,7 +26425,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR119" t="n">
         <v>2.56</v>
@@ -26643,7 +26643,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR120" t="n">
         <v>1.73</v>
@@ -30131,7 +30131,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR136" t="n">
         <v>1.68</v>
@@ -31218,10 +31218,10 @@
         <v>0.67</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR141" t="n">
         <v>1.39</v>
@@ -31436,7 +31436,7 @@
         <v>1.6</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.33</v>
@@ -31654,10 +31654,10 @@
         <v>1.17</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR143" t="n">
         <v>1.26</v>
@@ -34273,7 +34273,7 @@
         <v>2</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR155" t="n">
         <v>1.44</v>
@@ -34491,7 +34491,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR156" t="n">
         <v>1.56</v>
@@ -34927,7 +34927,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR158" t="n">
         <v>1.77</v>
@@ -35142,7 +35142,7 @@
         <v>1.29</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.4</v>
@@ -35578,7 +35578,7 @@
         <v>1.29</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.5</v>
@@ -36014,7 +36014,7 @@
         <v>1.67</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.89</v>
@@ -39938,7 +39938,7 @@
         <v>1.86</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.89</v>
@@ -40595,7 +40595,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR184" t="n">
         <v>1.46</v>
@@ -40810,7 +40810,7 @@
         <v>0.75</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ185" t="n">
         <v>1</v>
@@ -41028,10 +41028,10 @@
         <v>1.13</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR186" t="n">
         <v>1.2</v>
@@ -41467,7 +41467,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR188" t="n">
         <v>1.69</v>
@@ -45685,6 +45685,660 @@
       </c>
       <c r="BP207" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>8234964</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>46012.60416666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>19</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S208" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V208" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X208" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>8235028</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>46012.60416666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>19</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S209" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X209" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>8235307</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>46012.70833333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>19</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>CD Castellón</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['69', '82']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X210" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -46063,13 +46063,13 @@
         <v>4</v>
       </c>
       <c r="AW209" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX209" t="n">
         <v>9</v>
       </c>
       <c r="AY209" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ209" t="n">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -45842,19 +45842,19 @@
         <v>4</v>
       </c>
       <c r="AV208" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW208" t="n">
         <v>5</v>
       </c>
       <c r="AX208" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY208" t="n">
         <v>9</v>
       </c>
       <c r="AZ208" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA208" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.11</v>
@@ -7459,7 +7459,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR32" t="n">
         <v>1.33</v>
@@ -8113,7 +8113,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR35" t="n">
         <v>0.92</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.2</v>
@@ -13563,7 +13563,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR60" t="n">
         <v>1.58</v>
@@ -14432,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.33</v>
@@ -15740,7 +15740,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.7</v>
@@ -19449,7 +19449,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR87" t="n">
         <v>1.75</v>
@@ -21190,7 +21190,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.4</v>
@@ -22719,7 +22719,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR102" t="n">
         <v>1.44</v>
@@ -25332,7 +25332,7 @@
         <v>1.8</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.4</v>
@@ -27297,7 +27297,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR123" t="n">
         <v>1.11</v>
@@ -30128,7 +30128,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.3</v>
@@ -34924,7 +34924,7 @@
         <v>0.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.9</v>
@@ -36235,7 +36235,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR164" t="n">
         <v>1.62</v>
@@ -40374,7 +40374,7 @@
         <v>1.5</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.5</v>
@@ -41249,7 +41249,7 @@
         <v>2</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR187" t="n">
         <v>1.39</v>
@@ -43865,7 +43865,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR199" t="n">
         <v>1.92</v>
@@ -44080,7 +44080,7 @@
         <v>1.5</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.33</v>
@@ -46339,6 +46339,224 @@
       </c>
       <c r="BP210" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>8235145</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>46024.6875</v>
+      </c>
+      <c r="F211" t="n">
+        <v>20</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>3</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['54', '84']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S211" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X211" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BL211" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.3</v>
@@ -3317,7 +3317,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.33</v>
@@ -3971,7 +3971,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.5</v>
@@ -5061,7 +5061,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR21" t="n">
         <v>1.34</v>
@@ -5279,7 +5279,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.56</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.4</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.9</v>
@@ -6805,7 +6805,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.4</v>
@@ -8985,7 +8985,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR39" t="n">
         <v>1.75</v>
@@ -9203,7 +9203,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR40" t="n">
         <v>1.62</v>
@@ -9854,10 +9854,10 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR43" t="n">
         <v>3.16</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.4</v>
@@ -10511,7 +10511,7 @@
         <v>2</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR46" t="n">
         <v>1.42</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.5</v>
@@ -12037,7 +12037,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR53" t="n">
         <v>1.5</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -12909,7 +12909,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR57" t="n">
         <v>1.41</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.4</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.33</v>
@@ -14435,7 +14435,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR64" t="n">
         <v>1.87</v>
@@ -14868,10 +14868,10 @@
         <v>3</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR66" t="n">
         <v>1.39</v>
@@ -15089,7 +15089,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.35</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.5</v>
@@ -17269,7 +17269,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
         <v>1.34</v>
@@ -18359,7 +18359,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -18577,7 +18577,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR83" t="n">
         <v>1.49</v>
@@ -19010,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.33</v>
@@ -19446,7 +19446,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.82</v>
@@ -19882,7 +19882,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.3</v>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.9</v>
@@ -21411,7 +21411,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR96" t="n">
         <v>1.88</v>
@@ -21629,7 +21629,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR97" t="n">
         <v>1.37</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.5</v>
@@ -22501,7 +22501,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
         <v>1.58</v>
@@ -23370,7 +23370,7 @@
         <v>0.75</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.33</v>
@@ -23588,7 +23588,7 @@
         <v>1.2</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.3</v>
@@ -24024,7 +24024,7 @@
         <v>1.6</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.5</v>
@@ -24463,7 +24463,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR110" t="n">
         <v>1.34</v>
@@ -24896,7 +24896,7 @@
         <v>0.6</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ112" t="n">
         <v>1</v>
@@ -25771,7 +25771,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR116" t="n">
         <v>1.21</v>
@@ -25989,7 +25989,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR117" t="n">
         <v>1.16</v>
@@ -26422,7 +26422,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.4</v>
@@ -27079,7 +27079,7 @@
         <v>2</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR122" t="n">
         <v>1.93</v>
@@ -27294,7 +27294,7 @@
         <v>1.33</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.82</v>
@@ -27515,7 +27515,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR124" t="n">
         <v>1.31</v>
@@ -27733,7 +27733,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR125" t="n">
         <v>1.68</v>
@@ -27948,7 +27948,7 @@
         <v>0.2</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.33</v>
@@ -28602,7 +28602,7 @@
         <v>1</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129" t="n">
         <v>1</v>
@@ -28820,7 +28820,7 @@
         <v>0.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.78</v>
@@ -29256,10 +29256,10 @@
         <v>1.2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR132" t="n">
         <v>1.91</v>
@@ -29477,7 +29477,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR133" t="n">
         <v>1.1</v>
@@ -31003,7 +31003,7 @@
         <v>2</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR140" t="n">
         <v>1.41</v>
@@ -31872,7 +31872,7 @@
         <v>1.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.56</v>
@@ -32090,10 +32090,10 @@
         <v>0</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR145" t="n">
         <v>1.85</v>
@@ -32529,7 +32529,7 @@
         <v>2</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR147" t="n">
         <v>1.84</v>
@@ -33180,7 +33180,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.44</v>
@@ -33401,7 +33401,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR151" t="n">
         <v>1.39</v>
@@ -33616,7 +33616,7 @@
         <v>1.57</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.7</v>
@@ -33837,7 +33837,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR153" t="n">
         <v>1.16</v>
@@ -34052,7 +34052,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.78</v>
@@ -36017,7 +36017,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR163" t="n">
         <v>1.22</v>
@@ -37107,7 +37107,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR168" t="n">
         <v>1.43</v>
@@ -37322,10 +37322,10 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR169" t="n">
         <v>1.17</v>
@@ -37758,10 +37758,10 @@
         <v>0.43</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR171" t="n">
         <v>2.14</v>
@@ -37976,7 +37976,7 @@
         <v>0.43</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.78</v>
@@ -38630,7 +38630,7 @@
         <v>1</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.44</v>
@@ -38851,7 +38851,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR176" t="n">
         <v>1.36</v>
@@ -39066,7 +39066,7 @@
         <v>1.86</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.56</v>
@@ -39941,7 +39941,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR181" t="n">
         <v>1.34</v>
@@ -41682,10 +41682,10 @@
         <v>0.5</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR189" t="n">
         <v>1.16</v>
@@ -41900,7 +41900,7 @@
         <v>0.25</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.33</v>
@@ -42121,7 +42121,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR191" t="n">
         <v>1.58</v>
@@ -42336,7 +42336,7 @@
         <v>1</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.2</v>
@@ -42993,7 +42993,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR195" t="n">
         <v>1.37</v>
@@ -43426,10 +43426,10 @@
         <v>1.63</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR197" t="n">
         <v>2.22</v>
@@ -43862,7 +43862,7 @@
         <v>1</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.82</v>
@@ -44519,7 +44519,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR202" t="n">
         <v>1.36</v>
@@ -46557,6 +46557,1096 @@
       </c>
       <c r="BP211" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>8235142</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>46025.41666666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>20</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Cultural y Deportiva Leonesa</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Real Sociedad II</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>2</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S212" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V212" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X212" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>8235032</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>46025.51041666666</v>
+      </c>
+      <c r="F213" t="n">
+        <v>20</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>2</v>
+      </c>
+      <c r="L213" t="n">
+        <v>3</v>
+      </c>
+      <c r="M213" t="n">
+        <v>2</v>
+      </c>
+      <c r="N213" t="n">
+        <v>5</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['25', '64', '74']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['40', '90+9']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S213" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V213" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X213" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>8234966</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>46025.51041666666</v>
+      </c>
+      <c r="F214" t="n">
+        <v>20</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>CD Castellón</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>3</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>3</v>
+      </c>
+      <c r="L214" t="n">
+        <v>4</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="n">
+        <v>5</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['9', '19', '31', '74']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R214" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S214" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V214" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X214" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>8234967</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>46025.60416666666</v>
+      </c>
+      <c r="F215" t="n">
+        <v>20</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="n">
+        <v>2</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R215" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S215" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U215" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X215" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>8235309</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>46025.70833333334</v>
+      </c>
+      <c r="F216" t="n">
+        <v>20</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['44', '53']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S216" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V216" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X216" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -28736,7 +28736,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>['90+9', '90+2']</t>
+          <t>['90+2', '90+9']</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
@@ -29358,7 +29358,7 @@
         <v>45966.66666666666</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -39305,13 +39305,13 @@
         <v>8</v>
       </c>
       <c r="AW178" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX178" t="n">
         <v>9</v>
       </c>
       <c r="AY178" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ178" t="n">
         <v>17</v>
@@ -39523,13 +39523,13 @@
         <v>6</v>
       </c>
       <c r="AW179" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX179" t="n">
         <v>6</v>
       </c>
       <c r="AY179" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ179" t="n">
         <v>12</v>
@@ -44304,13 +44304,13 @@
         <v>1.7</v>
       </c>
       <c r="AR201" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AS201" t="n">
         <v>1.39</v>
       </c>
       <c r="AT201" t="n">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="AU201" t="n">
         <v>4</v>
@@ -44522,13 +44522,13 @@
         <v>1.8</v>
       </c>
       <c r="AR202" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AS202" t="n">
         <v>1.44</v>
       </c>
       <c r="AT202" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AU202" t="n">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.4</v>
@@ -3753,7 +3753,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.33</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.6</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.8</v>
@@ -5497,7 +5497,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.5</v>
@@ -7241,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>1.03</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.82</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.33</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.33</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.7</v>
@@ -9421,7 +9421,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR41" t="n">
         <v>0.74</v>
@@ -9639,7 +9639,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR42" t="n">
         <v>1.91</v>
@@ -10075,7 +10075,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR44" t="n">
         <v>1.26</v>
@@ -10293,7 +10293,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR45" t="n">
         <v>1.84</v>
@@ -11165,7 +11165,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR49" t="n">
         <v>1.31</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.6</v>
@@ -12473,7 +12473,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR55" t="n">
         <v>1.49</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.3</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.7</v>
@@ -13345,7 +13345,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR59" t="n">
         <v>1.57</v>
@@ -13996,7 +13996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.9</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.33</v>
@@ -14653,7 +14653,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR65" t="n">
         <v>1.48</v>
@@ -15525,7 +15525,7 @@
         <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR69" t="n">
         <v>1.85</v>
@@ -16397,7 +16397,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.43</v>
@@ -16830,7 +16830,7 @@
         <v>0.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.3</v>
@@ -17702,7 +17702,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.33</v>
@@ -17920,7 +17920,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.5</v>
@@ -18141,7 +18141,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR81" t="n">
         <v>1.74</v>
@@ -18792,7 +18792,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.4</v>
@@ -19231,7 +19231,7 @@
         <v>2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR86" t="n">
         <v>1.89</v>
@@ -19667,7 +19667,7 @@
         <v>2</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR88" t="n">
         <v>1.43</v>
@@ -20103,7 +20103,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR90" t="n">
         <v>1.45</v>
@@ -20321,7 +20321,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR91" t="n">
         <v>1.12</v>
@@ -20757,7 +20757,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR93" t="n">
         <v>1.14</v>
@@ -20972,7 +20972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ94" t="n">
         <v>1</v>
@@ -21408,7 +21408,7 @@
         <v>2.33</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.8</v>
@@ -22716,7 +22716,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.82</v>
@@ -22934,7 +22934,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.5</v>
@@ -23155,7 +23155,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR104" t="n">
         <v>1.22</v>
@@ -24681,7 +24681,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR111" t="n">
         <v>1.32</v>
@@ -25114,7 +25114,7 @@
         <v>1</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.4</v>
@@ -25335,7 +25335,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR114" t="n">
         <v>1.72</v>
@@ -25553,7 +25553,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR115" t="n">
         <v>1.36</v>
@@ -26207,7 +26207,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR118" t="n">
         <v>1.58</v>
@@ -26640,7 +26640,7 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.9</v>
@@ -26858,7 +26858,7 @@
         <v>1.75</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.33</v>
@@ -27730,7 +27730,7 @@
         <v>0.75</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.7</v>
@@ -28169,7 +28169,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR127" t="n">
         <v>1.55</v>
@@ -28384,10 +28384,10 @@
         <v>1.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR128" t="n">
         <v>1.56</v>
@@ -28823,7 +28823,7 @@
         <v>2</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR130" t="n">
         <v>1.82</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.7</v>
@@ -29913,7 +29913,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR135" t="n">
         <v>1.14</v>
@@ -30349,7 +30349,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR137" t="n">
         <v>1.31</v>
@@ -30564,7 +30564,7 @@
         <v>1.5</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.5</v>
@@ -31875,7 +31875,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR144" t="n">
         <v>1.93</v>
@@ -32308,10 +32308,10 @@
         <v>1.14</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR146" t="n">
         <v>1.67</v>
@@ -32744,10 +32744,10 @@
         <v>1.43</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR148" t="n">
         <v>1.46</v>
@@ -32962,7 +32962,7 @@
         <v>0.17</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.33</v>
@@ -33183,7 +33183,7 @@
         <v>2</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR150" t="n">
         <v>2.17</v>
@@ -33834,7 +33834,7 @@
         <v>0.5</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.7</v>
@@ -34055,7 +34055,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR154" t="n">
         <v>1.26</v>
@@ -35360,7 +35360,7 @@
         <v>0.86</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ160" t="n">
         <v>1</v>
@@ -36668,7 +36668,7 @@
         <v>1.71</v>
       </c>
       <c r="AP166" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.5</v>
@@ -36886,10 +36886,10 @@
         <v>1</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR167" t="n">
         <v>1.46</v>
@@ -37104,7 +37104,7 @@
         <v>1.86</v>
       </c>
       <c r="AP168" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.6</v>
@@ -37540,7 +37540,7 @@
         <v>1.75</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.7</v>
@@ -37979,7 +37979,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR172" t="n">
         <v>1.95</v>
@@ -38194,10 +38194,10 @@
         <v>1.63</v>
       </c>
       <c r="AP173" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR173" t="n">
         <v>1.11</v>
@@ -38633,7 +38633,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR175" t="n">
         <v>1.78</v>
@@ -39069,7 +39069,7 @@
         <v>2</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR177" t="n">
         <v>1.94</v>
@@ -40592,7 +40592,7 @@
         <v>1.38</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.4</v>
@@ -42118,7 +42118,7 @@
         <v>1.25</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ191" t="n">
         <v>1</v>
@@ -42339,7 +42339,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR192" t="n">
         <v>1.97</v>
@@ -42557,7 +42557,7 @@
         <v>2</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR193" t="n">
         <v>1.76</v>
@@ -42772,10 +42772,10 @@
         <v>1.25</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR194" t="n">
         <v>1.29</v>
@@ -42990,7 +42990,7 @@
         <v>0</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.4</v>
@@ -43208,10 +43208,10 @@
         <v>0.5</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR196" t="n">
         <v>1.64</v>
@@ -43644,10 +43644,10 @@
         <v>1.63</v>
       </c>
       <c r="AP198" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR198" t="n">
         <v>1.45</v>
@@ -47374,13 +47374,13 @@
         <v>7</v>
       </c>
       <c r="AX215" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY215" t="n">
         <v>8</v>
       </c>
       <c r="AZ215" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA215" t="n">
         <v>4</v>
@@ -47647,6 +47647,1096 @@
       </c>
       <c r="BP216" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>8235141</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>46026.41666666666</v>
+      </c>
+      <c r="F217" t="n">
+        <v>20</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="n">
+        <v>3</v>
+      </c>
+      <c r="N217" t="n">
+        <v>4</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['35', '58', '87']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R217" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S217" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V217" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X217" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>8235031</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>46026.51041666666</v>
+      </c>
+      <c r="F218" t="n">
+        <v>20</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="n">
+        <v>3</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['27', '47']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R218" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S218" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V218" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X218" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>8235197</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>46026.60416666666</v>
+      </c>
+      <c r="F219" t="n">
+        <v>20</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="n">
+        <v>2</v>
+      </c>
+      <c r="N219" t="n">
+        <v>3</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['21', '88']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R219" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S219" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X219" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>8235310</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>46026.60416666666</v>
+      </c>
+      <c r="F220" t="n">
+        <v>20</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>2</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>3</v>
+      </c>
+      <c r="N220" t="n">
+        <v>4</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['30', '75', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2</v>
+      </c>
+      <c r="S220" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V220" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X220" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>8235033</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>46026.70833333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>20</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Deportivo La Coruña</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="n">
+        <v>3</v>
+      </c>
+      <c r="L221" t="n">
+        <v>2</v>
+      </c>
+      <c r="M221" t="n">
+        <v>2</v>
+      </c>
+      <c r="N221" t="n">
+        <v>4</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['7', '25']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['22', '85']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S221" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V221" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X221" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -47819,13 +47819,13 @@
         <v>13</v>
       </c>
       <c r="BA217" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB217" t="n">
         <v>5</v>
       </c>
       <c r="BC217" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD217" t="n">
         <v>1.57</v>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP222"/>
+  <dimension ref="A1:BP224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.9</v>
@@ -3099,7 +3099,7 @@
         <v>2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.7</v>
@@ -4843,7 +4843,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR24" t="n">
         <v>0.47</v>
@@ -7023,7 +7023,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR30" t="n">
         <v>2.37</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.4</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.7</v>
@@ -11383,7 +11383,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR50" t="n">
         <v>1.82</v>
@@ -12691,7 +12691,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR56" t="n">
         <v>1.3</v>
@@ -15304,7 +15304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.9</v>
@@ -15961,7 +15961,7 @@
         <v>2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR71" t="n">
         <v>1.51</v>
@@ -16176,7 +16176,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.4</v>
@@ -16833,7 +16833,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR75" t="n">
         <v>2.02</v>
@@ -17923,7 +17923,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR80" t="n">
         <v>1.5</v>
@@ -19885,7 +19885,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR89" t="n">
         <v>1.07</v>
@@ -20318,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.55</v>
@@ -20754,7 +20754,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.09</v>
@@ -23591,7 +23591,7 @@
         <v>2</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR106" t="n">
         <v>1.71</v>
@@ -24027,7 +24027,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR108" t="n">
         <v>1.76</v>
@@ -25986,7 +25986,7 @@
         <v>1.75</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.8</v>
@@ -29474,7 +29474,7 @@
         <v>0.6</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.7</v>
@@ -29692,7 +29692,7 @@
         <v>1.2</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.2</v>
@@ -29910,7 +29910,7 @@
         <v>1.67</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.55</v>
@@ -30131,7 +30131,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR136" t="n">
         <v>1.68</v>
@@ -33398,7 +33398,7 @@
         <v>1.67</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.6</v>
@@ -34273,7 +34273,7 @@
         <v>2</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR155" t="n">
         <v>1.44</v>
@@ -34709,7 +34709,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR157" t="n">
         <v>1.33</v>
@@ -36450,7 +36450,7 @@
         <v>1.5</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.33</v>
@@ -36671,7 +36671,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR166" t="n">
         <v>1.46</v>
@@ -38848,7 +38848,7 @@
         <v>0</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.4</v>
@@ -39287,7 +39287,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR178" t="n">
         <v>1.53</v>
@@ -39720,7 +39720,7 @@
         <v>0.86</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.2</v>
@@ -41031,7 +41031,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR186" t="n">
         <v>1.2</v>
@@ -45173,7 +45173,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR205" t="n">
         <v>1.72</v>
@@ -45388,7 +45388,7 @@
         <v>0.78</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ206" t="n">
         <v>1</v>
@@ -45606,7 +45606,7 @@
         <v>1.22</v>
       </c>
       <c r="AP207" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.4</v>
@@ -46045,7 +46045,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR209" t="n">
         <v>1.52</v>
@@ -48955,6 +48955,442 @@
       </c>
       <c r="BP222" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>8235198</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>46032.41666666666</v>
+      </c>
+      <c r="F223" t="n">
+        <v>21</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>2</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2</v>
+      </c>
+      <c r="M223" t="n">
+        <v>2</v>
+      </c>
+      <c r="N223" t="n">
+        <v>4</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['10', '60']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['36', '86']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R223" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S223" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X223" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>8235311</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>46032.51041666666</v>
+      </c>
+      <c r="F224" t="n">
+        <v>21</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Real Sociedad II</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S224" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V224" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X224" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP224"/>
+  <dimension ref="A1:BP228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.4</v>
@@ -1573,7 +1573,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.09</v>
@@ -5933,7 +5933,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR25" t="n">
         <v>1.06</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR28" t="n">
         <v>1.46</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.6</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR33" t="n">
         <v>1.37</v>
@@ -7895,7 +7895,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR34" t="n">
         <v>1.16</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.7</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.4</v>
@@ -10729,7 +10729,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR47" t="n">
         <v>0.71</v>
@@ -10947,7 +10947,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR48" t="n">
         <v>1.59</v>
@@ -11598,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.4</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR52" t="n">
         <v>1.64</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.82</v>
@@ -13999,7 +13999,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR62" t="n">
         <v>1.59</v>
@@ -15086,7 +15086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR68" t="n">
         <v>0.97</v>
@@ -15522,7 +15522,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.09</v>
@@ -15743,7 +15743,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR70" t="n">
         <v>1.76</v>
@@ -15958,7 +15958,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.45</v>
@@ -16394,7 +16394,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -17051,7 +17051,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR76" t="n">
         <v>1.73</v>
@@ -17705,7 +17705,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR79" t="n">
         <v>1.39</v>
@@ -18138,7 +18138,7 @@
         <v>1.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.55</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ86" t="n">
         <v>1</v>
@@ -19664,7 +19664,7 @@
         <v>1.67</v>
       </c>
       <c r="AP88" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.4</v>
@@ -20539,7 +20539,7 @@
         <v>2</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR92" t="n">
         <v>2.49</v>
@@ -21844,7 +21844,7 @@
         <v>1.33</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.33</v>
@@ -22065,7 +22065,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR99" t="n">
         <v>1.59</v>
@@ -22283,7 +22283,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR100" t="n">
         <v>1.73</v>
@@ -22498,7 +22498,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ101" t="n">
         <v>1</v>
@@ -22937,7 +22937,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR103" t="n">
         <v>1.19</v>
@@ -23806,10 +23806,10 @@
         <v>1.6</v>
       </c>
       <c r="AP107" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR107" t="n">
         <v>1.89</v>
@@ -24242,10 +24242,10 @@
         <v>0.25</v>
       </c>
       <c r="AP109" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR109" t="n">
         <v>1.39</v>
@@ -25768,7 +25768,7 @@
         <v>0</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.4</v>
@@ -26643,7 +26643,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR120" t="n">
         <v>1.73</v>
@@ -27076,7 +27076,7 @@
         <v>0</v>
       </c>
       <c r="AP122" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.4</v>
@@ -27951,7 +27951,7 @@
         <v>2</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR126" t="n">
         <v>2.35</v>
@@ -28166,7 +28166,7 @@
         <v>1.2</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.4</v>
@@ -29041,7 +29041,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR131" t="n">
         <v>1.13</v>
@@ -30567,7 +30567,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR138" t="n">
         <v>1.47</v>
@@ -31000,7 +31000,7 @@
         <v>2</v>
       </c>
       <c r="AP140" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.8</v>
@@ -31221,7 +31221,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR141" t="n">
         <v>1.39</v>
@@ -31654,7 +31654,7 @@
         <v>1.17</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.4</v>
@@ -32526,7 +32526,7 @@
         <v>1</v>
       </c>
       <c r="AP147" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ147" t="n">
         <v>1</v>
@@ -32965,7 +32965,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR149" t="n">
         <v>1.43</v>
@@ -33619,7 +33619,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR152" t="n">
         <v>1.68</v>
@@ -34270,7 +34270,7 @@
         <v>1.29</v>
       </c>
       <c r="AP155" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.27</v>
@@ -34488,7 +34488,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.4</v>
@@ -34927,7 +34927,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR158" t="n">
         <v>1.77</v>
@@ -35581,7 +35581,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR161" t="n">
         <v>1.25</v>
@@ -36014,7 +36014,7 @@
         <v>1.67</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.8</v>
@@ -37543,7 +37543,7 @@
         <v>1</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR170" t="n">
         <v>1.69</v>
@@ -38412,10 +38412,10 @@
         <v>0.29</v>
       </c>
       <c r="AP174" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR174" t="n">
         <v>1.79</v>
@@ -39284,7 +39284,7 @@
         <v>1.5</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.45</v>
@@ -40377,7 +40377,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR183" t="n">
         <v>1.87</v>
@@ -41028,7 +41028,7 @@
         <v>1.13</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.27</v>
@@ -41246,7 +41246,7 @@
         <v>1</v>
       </c>
       <c r="AP187" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.82</v>
@@ -41467,7 +41467,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR188" t="n">
         <v>1.69</v>
@@ -41903,7 +41903,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR190" t="n">
         <v>1.81</v>
@@ -42554,7 +42554,7 @@
         <v>1.44</v>
       </c>
       <c r="AP193" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.55</v>
@@ -44298,10 +44298,10 @@
         <v>1.89</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR201" t="n">
         <v>1.57</v>
@@ -44952,10 +44952,10 @@
         <v>1.67</v>
       </c>
       <c r="AP204" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR204" t="n">
         <v>1.36</v>
@@ -45824,10 +45824,10 @@
         <v>0.89</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR208" t="n">
         <v>1.21</v>
@@ -48900,13 +48900,13 @@
         <v>5</v>
       </c>
       <c r="AX222" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY222" t="n">
         <v>10</v>
       </c>
       <c r="AZ222" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA222" t="n">
         <v>5</v>
@@ -49391,6 +49391,878 @@
       </c>
       <c r="BP224" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>8235034</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>46032.60416666666</v>
+      </c>
+      <c r="F225" t="n">
+        <v>21</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Cultural y Deportiva Leonesa</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>2</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S225" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V225" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X225" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>8235314</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>46032.60416666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>21</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R226" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S226" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V226" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X226" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>8235148</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>46032.60416666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>21</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Deportivo La Coruña</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>2</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="n">
+        <v>2</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R227" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S227" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V227" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X227" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>8235041</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>46032.70833333334</v>
+      </c>
+      <c r="F228" t="n">
+        <v>21</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2</v>
+      </c>
+      <c r="K228" t="n">
+        <v>2</v>
+      </c>
+      <c r="L228" t="n">
+        <v>2</v>
+      </c>
+      <c r="M228" t="n">
+        <v>3</v>
+      </c>
+      <c r="N228" t="n">
+        <v>5</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['82', '90+4']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['4', '21', '54']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R228" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S228" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U228" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V228" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X228" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -49180,7 +49180,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>8235311</v>
+        <v>8235034</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -49200,83 +49200,83 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Real Sociedad II</t>
+          <t>FC Andorra</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Albacete Balompié</t>
+          <t>Cultural y Deportiva Leonesa</t>
         </is>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['58']</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14']</t>
         </is>
       </c>
       <c r="Q224" t="n">
-        <v>3.2</v>
+        <v>2.53</v>
       </c>
       <c r="R224" t="n">
         <v>2.1</v>
       </c>
       <c r="S224" t="n">
-        <v>3.18</v>
+        <v>4.35</v>
       </c>
       <c r="T224" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U224" t="n">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="V224" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="W224" t="n">
         <v>1.41</v>
       </c>
       <c r="X224" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="Y224" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z224" t="n">
-        <v>2.62</v>
+        <v>1.95</v>
       </c>
       <c r="AA224" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB224" t="n">
-        <v>2.44</v>
+        <v>3.35</v>
       </c>
       <c r="AC224" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD224" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE224" t="n">
         <v>1.24</v>
@@ -49285,112 +49285,112 @@
         <v>3.38</v>
       </c>
       <c r="AG224" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AH224" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AI224" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AJ224" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="AK224" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AL224" t="n">
         <v>0</v>
       </c>
       <c r="AM224" t="n">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="AN224" t="n">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP224" t="n">
         <v>1.3</v>
       </c>
-      <c r="AP224" t="n">
-        <v>1.73</v>
-      </c>
       <c r="AQ224" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AR224" t="n">
-        <v>1.14</v>
+        <v>1.56</v>
       </c>
       <c r="AS224" t="n">
         <v>1.34</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="AU224" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV224" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW224" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA224" t="n">
         <v>10</v>
       </c>
-      <c r="AX224" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY224" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ224" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA224" t="n">
-        <v>2</v>
-      </c>
       <c r="BB224" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BC224" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD224" t="n">
-        <v>1.83</v>
+        <v>1.39</v>
       </c>
       <c r="BE224" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="BF224" t="n">
-        <v>2.2</v>
+        <v>2.95</v>
       </c>
       <c r="BG224" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="BH224" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BI224" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="BJ224" t="n">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="BK224" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="BL224" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="BM224" t="n">
         <v>2.4</v>
       </c>
       <c r="BN224" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="BO224" t="n">
         <v>3.1</v>
       </c>
       <c r="BP224" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="225">
@@ -49398,7 +49398,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>8235034</v>
+        <v>8235311</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -49411,90 +49411,90 @@
         </is>
       </c>
       <c r="E225" s="2" t="n">
-        <v>46032.60416666666</v>
+        <v>46032.51041666666</v>
       </c>
       <c r="F225" t="n">
         <v>21</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>FC Andorra</t>
+          <t>Real Sociedad II</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Cultural y Deportiva Leonesa</t>
+          <t>Albacete Balompié</t>
         </is>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>['58']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>['14']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q225" t="n">
-        <v>2.53</v>
+        <v>3.2</v>
       </c>
       <c r="R225" t="n">
         <v>2.1</v>
       </c>
       <c r="S225" t="n">
-        <v>4.35</v>
+        <v>3.18</v>
       </c>
       <c r="T225" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="U225" t="n">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="V225" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="W225" t="n">
         <v>1.41</v>
       </c>
       <c r="X225" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="Y225" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z225" t="n">
-        <v>1.95</v>
+        <v>2.62</v>
       </c>
       <c r="AA225" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB225" t="n">
-        <v>3.35</v>
+        <v>2.44</v>
       </c>
       <c r="AC225" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD225" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE225" t="n">
         <v>1.24</v>
@@ -49503,112 +49503,112 @@
         <v>3.38</v>
       </c>
       <c r="AG225" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AH225" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AI225" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AJ225" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="AK225" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AL225" t="n">
         <v>0</v>
       </c>
       <c r="AM225" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="AN225" t="n">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AO225" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AR225" t="n">
-        <v>1.56</v>
+        <v>1.14</v>
       </c>
       <c r="AS225" t="n">
         <v>1.34</v>
       </c>
       <c r="AT225" t="n">
-        <v>2.9</v>
+        <v>2.48</v>
       </c>
       <c r="AU225" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA225" t="n">
         <v>2</v>
       </c>
-      <c r="AW225" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY225" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ225" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA225" t="n">
+      <c r="BB225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC225" t="n">
         <v>10</v>
       </c>
-      <c r="BB225" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC225" t="n">
-        <v>11</v>
-      </c>
       <c r="BD225" t="n">
-        <v>1.39</v>
+        <v>1.83</v>
       </c>
       <c r="BE225" t="n">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="BF225" t="n">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
       <c r="BG225" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="BH225" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BI225" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="BJ225" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="BK225" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="BL225" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="BM225" t="n">
         <v>2.4</v>
       </c>
       <c r="BN225" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="BO225" t="n">
         <v>3.1</v>
       </c>
       <c r="BP225" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="226">

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP228"/>
+  <dimension ref="A1:BP232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.3</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.64</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.55</v>
@@ -2881,7 +2881,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.4</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.4</v>
@@ -6151,7 +6151,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR26" t="n">
         <v>1.17</v>
@@ -6369,7 +6369,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR27" t="n">
         <v>2.09</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.82</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.3</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.64</v>
@@ -8331,7 +8331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR36" t="n">
         <v>1.51</v>
@@ -8767,7 +8767,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR38" t="n">
         <v>1.68</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -11162,7 +11162,7 @@
         <v>3</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -11601,7 +11601,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR51" t="n">
         <v>1.54</v>
@@ -12255,7 +12255,7 @@
         <v>2</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR54" t="n">
         <v>1.6</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.55</v>
@@ -13127,7 +13127,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR58" t="n">
         <v>1.07</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.7</v>
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR63" t="n">
         <v>1.48</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.4</v>
@@ -16179,7 +16179,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR72" t="n">
         <v>1.08</v>
@@ -16615,7 +16615,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR74" t="n">
         <v>1.49</v>
@@ -17266,7 +17266,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ77" t="n">
         <v>1</v>
@@ -17484,10 +17484,10 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR78" t="n">
         <v>1.36</v>
@@ -18356,7 +18356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.6</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.4</v>
@@ -18795,7 +18795,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR84" t="n">
         <v>1.2</v>
@@ -20100,7 +20100,7 @@
         <v>2.33</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.7</v>
@@ -20975,7 +20975,7 @@
         <v>1</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR94" t="n">
         <v>1.68</v>
@@ -21193,7 +21193,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR95" t="n">
         <v>1.99</v>
@@ -21847,7 +21847,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR98" t="n">
         <v>1.3</v>
@@ -22062,7 +22062,7 @@
         <v>2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.64</v>
@@ -23152,7 +23152,7 @@
         <v>0.75</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ104" t="n">
         <v>1</v>
@@ -24678,7 +24678,7 @@
         <v>2</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.7</v>
@@ -24899,7 +24899,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR112" t="n">
         <v>0.99</v>
@@ -25117,7 +25117,7 @@
         <v>1</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR113" t="n">
         <v>1.59</v>
@@ -25550,7 +25550,7 @@
         <v>1.25</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.4</v>
@@ -26204,7 +26204,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.09</v>
@@ -26425,7 +26425,7 @@
         <v>2</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR119" t="n">
         <v>2.56</v>
@@ -26861,7 +26861,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR121" t="n">
         <v>1.5</v>
@@ -27512,7 +27512,7 @@
         <v>1.4</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.6</v>
@@ -28605,7 +28605,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR129" t="n">
         <v>1.71</v>
@@ -30346,7 +30346,7 @@
         <v>1.17</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.09</v>
@@ -30782,10 +30782,10 @@
         <v>1.33</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR139" t="n">
         <v>1.63</v>
@@ -31218,7 +31218,7 @@
         <v>0.67</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.09</v>
@@ -31439,7 +31439,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR142" t="n">
         <v>1.3</v>
@@ -31657,7 +31657,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR143" t="n">
         <v>1.26</v>
@@ -34491,7 +34491,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR156" t="n">
         <v>1.56</v>
@@ -34706,7 +34706,7 @@
         <v>1.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.45</v>
@@ -35142,10 +35142,10 @@
         <v>1.29</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR159" t="n">
         <v>1.46</v>
@@ -35363,7 +35363,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR160" t="n">
         <v>1.4</v>
@@ -35796,7 +35796,7 @@
         <v>1</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.2</v>
@@ -36232,7 +36232,7 @@
         <v>1.14</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.82</v>
@@ -36453,7 +36453,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR165" t="n">
         <v>1.15</v>
@@ -39502,10 +39502,10 @@
         <v>1.29</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR179" t="n">
         <v>1.34</v>
@@ -40156,10 +40156,10 @@
         <v>1.25</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR182" t="n">
         <v>1.49</v>
@@ -40595,7 +40595,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR184" t="n">
         <v>1.46</v>
@@ -40810,10 +40810,10 @@
         <v>0.75</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR185" t="n">
         <v>1.52</v>
@@ -41464,7 +41464,7 @@
         <v>0.88</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.09</v>
@@ -44083,7 +44083,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR200" t="n">
         <v>1.92</v>
@@ -44516,7 +44516,7 @@
         <v>2</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.8</v>
@@ -44734,7 +44734,7 @@
         <v>1.13</v>
       </c>
       <c r="AP203" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ203" t="n">
         <v>1.2</v>
@@ -45170,7 +45170,7 @@
         <v>1.67</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.45</v>
@@ -45391,7 +45391,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR206" t="n">
         <v>1.14</v>
@@ -45609,7 +45609,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR207" t="n">
         <v>1.41</v>
@@ -46042,7 +46042,7 @@
         <v>1.33</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.27</v>
@@ -46263,7 +46263,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR210" t="n">
         <v>1.36</v>
@@ -48900,13 +48900,13 @@
         <v>5</v>
       </c>
       <c r="AX222" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY222" t="n">
         <v>10</v>
       </c>
       <c r="AZ222" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA222" t="n">
         <v>5</v>
@@ -49180,7 +49180,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>8235034</v>
+        <v>8235311</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -49200,83 +49200,83 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>FC Andorra</t>
+          <t>Real Sociedad II</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Cultural y Deportiva Leonesa</t>
+          <t>Albacete Balompié</t>
         </is>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>['58']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>['14']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q224" t="n">
-        <v>2.53</v>
+        <v>3.2</v>
       </c>
       <c r="R224" t="n">
         <v>2.1</v>
       </c>
       <c r="S224" t="n">
-        <v>4.35</v>
+        <v>3.18</v>
       </c>
       <c r="T224" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="U224" t="n">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="V224" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="W224" t="n">
         <v>1.41</v>
       </c>
       <c r="X224" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="Y224" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z224" t="n">
-        <v>1.95</v>
+        <v>2.62</v>
       </c>
       <c r="AA224" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB224" t="n">
-        <v>3.35</v>
+        <v>2.44</v>
       </c>
       <c r="AC224" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD224" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE224" t="n">
         <v>1.24</v>
@@ -49285,112 +49285,112 @@
         <v>3.38</v>
       </c>
       <c r="AG224" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AH224" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AI224" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AJ224" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="AK224" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AL224" t="n">
         <v>0</v>
       </c>
       <c r="AM224" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="AN224" t="n">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AO224" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AR224" t="n">
-        <v>1.56</v>
+        <v>1.14</v>
       </c>
       <c r="AS224" t="n">
         <v>1.34</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.9</v>
+        <v>2.48</v>
       </c>
       <c r="AU224" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV224" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA224" t="n">
         <v>2</v>
       </c>
-      <c r="AW224" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX224" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY224" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ224" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA224" t="n">
+      <c r="BB224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC224" t="n">
         <v>10</v>
       </c>
-      <c r="BB224" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC224" t="n">
-        <v>11</v>
-      </c>
       <c r="BD224" t="n">
-        <v>1.39</v>
+        <v>1.83</v>
       </c>
       <c r="BE224" t="n">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="BF224" t="n">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
       <c r="BG224" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="BH224" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BI224" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="BJ224" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="BK224" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="BL224" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="BM224" t="n">
         <v>2.4</v>
       </c>
       <c r="BN224" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="BO224" t="n">
         <v>3.1</v>
       </c>
       <c r="BP224" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="225">
@@ -49398,7 +49398,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>8235311</v>
+        <v>8235034</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -49411,90 +49411,90 @@
         </is>
       </c>
       <c r="E225" s="2" t="n">
-        <v>46032.51041666666</v>
+        <v>46032.60416666666</v>
       </c>
       <c r="F225" t="n">
         <v>21</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Real Sociedad II</t>
+          <t>FC Andorra</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Albacete Balompié</t>
+          <t>Cultural y Deportiva Leonesa</t>
         </is>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['58']</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14']</t>
         </is>
       </c>
       <c r="Q225" t="n">
-        <v>3.2</v>
+        <v>2.53</v>
       </c>
       <c r="R225" t="n">
         <v>2.1</v>
       </c>
       <c r="S225" t="n">
-        <v>3.18</v>
+        <v>4.35</v>
       </c>
       <c r="T225" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U225" t="n">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="V225" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="W225" t="n">
         <v>1.41</v>
       </c>
       <c r="X225" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="Y225" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z225" t="n">
-        <v>2.62</v>
+        <v>1.95</v>
       </c>
       <c r="AA225" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB225" t="n">
-        <v>2.44</v>
+        <v>3.35</v>
       </c>
       <c r="AC225" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD225" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE225" t="n">
         <v>1.24</v>
@@ -49503,112 +49503,112 @@
         <v>3.38</v>
       </c>
       <c r="AG225" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AH225" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AI225" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AJ225" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="AK225" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AL225" t="n">
         <v>0</v>
       </c>
       <c r="AM225" t="n">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="AN225" t="n">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP225" t="n">
         <v>1.3</v>
       </c>
-      <c r="AP225" t="n">
-        <v>1.73</v>
-      </c>
       <c r="AQ225" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AR225" t="n">
-        <v>1.14</v>
+        <v>1.56</v>
       </c>
       <c r="AS225" t="n">
         <v>1.34</v>
       </c>
       <c r="AT225" t="n">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="AU225" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV225" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW225" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA225" t="n">
         <v>10</v>
       </c>
-      <c r="AX225" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY225" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ225" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA225" t="n">
-        <v>2</v>
-      </c>
       <c r="BB225" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BC225" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD225" t="n">
-        <v>1.83</v>
+        <v>1.39</v>
       </c>
       <c r="BE225" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="BF225" t="n">
-        <v>2.2</v>
+        <v>2.95</v>
       </c>
       <c r="BG225" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="BH225" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BI225" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="BJ225" t="n">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="BK225" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="BL225" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="BM225" t="n">
         <v>2.4</v>
       </c>
       <c r="BN225" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="BO225" t="n">
         <v>3.1</v>
       </c>
       <c r="BP225" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="226">
@@ -50262,6 +50262,878 @@
         <v>2.78</v>
       </c>
       <c r="BP228" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>8235040</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>46033.41666666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>21</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>3</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>3</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['13', '44', '80']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="R229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S229" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X229" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>8235037</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>46033.51041666666</v>
+      </c>
+      <c r="F230" t="n">
+        <v>21</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>CD Castellón</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S230" t="n">
+        <v>3</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V230" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X230" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>8235039</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>46033.51041666666</v>
+      </c>
+      <c r="F231" t="n">
+        <v>21</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="n">
+        <v>3</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="n">
+        <v>3</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['43', '45+1']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S231" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V231" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X231" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BL231" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO231" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>8235036</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>46034.6875</v>
+      </c>
+      <c r="F232" t="n">
+        <v>21</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" t="n">
+        <v>2</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>2</v>
+      </c>
+      <c r="N232" t="n">
+        <v>3</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['23', '89']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2</v>
+      </c>
+      <c r="S232" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V232" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X232" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN232" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP232" t="n">
         <v>1.34</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -51077,13 +51077,13 @@
         <v>5</v>
       </c>
       <c r="AW232" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX232" t="n">
         <v>9</v>
       </c>
       <c r="AY232" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ232" t="n">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP232"/>
+  <dimension ref="A1:BP233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2663,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.2</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.09</v>
@@ -10075,7 +10075,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR44" t="n">
         <v>1.26</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.91</v>
@@ -12473,7 +12473,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR55" t="n">
         <v>1.49</v>
@@ -18141,7 +18141,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR81" t="n">
         <v>1.74</v>
@@ -19010,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.2</v>
@@ -20321,7 +20321,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR91" t="n">
         <v>1.12</v>
@@ -23588,7 +23588,7 @@
         <v>1.2</v>
       </c>
       <c r="AP106" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.27</v>
@@ -25335,7 +25335,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR114" t="n">
         <v>1.72</v>
@@ -28820,7 +28820,7 @@
         <v>0.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ130" t="n">
         <v>1</v>
@@ -29913,7 +29913,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR135" t="n">
         <v>1.14</v>
@@ -32090,7 +32090,7 @@
         <v>0</v>
       </c>
       <c r="AP145" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.4</v>
@@ -32747,7 +32747,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR148" t="n">
         <v>1.46</v>
@@ -38197,7 +38197,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR173" t="n">
         <v>1.11</v>
@@ -39066,7 +39066,7 @@
         <v>1.86</v>
       </c>
       <c r="AP177" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.7</v>
@@ -42557,7 +42557,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR193" t="n">
         <v>1.76</v>
@@ -43862,7 +43862,7 @@
         <v>1</v>
       </c>
       <c r="AP199" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.82</v>
@@ -47132,7 +47132,7 @@
         <v>0.78</v>
       </c>
       <c r="AP214" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ214" t="n">
         <v>0.7</v>
@@ -48443,7 +48443,7 @@
         <v>1</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR220" t="n">
         <v>1.61</v>
@@ -51135,6 +51135,224 @@
       </c>
       <c r="BP232" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>8235150</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>46038.6875</v>
+      </c>
+      <c r="F233" t="n">
+        <v>22</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>CD Castellón</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>2</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>2</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['29', '88']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S233" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U233" t="n">
+        <v>3</v>
+      </c>
+      <c r="V233" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X233" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL233" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN233" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO233" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP233" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -51292,13 +51292,13 @@
         <v>4</v>
       </c>
       <c r="AV233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW233" t="n">
         <v>10</v>
       </c>
       <c r="AX233" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY233" t="n">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP233"/>
+  <dimension ref="A1:BP237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.27</v>
@@ -3535,7 +3535,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.09</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.45</v>
@@ -5061,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR21" t="n">
         <v>1.34</v>
@@ -7895,7 +7895,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR34" t="n">
         <v>1.16</v>
@@ -8549,7 +8549,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR37" t="n">
         <v>1.1</v>
@@ -8764,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR38" t="n">
         <v>1.68</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.7</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.8</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.42</v>
@@ -10511,7 +10511,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR46" t="n">
         <v>1.42</v>
@@ -10729,7 +10729,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR47" t="n">
         <v>0.71</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.27</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.36</v>
@@ -13778,10 +13778,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR61" t="n">
         <v>2.35</v>
@@ -13996,7 +13996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.09</v>
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR63" t="n">
         <v>1.48</v>
@@ -14435,7 +14435,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR64" t="n">
         <v>1.87</v>
@@ -15743,7 +15743,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR70" t="n">
         <v>1.76</v>
@@ -17702,7 +17702,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.3</v>
@@ -18577,7 +18577,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR83" t="n">
         <v>1.49</v>
@@ -18792,7 +18792,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.55</v>
@@ -19013,7 +19013,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR85" t="n">
         <v>1.71</v>
@@ -19882,7 +19882,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.27</v>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="AP92" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.09</v>
@@ -21847,7 +21847,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR98" t="n">
         <v>1.3</v>
@@ -22065,7 +22065,7 @@
         <v>2</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR99" t="n">
         <v>1.59</v>
@@ -22716,7 +22716,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.82</v>
@@ -22934,7 +22934,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.45</v>
@@ -23373,7 +23373,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR105" t="n">
         <v>1.89</v>
@@ -23809,7 +23809,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR107" t="n">
         <v>1.89</v>
@@ -24896,7 +24896,7 @@
         <v>0.6</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.91</v>
@@ -25771,7 +25771,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR116" t="n">
         <v>1.21</v>
@@ -26422,7 +26422,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.36</v>
@@ -26861,7 +26861,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR121" t="n">
         <v>1.5</v>
@@ -27079,7 +27079,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR122" t="n">
         <v>1.93</v>
@@ -27294,7 +27294,7 @@
         <v>1.33</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.82</v>
@@ -27948,7 +27948,7 @@
         <v>0.2</v>
       </c>
       <c r="AP126" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.3</v>
@@ -29038,10 +29038,10 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR131" t="n">
         <v>1.13</v>
@@ -29695,7 +29695,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR134" t="n">
         <v>1.22</v>
@@ -31439,7 +31439,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR142" t="n">
         <v>1.3</v>
@@ -32093,7 +32093,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR145" t="n">
         <v>1.85</v>
@@ -32744,7 +32744,7 @@
         <v>1.43</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.42</v>
@@ -33180,7 +33180,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.4</v>
@@ -33619,7 +33619,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR152" t="n">
         <v>1.68</v>
@@ -33834,7 +33834,7 @@
         <v>0.5</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.7</v>
@@ -34052,7 +34052,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ154" t="n">
         <v>1</v>
@@ -35799,7 +35799,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR162" t="n">
         <v>1.32</v>
@@ -36453,7 +36453,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR165" t="n">
         <v>1.15</v>
@@ -36668,7 +36668,7 @@
         <v>1.71</v>
       </c>
       <c r="AP166" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.45</v>
@@ -37104,7 +37104,7 @@
         <v>1.86</v>
       </c>
       <c r="AP168" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.6</v>
@@ -37322,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ169" t="n">
         <v>1</v>
@@ -37543,7 +37543,7 @@
         <v>1</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR170" t="n">
         <v>1.69</v>
@@ -37758,7 +37758,7 @@
         <v>0.43</v>
       </c>
       <c r="AP171" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.7</v>
@@ -38194,7 +38194,7 @@
         <v>1.63</v>
       </c>
       <c r="AP173" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.42</v>
@@ -38851,7 +38851,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR176" t="n">
         <v>1.36</v>
@@ -39505,7 +39505,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR179" t="n">
         <v>1.34</v>
@@ -39723,7 +39723,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR180" t="n">
         <v>1.17</v>
@@ -41682,7 +41682,7 @@
         <v>0.5</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.7</v>
@@ -42772,7 +42772,7 @@
         <v>1.25</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.4</v>
@@ -42993,7 +42993,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR195" t="n">
         <v>1.37</v>
@@ -43426,7 +43426,7 @@
         <v>1.63</v>
       </c>
       <c r="AP197" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.6</v>
@@ -43644,7 +43644,7 @@
         <v>1.63</v>
       </c>
       <c r="AP198" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.7</v>
@@ -44083,7 +44083,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR200" t="n">
         <v>1.92</v>
@@ -44301,7 +44301,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR201" t="n">
         <v>1.57</v>
@@ -44737,7 +44737,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR203" t="n">
         <v>1.42</v>
@@ -46696,10 +46696,10 @@
         <v>0.33</v>
       </c>
       <c r="AP212" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ212" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR212" t="n">
         <v>1.24</v>
@@ -46914,7 +46914,7 @@
         <v>1.11</v>
       </c>
       <c r="AP213" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ213" t="n">
         <v>1</v>
@@ -48004,7 +48004,7 @@
         <v>1.2</v>
       </c>
       <c r="AP218" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.09</v>
@@ -48222,7 +48222,7 @@
         <v>1.56</v>
       </c>
       <c r="AP219" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.7</v>
@@ -48879,7 +48879,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR222" t="n">
         <v>1.34</v>
@@ -49969,7 +49969,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR227" t="n">
         <v>1.34</v>
@@ -50405,7 +50405,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR229" t="n">
         <v>1.41</v>
@@ -51353,6 +51353,878 @@
       </c>
       <c r="BP233" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>8235038</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>46039.41666666666</v>
+      </c>
+      <c r="F234" t="n">
+        <v>22</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>3</v>
+      </c>
+      <c r="N234" t="n">
+        <v>3</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['41', '52', '54']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="R234" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S234" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="T234" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V234" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X234" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL234" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN234" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO234" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>8235044</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>46039.51041666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>22</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Cultural y Deportiva Leonesa</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>3</v>
+      </c>
+      <c r="K235" t="n">
+        <v>4</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2</v>
+      </c>
+      <c r="M235" t="n">
+        <v>4</v>
+      </c>
+      <c r="N235" t="n">
+        <v>6</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['10', '60']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['12', '16', '43', '63']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S235" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V235" t="n">
+        <v>3</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X235" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL235" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN235" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO235" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP235" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>8235313</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>46039.60416666666</v>
+      </c>
+      <c r="F236" t="n">
+        <v>22</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Real Sociedad II</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>2</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S236" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V236" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X236" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL236" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM236" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BN236" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO236" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP236" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>8235149</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>46039.70833333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>22</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Deportivo La Coruña</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>2</v>
+      </c>
+      <c r="N237" t="n">
+        <v>3</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['49', '80']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S237" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V237" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X237" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL237" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM237" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN237" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO237" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="BP237" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP237"/>
+  <dimension ref="A1:BP242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.45</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.36</v>
@@ -2445,7 +2445,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.8</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.91</v>
@@ -7241,7 +7241,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR31" t="n">
         <v>1.03</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.82</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.36</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR40" t="n">
         <v>1.62</v>
@@ -9421,7 +9421,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR41" t="n">
         <v>0.74</v>
@@ -9636,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR42" t="n">
         <v>1.91</v>
@@ -10293,7 +10293,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR45" t="n">
         <v>1.84</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.75</v>
@@ -11165,7 +11165,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR49" t="n">
         <v>1.31</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.45</v>
@@ -12909,7 +12909,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR57" t="n">
         <v>1.41</v>
@@ -13345,7 +13345,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR59" t="n">
         <v>1.57</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.36</v>
@@ -14653,7 +14653,7 @@
         <v>2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR65" t="n">
         <v>1.48</v>
@@ -14868,7 +14868,7 @@
         <v>3</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.8</v>
@@ -15086,7 +15086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -15304,7 +15304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.09</v>
@@ -15522,10 +15522,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR69" t="n">
         <v>1.85</v>
@@ -16394,10 +16394,10 @@
         <v>1.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR73" t="n">
         <v>1.43</v>
@@ -19228,10 +19228,10 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR86" t="n">
         <v>1.89</v>
@@ -19667,7 +19667,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR88" t="n">
         <v>1.43</v>
@@ -20103,7 +20103,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR90" t="n">
         <v>1.45</v>
@@ -20318,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.42</v>
@@ -20757,7 +20757,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR93" t="n">
         <v>1.14</v>
@@ -20972,7 +20972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.91</v>
@@ -21629,7 +21629,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR97" t="n">
         <v>1.37</v>
@@ -21844,7 +21844,7 @@
         <v>1.33</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.36</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.45</v>
@@ -23155,7 +23155,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR104" t="n">
         <v>1.22</v>
@@ -23806,7 +23806,7 @@
         <v>1.6</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.75</v>
@@ -24024,7 +24024,7 @@
         <v>1.6</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.45</v>
@@ -24681,7 +24681,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR111" t="n">
         <v>1.32</v>
@@ -25114,7 +25114,7 @@
         <v>1</v>
       </c>
       <c r="AP113" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.55</v>
@@ -25553,7 +25553,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR115" t="n">
         <v>1.36</v>
@@ -25768,7 +25768,7 @@
         <v>0</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.45</v>
@@ -25986,7 +25986,7 @@
         <v>1.75</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.8</v>
@@ -26207,7 +26207,7 @@
         <v>2</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR118" t="n">
         <v>1.58</v>
@@ -27076,7 +27076,7 @@
         <v>0</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.45</v>
@@ -27730,10 +27730,10 @@
         <v>0.75</v>
       </c>
       <c r="AP125" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR125" t="n">
         <v>1.68</v>
@@ -28169,7 +28169,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR127" t="n">
         <v>1.55</v>
@@ -28387,7 +28387,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR128" t="n">
         <v>1.56</v>
@@ -28602,7 +28602,7 @@
         <v>1</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.91</v>
@@ -28823,7 +28823,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR130" t="n">
         <v>1.82</v>
@@ -29477,7 +29477,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR133" t="n">
         <v>1.1</v>
@@ -29692,7 +29692,7 @@
         <v>1.2</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.36</v>
@@ -30349,7 +30349,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR137" t="n">
         <v>1.31</v>
@@ -31654,7 +31654,7 @@
         <v>1.17</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.36</v>
@@ -31875,7 +31875,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR144" t="n">
         <v>1.93</v>
@@ -32308,10 +32308,10 @@
         <v>1.14</v>
       </c>
       <c r="AP146" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR146" t="n">
         <v>1.67</v>
@@ -32526,7 +32526,7 @@
         <v>1</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ147" t="n">
         <v>1</v>
@@ -33183,7 +33183,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR150" t="n">
         <v>2.17</v>
@@ -33398,7 +33398,7 @@
         <v>1.67</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.6</v>
@@ -33616,7 +33616,7 @@
         <v>1.57</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.75</v>
@@ -33837,7 +33837,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR153" t="n">
         <v>1.16</v>
@@ -34055,7 +34055,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR154" t="n">
         <v>1.26</v>
@@ -36014,7 +36014,7 @@
         <v>1.67</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.8</v>
@@ -36889,7 +36889,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR167" t="n">
         <v>1.46</v>
@@ -37540,7 +37540,7 @@
         <v>1.75</v>
       </c>
       <c r="AP170" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.75</v>
@@ -37761,7 +37761,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR171" t="n">
         <v>2.14</v>
@@ -37979,7 +37979,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR172" t="n">
         <v>1.95</v>
@@ -38412,7 +38412,7 @@
         <v>0.29</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ174" t="n">
         <v>0.3</v>
@@ -38630,10 +38630,10 @@
         <v>1</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR175" t="n">
         <v>1.78</v>
@@ -38848,7 +38848,7 @@
         <v>0</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.45</v>
@@ -39069,7 +39069,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR177" t="n">
         <v>1.94</v>
@@ -41028,7 +41028,7 @@
         <v>1.13</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.27</v>
@@ -41685,7 +41685,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR189" t="n">
         <v>1.16</v>
@@ -41900,7 +41900,7 @@
         <v>0.25</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.3</v>
@@ -42339,7 +42339,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR192" t="n">
         <v>1.97</v>
@@ -42554,7 +42554,7 @@
         <v>1.44</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.42</v>
@@ -42775,7 +42775,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR194" t="n">
         <v>1.29</v>
@@ -43208,10 +43208,10 @@
         <v>0.5</v>
       </c>
       <c r="AP196" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR196" t="n">
         <v>1.64</v>
@@ -43647,7 +43647,7 @@
         <v>2</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR198" t="n">
         <v>1.45</v>
@@ -45606,7 +45606,7 @@
         <v>1.22</v>
       </c>
       <c r="AP207" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.55</v>
@@ -45824,7 +45824,7 @@
         <v>0.89</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.09</v>
@@ -47135,7 +47135,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ214" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR214" t="n">
         <v>1.91</v>
@@ -47568,7 +47568,7 @@
         <v>1.78</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ216" t="n">
         <v>1.6</v>
@@ -47789,7 +47789,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR217" t="n">
         <v>1.58</v>
@@ -48007,7 +48007,7 @@
         <v>2</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR218" t="n">
         <v>1.47</v>
@@ -48225,7 +48225,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR219" t="n">
         <v>1.3</v>
@@ -48440,7 +48440,7 @@
         <v>1.4</v>
       </c>
       <c r="AP220" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ220" t="n">
         <v>1.42</v>
@@ -48661,7 +48661,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR221" t="n">
         <v>1.46</v>
@@ -49094,7 +49094,7 @@
         <v>1.5</v>
       </c>
       <c r="AP223" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ223" t="n">
         <v>1.45</v>
@@ -49748,7 +49748,7 @@
         <v>0.33</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ226" t="n">
         <v>0.3</v>
@@ -50184,7 +50184,7 @@
         <v>0.9</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.09</v>
@@ -52225,6 +52225,1096 @@
       </c>
       <c r="BP237" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>8235199</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>46040.41666666666</v>
+      </c>
+      <c r="F238" t="n">
+        <v>22</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>2</v>
+      </c>
+      <c r="N238" t="n">
+        <v>3</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['10', '48']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T238" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V238" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X238" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL238" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM238" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN238" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO238" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP238" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>8235316</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>46040.51041666666</v>
+      </c>
+      <c r="F239" t="n">
+        <v>22</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>2</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="n">
+        <v>3</v>
+      </c>
+      <c r="L239" t="n">
+        <v>4</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>5</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['28', '45', '67', '71']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R239" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S239" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T239" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V239" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X239" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BL239" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM239" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN239" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO239" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BP239" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>8235042</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>46040.60416666666</v>
+      </c>
+      <c r="F240" t="n">
+        <v>22</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R240" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S240" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V240" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X240" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL240" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM240" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN240" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO240" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP240" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>8235043</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>46040.60416666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>22</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R241" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S241" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V241" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X241" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BL241" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN241" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO241" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP241" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>8235200</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>46040.70833333334</v>
+      </c>
+      <c r="F242" t="n">
+        <v>22</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R242" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S242" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T242" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V242" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X242" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL242" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM242" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN242" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO242" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BP242" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -52397,13 +52397,13 @@
         <v>14</v>
       </c>
       <c r="BA238" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB238" t="n">
         <v>1</v>
       </c>
       <c r="BC238" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD238" t="n">
         <v>1.97</v>
@@ -53272,10 +53272,10 @@
         <v>8</v>
       </c>
       <c r="BB242" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC242" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD242" t="n">
         <v>1.45</v>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP242"/>
+  <dimension ref="A1:BP243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.75</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.82</v>
@@ -7677,7 +7677,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR33" t="n">
         <v>1.37</v>
@@ -10947,7 +10947,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR48" t="n">
         <v>1.59</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.42</v>
@@ -17705,7 +17705,7 @@
         <v>2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR79" t="n">
         <v>1.39</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.45</v>
@@ -20100,7 +20100,7 @@
         <v>2.33</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.55</v>
@@ -24245,7 +24245,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR109" t="n">
         <v>1.39</v>
@@ -25550,7 +25550,7 @@
         <v>1.25</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.27</v>
@@ -27951,7 +27951,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR126" t="n">
         <v>2.35</v>
@@ -31218,7 +31218,7 @@
         <v>0.67</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.09</v>
@@ -32965,7 +32965,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR149" t="n">
         <v>1.43</v>
@@ -35142,7 +35142,7 @@
         <v>1.29</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.55</v>
@@ -38415,7 +38415,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR174" t="n">
         <v>1.79</v>
@@ -40810,7 +40810,7 @@
         <v>0.75</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.91</v>
@@ -41903,7 +41903,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR190" t="n">
         <v>1.81</v>
@@ -46042,7 +46042,7 @@
         <v>1.33</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.27</v>
@@ -49751,7 +49751,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR226" t="n">
         <v>1.21</v>
@@ -50620,7 +50620,7 @@
         <v>1.4</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.36</v>
@@ -53315,6 +53315,224 @@
       </c>
       <c r="BP242" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>8235312</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>46041.6875</v>
+      </c>
+      <c r="F243" t="n">
+        <v>22</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R243" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S243" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="T243" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V243" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X243" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL243" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM243" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN243" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO243" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP243" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -53251,13 +53251,13 @@
         <v>2.97</v>
       </c>
       <c r="AU242" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV242" t="n">
         <v>5</v>
       </c>
       <c r="AW242" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX242" t="n">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP243"/>
+  <dimension ref="A1:BP244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.36</v>
@@ -4625,7 +4625,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.45</v>
@@ -6805,7 +6805,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -12037,7 +12037,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR53" t="n">
         <v>1.5</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.27</v>
@@ -18359,7 +18359,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -22062,7 +22062,7 @@
         <v>2</v>
       </c>
       <c r="AP99" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.75</v>
@@ -24463,7 +24463,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR110" t="n">
         <v>1.34</v>
@@ -26204,7 +26204,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.25</v>
@@ -27515,7 +27515,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR124" t="n">
         <v>1.31</v>
@@ -30782,7 +30782,7 @@
         <v>1.33</v>
       </c>
       <c r="AP139" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.55</v>
@@ -33401,7 +33401,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR151" t="n">
         <v>1.39</v>
@@ -36232,7 +36232,7 @@
         <v>1.14</v>
       </c>
       <c r="AP164" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.82</v>
@@ -37107,7 +37107,7 @@
         <v>2</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR168" t="n">
         <v>1.43</v>
@@ -41464,7 +41464,7 @@
         <v>0.88</v>
       </c>
       <c r="AP188" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.09</v>
@@ -43429,7 +43429,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR197" t="n">
         <v>2.22</v>
@@ -45170,7 +45170,7 @@
         <v>1.67</v>
       </c>
       <c r="AP205" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.45</v>
@@ -47571,7 +47571,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR216" t="n">
         <v>1.76</v>
@@ -50838,7 +50838,7 @@
         <v>1</v>
       </c>
       <c r="AP231" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ231" t="n">
         <v>0.91</v>
@@ -53533,6 +53533,224 @@
       </c>
       <c r="BP243" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>8235152</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>46045.6875</v>
+      </c>
+      <c r="F244" t="n">
+        <v>23</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>2</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>2</v>
+      </c>
+      <c r="L244" t="n">
+        <v>3</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>3</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['33', '38', '86']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R244" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S244" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="T244" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V244" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X244" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL244" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM244" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO244" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP244" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP244"/>
+  <dimension ref="A1:BP246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.91</v>
@@ -3099,7 +3099,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.27</v>
@@ -5061,7 +5061,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR21" t="n">
         <v>1.34</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.55</v>
@@ -7023,7 +7023,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR30" t="n">
         <v>2.37</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.75</v>
@@ -10511,7 +10511,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR46" t="n">
         <v>1.42</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.45</v>
@@ -12691,7 +12691,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR56" t="n">
         <v>1.3</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.55</v>
@@ -14435,7 +14435,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR64" t="n">
         <v>1.87</v>
@@ -16833,7 +16833,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR75" t="n">
         <v>2.02</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.45</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.36</v>
@@ -18577,7 +18577,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR83" t="n">
         <v>1.49</v>
@@ -19446,7 +19446,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.82</v>
@@ -19885,7 +19885,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR89" t="n">
         <v>1.07</v>
@@ -23152,7 +23152,7 @@
         <v>0.75</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.18</v>
@@ -23370,7 +23370,7 @@
         <v>0.75</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.36</v>
@@ -23591,7 +23591,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR106" t="n">
         <v>1.71</v>
@@ -25771,7 +25771,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR116" t="n">
         <v>1.21</v>
@@ -27079,7 +27079,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR122" t="n">
         <v>1.93</v>
@@ -27512,7 +27512,7 @@
         <v>1.4</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.45</v>
@@ -29256,7 +29256,7 @@
         <v>1.2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ132" t="n">
         <v>1</v>
@@ -30131,7 +30131,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR136" t="n">
         <v>1.68</v>
@@ -31872,7 +31872,7 @@
         <v>1.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.55</v>
@@ -32093,7 +32093,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR145" t="n">
         <v>1.85</v>
@@ -34273,7 +34273,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR155" t="n">
         <v>1.44</v>
@@ -34706,7 +34706,7 @@
         <v>1.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.45</v>
@@ -37976,7 +37976,7 @@
         <v>0.43</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.18</v>
@@ -38851,7 +38851,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR176" t="n">
         <v>1.36</v>
@@ -40156,7 +40156,7 @@
         <v>1.25</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.55</v>
@@ -41031,7 +41031,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR186" t="n">
         <v>1.2</v>
@@ -42336,7 +42336,7 @@
         <v>1</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.25</v>
@@ -42993,7 +42993,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR195" t="n">
         <v>1.37</v>
@@ -44734,7 +44734,7 @@
         <v>1.13</v>
       </c>
       <c r="AP203" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ203" t="n">
         <v>1.36</v>
@@ -46045,7 +46045,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR209" t="n">
         <v>1.52</v>
@@ -46699,7 +46699,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ212" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR212" t="n">
         <v>1.24</v>
@@ -47350,7 +47350,7 @@
         <v>1.89</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.8</v>
@@ -49315,7 +49315,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR224" t="n">
         <v>1.14</v>
@@ -50402,7 +50402,7 @@
         <v>1.33</v>
       </c>
       <c r="AP229" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ229" t="n">
         <v>1.36</v>
@@ -51931,7 +51931,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR236" t="n">
         <v>1.26</v>
@@ -53751,6 +53751,442 @@
       </c>
       <c r="BP244" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>8235048</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>46046.41666666666</v>
+      </c>
+      <c r="F245" t="n">
+        <v>23</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R245" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S245" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T245" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V245" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X245" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL245" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM245" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN245" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO245" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP245" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>8235315</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>46046.51041666666</v>
+      </c>
+      <c r="F246" t="n">
+        <v>23</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Real Sociedad II</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>2</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>2</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['62', '83']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R246" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S246" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T246" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V246" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X246" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BL246" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM246" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BN246" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO246" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP246" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP246"/>
+  <dimension ref="A1:BP249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.25</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.45</v>
@@ -6369,7 +6369,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR27" t="n">
         <v>2.09</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.42</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.18</v>
@@ -7459,7 +7459,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR32" t="n">
         <v>1.33</v>
@@ -8113,7 +8113,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR35" t="n">
         <v>0.92</v>
@@ -8985,7 +8985,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR39" t="n">
         <v>1.75</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.42</v>
@@ -10944,7 +10944,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.36</v>
@@ -11601,7 +11601,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR51" t="n">
         <v>1.54</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.45</v>
@@ -13563,7 +13563,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR60" t="n">
         <v>1.58</v>
@@ -15089,7 +15089,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR67" t="n">
         <v>1.35</v>
@@ -15958,7 +15958,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.45</v>
@@ -16179,7 +16179,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR72" t="n">
         <v>1.08</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.91</v>
@@ -16830,7 +16830,7 @@
         <v>0.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.42</v>
@@ -17269,7 +17269,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR77" t="n">
         <v>1.34</v>
@@ -18795,7 +18795,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR84" t="n">
         <v>1.2</v>
@@ -19449,7 +19449,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR87" t="n">
         <v>1.75</v>
@@ -19664,7 +19664,7 @@
         <v>1.67</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.27</v>
@@ -21408,7 +21408,7 @@
         <v>2.33</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.8</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.64</v>
@@ -22501,7 +22501,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR101" t="n">
         <v>1.58</v>
@@ -22719,7 +22719,7 @@
         <v>2</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR102" t="n">
         <v>1.44</v>
@@ -24242,7 +24242,7 @@
         <v>0.25</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.36</v>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.45</v>
@@ -25117,7 +25117,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR113" t="n">
         <v>1.59</v>
@@ -26640,7 +26640,7 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.09</v>
@@ -27297,7 +27297,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR123" t="n">
         <v>1.11</v>
@@ -28384,7 +28384,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.55</v>
@@ -29259,7 +29259,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR132" t="n">
         <v>1.91</v>
@@ -30785,7 +30785,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR139" t="n">
         <v>1.63</v>
@@ -31000,7 +31000,7 @@
         <v>2</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.8</v>
@@ -31436,7 +31436,7 @@
         <v>1.6</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.36</v>
@@ -32529,7 +32529,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR147" t="n">
         <v>1.84</v>
@@ -32962,7 +32962,7 @@
         <v>0.17</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.36</v>
@@ -34270,7 +34270,7 @@
         <v>1.29</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.42</v>
@@ -35145,7 +35145,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR159" t="n">
         <v>1.46</v>
@@ -35578,7 +35578,7 @@
         <v>1.29</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.45</v>
@@ -36235,7 +36235,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR164" t="n">
         <v>1.62</v>
@@ -36886,7 +36886,7 @@
         <v>1</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.25</v>
@@ -37325,7 +37325,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR169" t="n">
         <v>1.17</v>
@@ -39938,7 +39938,7 @@
         <v>1.86</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.8</v>
@@ -40159,7 +40159,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR182" t="n">
         <v>1.49</v>
@@ -41246,10 +41246,10 @@
         <v>1</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR187" t="n">
         <v>1.39</v>
@@ -42118,10 +42118,10 @@
         <v>1.25</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR191" t="n">
         <v>1.58</v>
@@ -43865,7 +43865,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR199" t="n">
         <v>1.92</v>
@@ -44952,7 +44952,7 @@
         <v>1.67</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.45</v>
@@ -45609,7 +45609,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR207" t="n">
         <v>1.41</v>
@@ -46260,7 +46260,7 @@
         <v>1.56</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.36</v>
@@ -46481,7 +46481,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR211" t="n">
         <v>1.86</v>
@@ -46917,7 +46917,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR213" t="n">
         <v>2.12</v>
@@ -47786,7 +47786,7 @@
         <v>0.78</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.18</v>
@@ -48876,7 +48876,7 @@
         <v>1.33</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.36</v>
@@ -49966,7 +49966,7 @@
         <v>1.7</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.75</v>
@@ -51059,7 +51059,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR232" t="n">
         <v>1.39</v>
@@ -54187,6 +54187,660 @@
       </c>
       <c r="BP246" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>8234969</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>46046.60416666666</v>
+      </c>
+      <c r="F247" t="n">
+        <v>23</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>3</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>3</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['45+1', '53', '73']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="R247" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S247" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V247" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X247" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL247" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM247" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN247" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO247" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP247" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>8234985</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>46046.60416666666</v>
+      </c>
+      <c r="F248" t="n">
+        <v>23</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>2</v>
+      </c>
+      <c r="K248" t="n">
+        <v>3</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="n">
+        <v>2</v>
+      </c>
+      <c r="N248" t="n">
+        <v>3</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['10', '13']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R248" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S248" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="T248" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="V248" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X248" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BL248" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM248" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BN248" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO248" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP248" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>8235045</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>46046.70833333334</v>
+      </c>
+      <c r="F249" t="n">
+        <v>23</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="n">
+        <v>2</v>
+      </c>
+      <c r="N249" t="n">
+        <v>3</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>['11', '64']</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="R249" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S249" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V249" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X249" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL249" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM249" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN249" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO249" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP249" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP249"/>
+  <dimension ref="A1:BP252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.18</v>
@@ -3971,7 +3971,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.25</v>
@@ -4843,7 +4843,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR24" t="n">
         <v>0.47</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.45</v>
@@ -8331,7 +8331,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR36" t="n">
         <v>1.51</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.36</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR40" t="n">
         <v>1.62</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.25</v>
@@ -11383,7 +11383,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR50" t="n">
         <v>1.82</v>
@@ -11598,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.67</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.42</v>
@@ -12909,7 +12909,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR57" t="n">
         <v>1.41</v>
@@ -13127,7 +13127,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR58" t="n">
         <v>1.07</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.75</v>
@@ -14432,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.42</v>
@@ -15740,7 +15740,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.75</v>
@@ -15961,7 +15961,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR71" t="n">
         <v>1.51</v>
@@ -17487,7 +17487,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR78" t="n">
         <v>1.36</v>
@@ -17923,7 +17923,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR80" t="n">
         <v>1.5</v>
@@ -18138,7 +18138,7 @@
         <v>1.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.42</v>
@@ -18792,7 +18792,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.67</v>
@@ -21190,10 +21190,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR95" t="n">
         <v>1.99</v>
@@ -21629,7 +21629,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR97" t="n">
         <v>1.37</v>
@@ -22498,7 +22498,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.18</v>
@@ -22934,7 +22934,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.45</v>
@@ -24027,7 +24027,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR108" t="n">
         <v>1.76</v>
@@ -25332,7 +25332,7 @@
         <v>1.8</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.42</v>
@@ -26425,7 +26425,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR119" t="n">
         <v>2.56</v>
@@ -27733,7 +27733,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR125" t="n">
         <v>1.68</v>
@@ -28166,7 +28166,7 @@
         <v>1.2</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.27</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.75</v>
@@ -29477,7 +29477,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR133" t="n">
         <v>1.1</v>
@@ -30128,7 +30128,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.42</v>
@@ -31657,7 +31657,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR143" t="n">
         <v>1.26</v>
@@ -33834,10 +33834,10 @@
         <v>0.5</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR153" t="n">
         <v>1.16</v>
@@ -34488,10 +34488,10 @@
         <v>1.14</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR156" t="n">
         <v>1.56</v>
@@ -34709,7 +34709,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR157" t="n">
         <v>1.33</v>
@@ -34924,7 +34924,7 @@
         <v>0.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.09</v>
@@ -36671,7 +36671,7 @@
         <v>2</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR166" t="n">
         <v>1.46</v>
@@ -37761,7 +37761,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR171" t="n">
         <v>2.14</v>
@@ -38194,7 +38194,7 @@
         <v>1.63</v>
       </c>
       <c r="AP173" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.42</v>
@@ -39284,10 +39284,10 @@
         <v>1.5</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR178" t="n">
         <v>1.53</v>
@@ -40374,7 +40374,7 @@
         <v>1.5</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.45</v>
@@ -40595,7 +40595,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR184" t="n">
         <v>1.46</v>
@@ -41685,7 +41685,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR189" t="n">
         <v>1.16</v>
@@ -42772,7 +42772,7 @@
         <v>1.25</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.27</v>
@@ -44080,7 +44080,7 @@
         <v>1.5</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.36</v>
@@ -44298,7 +44298,7 @@
         <v>1.89</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.75</v>
@@ -45173,7 +45173,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR205" t="n">
         <v>1.72</v>
@@ -46263,7 +46263,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR210" t="n">
         <v>1.36</v>
@@ -46478,7 +46478,7 @@
         <v>0.9</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.75</v>
@@ -47135,7 +47135,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ214" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR214" t="n">
         <v>1.91</v>
@@ -48222,7 +48222,7 @@
         <v>1.56</v>
       </c>
       <c r="AP219" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.55</v>
@@ -49097,7 +49097,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR223" t="n">
         <v>1.36</v>
@@ -49530,7 +49530,7 @@
         <v>1.5</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ225" t="n">
         <v>1.45</v>
@@ -50623,7 +50623,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR230" t="n">
         <v>1.56</v>
@@ -51928,7 +51928,7 @@
         <v>0.4</v>
       </c>
       <c r="AP236" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ236" t="n">
         <v>0.42</v>
@@ -53021,7 +53021,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ241" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR241" t="n">
         <v>1.22</v>
@@ -54841,6 +54841,660 @@
       </c>
       <c r="BP249" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>8235151</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>46047.41666666666</v>
+      </c>
+      <c r="F250" t="n">
+        <v>23</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="n">
+        <v>2</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="n">
+        <v>2</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R250" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S250" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T250" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V250" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X250" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL250" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM250" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN250" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO250" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BP250" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>8235046</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>46047.51041666666</v>
+      </c>
+      <c r="F251" t="n">
+        <v>23</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R251" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S251" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T251" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V251" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X251" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL251" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM251" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN251" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO251" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BP251" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>8235049</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>46047.60416666666</v>
+      </c>
+      <c r="F252" t="n">
+        <v>23</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>CD Castellón</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S252" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T252" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V252" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X252" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL252" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM252" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BN252" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO252" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BP252" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP252"/>
+  <dimension ref="A1:BP253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.45</v>
@@ -5279,7 +5279,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.36</v>
@@ -9857,7 +9857,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR43" t="n">
         <v>3.16</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.67</v>
@@ -14871,7 +14871,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR66" t="n">
         <v>1.39</v>
@@ -17920,7 +17920,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.33</v>
@@ -21411,7 +21411,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR96" t="n">
         <v>1.88</v>
@@ -25989,7 +25989,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR117" t="n">
         <v>1.16</v>
@@ -26858,7 +26858,7 @@
         <v>1.75</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.36</v>
@@ -30564,7 +30564,7 @@
         <v>1.5</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.45</v>
@@ -31003,7 +31003,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR140" t="n">
         <v>1.41</v>
@@ -35360,7 +35360,7 @@
         <v>0.86</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.91</v>
@@ -36017,7 +36017,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR163" t="n">
         <v>1.22</v>
@@ -39941,7 +39941,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR181" t="n">
         <v>1.34</v>
@@ -40592,7 +40592,7 @@
         <v>1.38</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.33</v>
@@ -42990,7 +42990,7 @@
         <v>0</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.42</v>
@@ -44519,7 +44519,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR202" t="n">
         <v>1.37</v>
@@ -47353,7 +47353,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR215" t="n">
         <v>1.96</v>
@@ -48658,7 +48658,7 @@
         <v>1.44</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.27</v>
@@ -55440,13 +55440,13 @@
         <v>6</v>
       </c>
       <c r="AX252" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY252" t="n">
         <v>6</v>
       </c>
       <c r="AZ252" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA252" t="n">
         <v>3</v>
@@ -55495,6 +55495,224 @@
       </c>
       <c r="BP252" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>8235047</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>46047.70833333334</v>
+      </c>
+      <c r="F253" t="n">
+        <v>23</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Deportivo La Coruña</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R253" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S253" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T253" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U253" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V253" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X253" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL253" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM253" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN253" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO253" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP253" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP253"/>
+  <dimension ref="A1:BP254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.36</v>
@@ -5933,7 +5933,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR25" t="n">
         <v>1.06</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.67</v>
@@ -11819,7 +11819,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR52" t="n">
         <v>1.64</v>
@@ -13996,7 +13996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.09</v>
@@ -17051,7 +17051,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR76" t="n">
         <v>1.73</v>
@@ -17702,7 +17702,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.36</v>
@@ -22283,7 +22283,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR100" t="n">
         <v>1.73</v>
@@ -22716,7 +22716,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.75</v>
@@ -22937,7 +22937,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR103" t="n">
         <v>1.19</v>
@@ -30567,7 +30567,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR138" t="n">
         <v>1.47</v>
@@ -32744,7 +32744,7 @@
         <v>1.43</v>
       </c>
       <c r="AP148" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.42</v>
@@ -35581,7 +35581,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR161" t="n">
         <v>1.25</v>
@@ -36668,7 +36668,7 @@
         <v>1.71</v>
       </c>
       <c r="AP166" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.33</v>
@@ -37104,7 +37104,7 @@
         <v>1.86</v>
       </c>
       <c r="AP168" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.45</v>
@@ -40377,7 +40377,7 @@
         <v>2</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR183" t="n">
         <v>1.87</v>
@@ -43644,7 +43644,7 @@
         <v>1.63</v>
       </c>
       <c r="AP198" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.55</v>
@@ -44955,7 +44955,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR204" t="n">
         <v>1.36</v>
@@ -48004,7 +48004,7 @@
         <v>1.2</v>
       </c>
       <c r="AP218" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.25</v>
@@ -49533,7 +49533,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR225" t="n">
         <v>1.56</v>
@@ -51492,7 +51492,7 @@
         <v>1.2</v>
       </c>
       <c r="AP234" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.36</v>
@@ -55713,6 +55713,224 @@
       </c>
       <c r="BP253" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>8235035</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>46048.6875</v>
+      </c>
+      <c r="F254" t="n">
+        <v>23</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Cultural y Deportiva Leonesa</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>2</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K254" t="n">
+        <v>3</v>
+      </c>
+      <c r="L254" t="n">
+        <v>3</v>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="n">
+        <v>4</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['38', '42', '90+5']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R254" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S254" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="T254" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V254" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X254" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL254" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM254" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN254" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO254" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="BP254" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP254"/>
+  <dimension ref="A1:BP259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.33</v>
@@ -1791,7 +1791,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.33</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.91</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.33</v>
@@ -6587,7 +6587,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>1.46</v>
@@ -7895,7 +7895,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR34" t="n">
         <v>1.16</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.75</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.33</v>
@@ -8767,7 +8767,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR38" t="n">
         <v>1.68</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.27</v>
@@ -9636,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR42" t="n">
         <v>1.91</v>
@@ -10072,10 +10072,10 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR44" t="n">
         <v>1.26</v>
@@ -10729,7 +10729,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR47" t="n">
         <v>0.71</v>
@@ -12473,7 +12473,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR55" t="n">
         <v>1.49</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.33</v>
@@ -13345,7 +13345,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR59" t="n">
         <v>1.57</v>
@@ -13999,7 +13999,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR62" t="n">
         <v>1.59</v>
@@ -14214,10 +14214,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR63" t="n">
         <v>1.48</v>
@@ -14868,7 +14868,7 @@
         <v>3</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.91</v>
@@ -15086,7 +15086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.18</v>
@@ -15307,7 +15307,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR68" t="n">
         <v>0.97</v>
@@ -15743,7 +15743,7 @@
         <v>2</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR70" t="n">
         <v>1.76</v>
@@ -16176,7 +16176,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.67</v>
@@ -16394,7 +16394,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.18</v>
@@ -18141,7 +18141,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR81" t="n">
         <v>1.74</v>
@@ -19882,7 +19882,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.42</v>
@@ -20103,7 +20103,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR90" t="n">
         <v>1.45</v>
@@ -20321,7 +20321,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR91" t="n">
         <v>1.12</v>
@@ -20539,7 +20539,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR92" t="n">
         <v>2.49</v>
@@ -20754,7 +20754,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.25</v>
@@ -20972,7 +20972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.91</v>
@@ -21844,10 +21844,10 @@
         <v>1.33</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR98" t="n">
         <v>1.3</v>
@@ -22065,7 +22065,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR99" t="n">
         <v>1.59</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.33</v>
@@ -23809,7 +23809,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR107" t="n">
         <v>1.89</v>
@@ -24024,7 +24024,7 @@
         <v>1.6</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.33</v>
@@ -24681,7 +24681,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR111" t="n">
         <v>1.32</v>
@@ -24896,7 +24896,7 @@
         <v>0.6</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.91</v>
@@ -25114,7 +25114,7 @@
         <v>1</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.67</v>
@@ -25335,7 +25335,7 @@
         <v>2</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR114" t="n">
         <v>1.72</v>
@@ -25768,7 +25768,7 @@
         <v>0</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.42</v>
@@ -26643,7 +26643,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR120" t="n">
         <v>1.73</v>
@@ -26861,7 +26861,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR121" t="n">
         <v>1.5</v>
@@ -27294,7 +27294,7 @@
         <v>1.33</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.75</v>
@@ -27730,7 +27730,7 @@
         <v>0.75</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.67</v>
@@ -28387,7 +28387,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR128" t="n">
         <v>1.56</v>
@@ -28602,7 +28602,7 @@
         <v>1</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.91</v>
@@ -29041,7 +29041,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR131" t="n">
         <v>1.13</v>
@@ -29474,7 +29474,7 @@
         <v>0.6</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.67</v>
@@ -29910,10 +29910,10 @@
         <v>1.67</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR135" t="n">
         <v>1.14</v>
@@ -31221,7 +31221,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR141" t="n">
         <v>1.39</v>
@@ -31439,7 +31439,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR142" t="n">
         <v>1.3</v>
@@ -31654,7 +31654,7 @@
         <v>1.17</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.33</v>
@@ -31875,7 +31875,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR144" t="n">
         <v>1.93</v>
@@ -32308,7 +32308,7 @@
         <v>1.14</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.25</v>
@@ -32747,7 +32747,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR148" t="n">
         <v>1.46</v>
@@ -33616,10 +33616,10 @@
         <v>1.57</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR152" t="n">
         <v>1.68</v>
@@ -34052,7 +34052,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.18</v>
@@ -34927,7 +34927,7 @@
         <v>2</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR158" t="n">
         <v>1.77</v>
@@ -36014,7 +36014,7 @@
         <v>1.67</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.91</v>
@@ -36450,10 +36450,10 @@
         <v>1.5</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR165" t="n">
         <v>1.15</v>
@@ -37322,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.18</v>
@@ -37540,10 +37540,10 @@
         <v>1.75</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR170" t="n">
         <v>1.69</v>
@@ -38197,7 +38197,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR173" t="n">
         <v>1.11</v>
@@ -38630,7 +38630,7 @@
         <v>1</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.27</v>
@@ -39069,7 +39069,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR177" t="n">
         <v>1.94</v>
@@ -39505,7 +39505,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR179" t="n">
         <v>1.34</v>
@@ -39720,7 +39720,7 @@
         <v>0.86</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.36</v>
@@ -41028,7 +41028,7 @@
         <v>1.13</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.42</v>
@@ -41467,7 +41467,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR188" t="n">
         <v>1.69</v>
@@ -41682,7 +41682,7 @@
         <v>0.5</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.67</v>
@@ -41900,7 +41900,7 @@
         <v>0.25</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.36</v>
@@ -42557,7 +42557,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR193" t="n">
         <v>1.76</v>
@@ -43208,7 +43208,7 @@
         <v>0.5</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.18</v>
@@ -43647,7 +43647,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR198" t="n">
         <v>1.45</v>
@@ -44083,7 +44083,7 @@
         <v>2</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR200" t="n">
         <v>1.92</v>
@@ -44301,7 +44301,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR201" t="n">
         <v>1.57</v>
@@ -45388,7 +45388,7 @@
         <v>0.78</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.91</v>
@@ -45824,10 +45824,10 @@
         <v>0.89</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR208" t="n">
         <v>1.21</v>
@@ -46696,7 +46696,7 @@
         <v>0.33</v>
       </c>
       <c r="AP212" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ212" t="n">
         <v>0.42</v>
@@ -47568,7 +47568,7 @@
         <v>1.78</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ216" t="n">
         <v>1.45</v>
@@ -48225,7 +48225,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR219" t="n">
         <v>1.3</v>
@@ -48440,10 +48440,10 @@
         <v>1.4</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR220" t="n">
         <v>1.61</v>
@@ -49312,7 +49312,7 @@
         <v>1.3</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.42</v>
@@ -49748,7 +49748,7 @@
         <v>0.33</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ226" t="n">
         <v>0.36</v>
@@ -49969,7 +49969,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR227" t="n">
         <v>1.34</v>
@@ -50187,7 +50187,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR228" t="n">
         <v>1.77</v>
@@ -50405,7 +50405,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR229" t="n">
         <v>1.41</v>
@@ -51277,7 +51277,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR233" t="n">
         <v>1.87</v>
@@ -51495,7 +51495,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR234" t="n">
         <v>1.43</v>
@@ -51710,7 +51710,7 @@
         <v>1.2</v>
       </c>
       <c r="AP235" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ235" t="n">
         <v>1.36</v>
@@ -52149,7 +52149,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR237" t="n">
         <v>2.05</v>
@@ -52585,7 +52585,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR239" t="n">
         <v>1.84</v>
@@ -52668,7 +52668,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>8235042</v>
+        <v>8235043</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -52688,12 +52688,12 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Albacete Balompié</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>SD Huesca</t>
         </is>
       </c>
       <c r="I240" t="n">
@@ -52716,7 +52716,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['73']</t>
         </is>
       </c>
       <c r="P240" t="inlineStr">
@@ -52725,160 +52725,160 @@
         </is>
       </c>
       <c r="Q240" t="n">
-        <v>2.44</v>
+        <v>2.8</v>
       </c>
       <c r="R240" t="n">
-        <v>2.26</v>
+        <v>1.73</v>
       </c>
       <c r="S240" t="n">
-        <v>4.41</v>
+        <v>4.68</v>
       </c>
       <c r="T240" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="U240" t="n">
-        <v>2.81</v>
+        <v>2.01</v>
       </c>
       <c r="V240" t="n">
-        <v>2.65</v>
+        <v>4.45</v>
       </c>
       <c r="W240" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="X240" t="n">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="Y240" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="Z240" t="n">
-        <v>1.9</v>
+        <v>2.13</v>
       </c>
       <c r="AA240" t="n">
-        <v>3.52</v>
+        <v>2.84</v>
       </c>
       <c r="AB240" t="n">
-        <v>3.72</v>
+        <v>4.39</v>
       </c>
       <c r="AC240" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AD240" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW240" t="n">
         <v>9</v>
       </c>
-      <c r="AE240" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AF240" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AG240" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AH240" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AI240" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AJ240" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AK240" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL240" t="n">
+      <c r="AX240" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BL240" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM240" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN240" t="n">
         <v>1.32</v>
       </c>
-      <c r="AM240" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN240" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO240" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AP240" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AQ240" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AR240" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AS240" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AT240" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AU240" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV240" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW240" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX240" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY240" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ240" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA240" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB240" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC240" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD240" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BE240" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF240" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG240" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BH240" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="BI240" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BJ240" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="BK240" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="BL240" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="BM240" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="BN240" t="n">
-        <v>1.55</v>
-      </c>
       <c r="BO240" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="BP240" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="241">
@@ -52886,7 +52886,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>8235043</v>
+        <v>8235042</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -52906,12 +52906,12 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Albacete Balompié</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>SD Huesca</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="I241" t="n">
@@ -52934,7 +52934,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="P241" t="inlineStr">
@@ -52943,160 +52943,160 @@
         </is>
       </c>
       <c r="Q241" t="n">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="R241" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S241" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V241" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X241" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI241" t="n">
         <v>1.73</v>
       </c>
-      <c r="S241" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="T241" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U241" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="V241" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="W241" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X241" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y241" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Z241" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AA241" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AB241" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="AC241" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AD241" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE241" t="n">
+      <c r="AJ241" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM241" t="n">
         <v>1.8</v>
       </c>
-      <c r="AF241" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AG241" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AH241" t="n">
+      <c r="AN241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ241" t="n">
         <v>1.27</v>
       </c>
-      <c r="AI241" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AJ241" t="n">
+      <c r="AR241" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BI241" t="n">
         <v>1.44</v>
       </c>
-      <c r="AK241" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AL241" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM241" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN241" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AO241" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AP241" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AQ241" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AR241" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AS241" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AT241" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AU241" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV241" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW241" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX241" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY241" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ241" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA241" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB241" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC241" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD241" t="n">
+      <c r="BJ241" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL241" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN241" t="n">
         <v>1.55</v>
       </c>
-      <c r="BE241" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BF241" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BG241" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BH241" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="BI241" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BJ241" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="BK241" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="BL241" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="BM241" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="BN241" t="n">
-        <v>1.32</v>
-      </c>
       <c r="BO241" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="BP241" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="242">
@@ -53236,7 +53236,7 @@
         <v>1</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ242" t="n">
         <v>1.18</v>
@@ -55931,6 +55931,1096 @@
       </c>
       <c r="BP254" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>8235202</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>46052.6875</v>
+      </c>
+      <c r="F255" t="n">
+        <v>24</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Real Sociedad II</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="n">
+        <v>2</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R255" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S255" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="T255" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V255" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X255" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BL255" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM255" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BN255" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO255" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BP255" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>8235050</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>46053.51041666666</v>
+      </c>
+      <c r="F256" t="n">
+        <v>24</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>2</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="n">
+        <v>3</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['48', '90+2']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R256" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S256" t="n">
+        <v>4</v>
+      </c>
+      <c r="T256" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V256" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X256" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL256" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM256" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BN256" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO256" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BP256" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>8235317</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>46053.51041666666</v>
+      </c>
+      <c r="F257" t="n">
+        <v>24</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="n">
+        <v>2</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>2</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['5', '56']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R257" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S257" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T257" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V257" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X257" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL257" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM257" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN257" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO257" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP257" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>8235054</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>46053.60416666666</v>
+      </c>
+      <c r="F258" t="n">
+        <v>24</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Cultural y Deportiva Leonesa</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Deportivo La Coruña</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R258" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S258" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="T258" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U258" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V258" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X258" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL258" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM258" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN258" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO258" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP258" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>8234970</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>46053.70833333334</v>
+      </c>
+      <c r="F259" t="n">
+        <v>24</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
+      <c r="K259" t="n">
+        <v>2</v>
+      </c>
+      <c r="L259" t="n">
+        <v>3</v>
+      </c>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="n">
+        <v>4</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['39', '74', '80']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R259" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S259" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="T259" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V259" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X259" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL259" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM259" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BN259" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO259" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP259" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP259"/>
+  <dimension ref="A1:BP260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.42</v>
@@ -6151,7 +6151,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR26" t="n">
         <v>1.17</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.91</v>
@@ -12255,7 +12255,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR54" t="n">
         <v>1.6</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.36</v>
@@ -16615,7 +16615,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR74" t="n">
         <v>1.49</v>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ92" t="n">
         <v>1</v>
@@ -20975,7 +20975,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR94" t="n">
         <v>1.68</v>
@@ -24899,7 +24899,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR112" t="n">
         <v>0.99</v>
@@ -26422,7 +26422,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.33</v>
@@ -27948,7 +27948,7 @@
         <v>0.2</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.36</v>
@@ -28605,7 +28605,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR129" t="n">
         <v>1.71</v>
@@ -33180,7 +33180,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.27</v>
@@ -35363,7 +35363,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR160" t="n">
         <v>1.4</v>
@@ -37758,7 +37758,7 @@
         <v>0.43</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.67</v>
@@ -40813,7 +40813,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR185" t="n">
         <v>1.52</v>
@@ -43426,7 +43426,7 @@
         <v>1.63</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.45</v>
@@ -45391,7 +45391,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR206" t="n">
         <v>1.14</v>
@@ -46914,7 +46914,7 @@
         <v>1.11</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.18</v>
@@ -50841,7 +50841,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ231" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR231" t="n">
         <v>1.72</v>
@@ -52146,7 +52146,7 @@
         <v>1.64</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.85</v>
@@ -57021,6 +57021,224 @@
       </c>
       <c r="BP259" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>8235201</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>46054.41666666666</v>
+      </c>
+      <c r="F260" t="n">
+        <v>24</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>3</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
+      <c r="K260" t="n">
+        <v>4</v>
+      </c>
+      <c r="L260" t="n">
+        <v>4</v>
+      </c>
+      <c r="M260" t="n">
+        <v>2</v>
+      </c>
+      <c r="N260" t="n">
+        <v>6</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['17', '23', '36', '84']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['45+2', '79']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="R260" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S260" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="T260" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U260" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V260" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X260" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL260" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM260" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN260" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO260" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BP260" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP260"/>
+  <dimension ref="A1:BP264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.85</v>
@@ -2445,7 +2445,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.31</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.18</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.25</v>
@@ -3753,7 +3753,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.75</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.36</v>
@@ -8549,7 +8549,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR37" t="n">
         <v>1.1</v>
@@ -9421,7 +9421,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR41" t="n">
         <v>0.74</v>
@@ -9857,7 +9857,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR43" t="n">
         <v>3.16</v>
@@ -10290,10 +10290,10 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR45" t="n">
         <v>1.84</v>
@@ -11162,7 +11162,7 @@
         <v>3</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.18</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.83</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.31</v>
@@ -13781,7 +13781,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR61" t="n">
         <v>2.35</v>
@@ -14432,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.42</v>
@@ -14653,7 +14653,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR65" t="n">
         <v>1.48</v>
@@ -14871,7 +14871,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR66" t="n">
         <v>1.39</v>
@@ -15525,7 +15525,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR69" t="n">
         <v>1.85</v>
@@ -15740,7 +15740,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.85</v>
@@ -17266,7 +17266,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.18</v>
@@ -18356,7 +18356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.45</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.42</v>
@@ -19010,10 +19010,10 @@
         <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR85" t="n">
         <v>1.71</v>
@@ -19667,7 +19667,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR88" t="n">
         <v>1.43</v>
@@ -20100,7 +20100,7 @@
         <v>2.33</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.5</v>
@@ -20757,7 +20757,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR93" t="n">
         <v>1.14</v>
@@ -21190,7 +21190,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.33</v>
@@ -21411,7 +21411,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR96" t="n">
         <v>1.88</v>
@@ -23373,7 +23373,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR105" t="n">
         <v>1.89</v>
@@ -23588,7 +23588,7 @@
         <v>1.2</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.42</v>
@@ -24678,7 +24678,7 @@
         <v>2</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.5</v>
@@ -25332,7 +25332,7 @@
         <v>1.8</v>
       </c>
       <c r="AP114" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.31</v>
@@ -25550,10 +25550,10 @@
         <v>1.25</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR115" t="n">
         <v>1.36</v>
@@ -25989,7 +25989,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR117" t="n">
         <v>1.16</v>
@@ -26207,7 +26207,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR118" t="n">
         <v>1.58</v>
@@ -28169,7 +28169,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR127" t="n">
         <v>1.55</v>
@@ -28820,7 +28820,7 @@
         <v>0.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.18</v>
@@ -29695,7 +29695,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR134" t="n">
         <v>1.22</v>
@@ -30128,7 +30128,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.42</v>
@@ -30346,10 +30346,10 @@
         <v>1.17</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR137" t="n">
         <v>1.31</v>
@@ -31003,7 +31003,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR140" t="n">
         <v>1.41</v>
@@ -31218,7 +31218,7 @@
         <v>0.67</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ141" t="n">
         <v>1</v>
@@ -32090,7 +32090,7 @@
         <v>0</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.42</v>
@@ -32311,7 +32311,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR146" t="n">
         <v>1.67</v>
@@ -33183,7 +33183,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR150" t="n">
         <v>2.17</v>
@@ -34924,7 +34924,7 @@
         <v>0.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ158" t="n">
         <v>1</v>
@@ -35142,7 +35142,7 @@
         <v>1.29</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.67</v>
@@ -35796,10 +35796,10 @@
         <v>1</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR162" t="n">
         <v>1.32</v>
@@ -36017,7 +36017,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR163" t="n">
         <v>1.22</v>
@@ -36889,7 +36889,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR167" t="n">
         <v>1.46</v>
@@ -38633,7 +38633,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR175" t="n">
         <v>1.78</v>
@@ -39066,7 +39066,7 @@
         <v>1.86</v>
       </c>
       <c r="AP177" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.5</v>
@@ -39502,7 +39502,7 @@
         <v>1.29</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.25</v>
@@ -39723,7 +39723,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR180" t="n">
         <v>1.17</v>
@@ -39941,7 +39941,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR181" t="n">
         <v>1.34</v>
@@ -40374,7 +40374,7 @@
         <v>1.5</v>
       </c>
       <c r="AP183" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.33</v>
@@ -40810,7 +40810,7 @@
         <v>0.75</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.83</v>
@@ -42339,7 +42339,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR192" t="n">
         <v>1.97</v>
@@ -42775,7 +42775,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR194" t="n">
         <v>1.29</v>
@@ -43862,7 +43862,7 @@
         <v>1</v>
       </c>
       <c r="AP199" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.75</v>
@@ -44080,7 +44080,7 @@
         <v>1.5</v>
       </c>
       <c r="AP200" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.25</v>
@@ -44516,10 +44516,10 @@
         <v>2</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR202" t="n">
         <v>1.37</v>
@@ -44737,7 +44737,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR203" t="n">
         <v>1.42</v>
@@ -46042,7 +46042,7 @@
         <v>1.33</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.42</v>
@@ -46478,7 +46478,7 @@
         <v>0.9</v>
       </c>
       <c r="AP211" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.75</v>
@@ -47132,7 +47132,7 @@
         <v>0.78</v>
       </c>
       <c r="AP214" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ214" t="n">
         <v>0.67</v>
@@ -47353,7 +47353,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR215" t="n">
         <v>1.96</v>
@@ -48007,7 +48007,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR218" t="n">
         <v>1.47</v>
@@ -48661,7 +48661,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR221" t="n">
         <v>1.46</v>
@@ -48879,7 +48879,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR222" t="n">
         <v>1.34</v>
@@ -50620,7 +50620,7 @@
         <v>1.4</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.33</v>
@@ -51056,7 +51056,7 @@
         <v>1.4</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.67</v>
@@ -51274,7 +51274,7 @@
         <v>1.55</v>
       </c>
       <c r="AP233" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.31</v>
@@ -51713,7 +51713,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR235" t="n">
         <v>1.22</v>
@@ -52367,7 +52367,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR238" t="n">
         <v>1.33</v>
@@ -53021,7 +53021,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR241" t="n">
         <v>1.6</v>
@@ -53454,7 +53454,7 @@
         <v>0.3</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ243" t="n">
         <v>0.36</v>
@@ -55198,7 +55198,7 @@
         <v>1.45</v>
       </c>
       <c r="AP251" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ251" t="n">
         <v>1.33</v>
@@ -55637,7 +55637,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ253" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR253" t="n">
         <v>1.5</v>
@@ -56530,13 +56530,13 @@
         <v>6</v>
       </c>
       <c r="AX257" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY257" t="n">
         <v>10</v>
       </c>
       <c r="AZ257" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA257" t="n">
         <v>6</v>
@@ -57239,6 +57239,878 @@
       </c>
       <c r="BP260" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>8235155</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>46054.51041666666</v>
+      </c>
+      <c r="F261" t="n">
+        <v>24</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="R261" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S261" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T261" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U261" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V261" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X261" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BL261" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM261" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN261" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO261" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BP261" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>8235056</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>46054.60416666666</v>
+      </c>
+      <c r="F262" t="n">
+        <v>24</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R262" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S262" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T262" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V262" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X262" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BL262" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM262" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN262" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO262" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP262" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>8235053</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>46054.60416666666</v>
+      </c>
+      <c r="F263" t="n">
+        <v>24</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>CD Castellón</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>2</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>2</v>
+      </c>
+      <c r="L263" t="n">
+        <v>2</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>2</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['28', '40']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R263" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S263" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T263" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U263" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="V263" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X263" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL263" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM263" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN263" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO263" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BP263" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>8234968</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>46054.70833333334</v>
+      </c>
+      <c r="F264" t="n">
+        <v>24</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>1</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="R264" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S264" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="T264" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V264" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X264" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL264" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM264" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO264" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP264" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP264"/>
+  <dimension ref="A1:BP265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.67</v>
@@ -7241,7 +7241,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR31" t="n">
         <v>1.03</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.85</v>
@@ -11165,7 +11165,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR49" t="n">
         <v>1.31</v>
@@ -15304,7 +15304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ68" t="n">
         <v>1</v>
@@ -16397,7 +16397,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR73" t="n">
         <v>1.43</v>
@@ -19231,7 +19231,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR86" t="n">
         <v>1.89</v>
@@ -20318,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.31</v>
@@ -23155,7 +23155,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR104" t="n">
         <v>1.22</v>
@@ -25986,7 +25986,7 @@
         <v>1.75</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.75</v>
@@ -28823,7 +28823,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR130" t="n">
         <v>1.82</v>
@@ -29692,7 +29692,7 @@
         <v>1.2</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.25</v>
@@ -33398,7 +33398,7 @@
         <v>1.67</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.45</v>
@@ -34055,7 +34055,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR154" t="n">
         <v>1.26</v>
@@ -37979,7 +37979,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR172" t="n">
         <v>1.95</v>
@@ -38848,7 +38848,7 @@
         <v>0</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.42</v>
@@ -43211,7 +43211,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR196" t="n">
         <v>1.64</v>
@@ -45606,7 +45606,7 @@
         <v>1.22</v>
       </c>
       <c r="AP207" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.67</v>
@@ -47789,7 +47789,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR217" t="n">
         <v>1.58</v>
@@ -49094,7 +49094,7 @@
         <v>1.5</v>
       </c>
       <c r="AP223" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ223" t="n">
         <v>1.33</v>
@@ -52364,7 +52364,7 @@
         <v>1.09</v>
       </c>
       <c r="AP238" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.15</v>
@@ -53239,7 +53239,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR242" t="n">
         <v>1.75</v>
@@ -58111,6 +58111,224 @@
       </c>
       <c r="BP264" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>8235051</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>46055.6875</v>
+      </c>
+      <c r="F265" t="n">
+        <v>24</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="n">
+        <v>2</v>
+      </c>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="n">
+        <v>3</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>['22', '87']</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R265" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S265" t="n">
+        <v>3</v>
+      </c>
+      <c r="T265" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V265" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X265" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BL265" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM265" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN265" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO265" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BP265" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP265"/>
+  <dimension ref="A1:BP274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.83</v>
@@ -1137,7 +1137,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.75</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.15</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.67</v>
@@ -3099,7 +3099,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.17</v>
@@ -3971,7 +3971,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.15</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR21" t="n">
         <v>1.34</v>
@@ -5715,7 +5715,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR24" t="n">
         <v>0.47</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR25" t="n">
         <v>1.06</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.67</v>
@@ -6802,10 +6802,10 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7020,10 +7020,10 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR30" t="n">
         <v>2.37</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.08</v>
@@ -7677,7 +7677,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR33" t="n">
         <v>1.37</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.85</v>
@@ -8331,7 +8331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR36" t="n">
         <v>1.51</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.25</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.25</v>
@@ -8982,10 +8982,10 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR39" t="n">
         <v>1.75</v>
@@ -9203,7 +9203,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR40" t="n">
         <v>1.62</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR46" t="n">
         <v>1.42</v>
@@ -10944,10 +10944,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR48" t="n">
         <v>1.59</v>
@@ -11380,10 +11380,10 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR50" t="n">
         <v>1.82</v>
@@ -11598,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.67</v>
@@ -11819,7 +11819,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR52" t="n">
         <v>1.64</v>
@@ -12034,10 +12034,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR53" t="n">
         <v>1.5</v>
@@ -12688,10 +12688,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR56" t="n">
         <v>1.3</v>
@@ -12906,10 +12906,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR57" t="n">
         <v>1.41</v>
@@ -13127,7 +13127,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR58" t="n">
         <v>1.07</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.5</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.75</v>
@@ -14435,7 +14435,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR64" t="n">
         <v>1.87</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.17</v>
@@ -15089,7 +15089,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR67" t="n">
         <v>1.35</v>
@@ -15958,10 +15958,10 @@
         <v>1.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR71" t="n">
         <v>1.51</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.83</v>
@@ -16830,10 +16830,10 @@
         <v>0.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR75" t="n">
         <v>2.02</v>
@@ -17048,10 +17048,10 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR76" t="n">
         <v>1.73</v>
@@ -17269,7 +17269,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR77" t="n">
         <v>1.34</v>
@@ -17484,10 +17484,10 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR78" t="n">
         <v>1.36</v>
@@ -17705,7 +17705,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR79" t="n">
         <v>1.39</v>
@@ -17920,10 +17920,10 @@
         <v>1.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR80" t="n">
         <v>1.5</v>
@@ -18138,7 +18138,7 @@
         <v>1.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.31</v>
@@ -18359,7 +18359,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -18577,7 +18577,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR83" t="n">
         <v>1.49</v>
@@ -18792,7 +18792,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.67</v>
@@ -19446,7 +19446,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.75</v>
@@ -19664,7 +19664,7 @@
         <v>1.67</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.17</v>
@@ -19885,7 +19885,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR89" t="n">
         <v>1.07</v>
@@ -21193,7 +21193,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR95" t="n">
         <v>1.99</v>
@@ -21408,7 +21408,7 @@
         <v>2.33</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.75</v>
@@ -21626,10 +21626,10 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR97" t="n">
         <v>1.37</v>
@@ -22062,7 +22062,7 @@
         <v>2</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.85</v>
@@ -22283,7 +22283,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR100" t="n">
         <v>1.73</v>
@@ -22498,10 +22498,10 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR101" t="n">
         <v>1.58</v>
@@ -22934,10 +22934,10 @@
         <v>1.2</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR103" t="n">
         <v>1.19</v>
@@ -23152,7 +23152,7 @@
         <v>0.75</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.08</v>
@@ -23370,7 +23370,7 @@
         <v>0.75</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.25</v>
@@ -23591,7 +23591,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR106" t="n">
         <v>1.71</v>
@@ -24027,7 +24027,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR108" t="n">
         <v>1.76</v>
@@ -24242,10 +24242,10 @@
         <v>0.25</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR109" t="n">
         <v>1.39</v>
@@ -24460,10 +24460,10 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR110" t="n">
         <v>1.34</v>
@@ -25771,7 +25771,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR116" t="n">
         <v>1.21</v>
@@ -26204,7 +26204,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.15</v>
@@ -26425,7 +26425,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR119" t="n">
         <v>2.56</v>
@@ -26640,7 +26640,7 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ120" t="n">
         <v>1</v>
@@ -26858,7 +26858,7 @@
         <v>1.75</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.25</v>
@@ -27079,7 +27079,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR122" t="n">
         <v>1.93</v>
@@ -27512,10 +27512,10 @@
         <v>1.4</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR124" t="n">
         <v>1.31</v>
@@ -27733,7 +27733,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR125" t="n">
         <v>1.68</v>
@@ -27951,7 +27951,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR126" t="n">
         <v>2.35</v>
@@ -28166,7 +28166,7 @@
         <v>1.2</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.17</v>
@@ -28384,7 +28384,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.5</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.85</v>
@@ -29256,10 +29256,10 @@
         <v>1.2</v>
       </c>
       <c r="AP132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ132" t="n">
         <v>1.08</v>
-      </c>
-      <c r="AQ132" t="n">
-        <v>1.18</v>
       </c>
       <c r="AR132" t="n">
         <v>1.91</v>
@@ -29477,7 +29477,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR133" t="n">
         <v>1.1</v>
@@ -30131,7 +30131,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR136" t="n">
         <v>1.68</v>
@@ -30564,10 +30564,10 @@
         <v>1.5</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR138" t="n">
         <v>1.47</v>
@@ -30782,7 +30782,7 @@
         <v>1.33</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.67</v>
@@ -31000,7 +31000,7 @@
         <v>2</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.75</v>
@@ -31436,7 +31436,7 @@
         <v>1.6</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.25</v>
@@ -31657,7 +31657,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR143" t="n">
         <v>1.26</v>
@@ -31872,7 +31872,7 @@
         <v>1.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.5</v>
@@ -32093,7 +32093,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR145" t="n">
         <v>1.85</v>
@@ -32529,7 +32529,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR147" t="n">
         <v>1.84</v>
@@ -32962,10 +32962,10 @@
         <v>0.17</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR149" t="n">
         <v>1.43</v>
@@ -33401,7 +33401,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR151" t="n">
         <v>1.39</v>
@@ -33834,10 +33834,10 @@
         <v>0.5</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR153" t="n">
         <v>1.16</v>
@@ -34270,10 +34270,10 @@
         <v>1.29</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR155" t="n">
         <v>1.44</v>
@@ -34488,10 +34488,10 @@
         <v>1.14</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR156" t="n">
         <v>1.56</v>
@@ -34706,10 +34706,10 @@
         <v>1.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR157" t="n">
         <v>1.33</v>
@@ -35360,7 +35360,7 @@
         <v>0.86</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.83</v>
@@ -35578,10 +35578,10 @@
         <v>1.29</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR161" t="n">
         <v>1.25</v>
@@ -36232,7 +36232,7 @@
         <v>1.14</v>
       </c>
       <c r="AP164" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.75</v>
@@ -36671,7 +36671,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR166" t="n">
         <v>1.46</v>
@@ -36886,7 +36886,7 @@
         <v>1</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.15</v>
@@ -37107,7 +37107,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR168" t="n">
         <v>1.43</v>
@@ -37325,7 +37325,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR169" t="n">
         <v>1.17</v>
@@ -37761,7 +37761,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR171" t="n">
         <v>2.14</v>
@@ -37976,7 +37976,7 @@
         <v>0.43</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.08</v>
@@ -38194,7 +38194,7 @@
         <v>1.63</v>
       </c>
       <c r="AP173" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.31</v>
@@ -38415,7 +38415,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR174" t="n">
         <v>1.79</v>
@@ -38851,7 +38851,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR176" t="n">
         <v>1.36</v>
@@ -39284,10 +39284,10 @@
         <v>1.5</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR178" t="n">
         <v>1.53</v>
@@ -39938,7 +39938,7 @@
         <v>1.86</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.75</v>
@@ -40156,7 +40156,7 @@
         <v>1.25</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.67</v>
@@ -40377,7 +40377,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR183" t="n">
         <v>1.87</v>
@@ -40592,10 +40592,10 @@
         <v>1.38</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR184" t="n">
         <v>1.46</v>
@@ -41031,7 +41031,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR186" t="n">
         <v>1.2</v>
@@ -41246,7 +41246,7 @@
         <v>1</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.75</v>
@@ -41464,7 +41464,7 @@
         <v>0.88</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ188" t="n">
         <v>1</v>
@@ -41685,7 +41685,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR189" t="n">
         <v>1.16</v>
@@ -41903,7 +41903,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR190" t="n">
         <v>1.81</v>
@@ -42118,10 +42118,10 @@
         <v>1.25</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR191" t="n">
         <v>1.58</v>
@@ -42336,7 +42336,7 @@
         <v>1</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.15</v>
@@ -42772,7 +42772,7 @@
         <v>1.25</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.17</v>
@@ -42990,10 +42990,10 @@
         <v>0</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR195" t="n">
         <v>1.37</v>
@@ -43429,7 +43429,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR197" t="n">
         <v>2.22</v>
@@ -44298,7 +44298,7 @@
         <v>1.89</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.85</v>
@@ -44734,7 +44734,7 @@
         <v>1.13</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ203" t="n">
         <v>1.25</v>
@@ -44952,10 +44952,10 @@
         <v>1.67</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR204" t="n">
         <v>1.36</v>
@@ -45170,10 +45170,10 @@
         <v>1.67</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR205" t="n">
         <v>1.72</v>
@@ -46045,7 +46045,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR209" t="n">
         <v>1.52</v>
@@ -46260,10 +46260,10 @@
         <v>1.56</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR210" t="n">
         <v>1.36</v>
@@ -46699,7 +46699,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ212" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR212" t="n">
         <v>1.24</v>
@@ -46917,7 +46917,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR213" t="n">
         <v>2.12</v>
@@ -47135,7 +47135,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ214" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR214" t="n">
         <v>1.91</v>
@@ -47350,7 +47350,7 @@
         <v>1.89</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.75</v>
@@ -47571,7 +47571,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR216" t="n">
         <v>1.76</v>
@@ -47786,7 +47786,7 @@
         <v>0.78</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.08</v>
@@ -48222,7 +48222,7 @@
         <v>1.56</v>
       </c>
       <c r="AP219" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.5</v>
@@ -48658,7 +48658,7 @@
         <v>1.44</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.17</v>
@@ -48876,7 +48876,7 @@
         <v>1.33</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.25</v>
@@ -49097,7 +49097,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR223" t="n">
         <v>1.36</v>
@@ -49315,7 +49315,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR224" t="n">
         <v>1.14</v>
@@ -49530,10 +49530,10 @@
         <v>1.5</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR225" t="n">
         <v>1.56</v>
@@ -49751,7 +49751,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR226" t="n">
         <v>1.21</v>
@@ -49966,7 +49966,7 @@
         <v>1.7</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.85</v>
@@ -50402,7 +50402,7 @@
         <v>1.33</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ229" t="n">
         <v>1.25</v>
@@ -50623,7 +50623,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR230" t="n">
         <v>1.56</v>
@@ -50838,7 +50838,7 @@
         <v>1</v>
       </c>
       <c r="AP231" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ231" t="n">
         <v>0.83</v>
@@ -51928,10 +51928,10 @@
         <v>0.4</v>
       </c>
       <c r="AP236" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR236" t="n">
         <v>1.26</v>
@@ -52803,7 +52803,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ240" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR240" t="n">
         <v>1.22</v>
@@ -53457,7 +53457,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ243" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR243" t="n">
         <v>1.54</v>
@@ -53672,10 +53672,10 @@
         <v>1.6</v>
       </c>
       <c r="AP244" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR244" t="n">
         <v>1.75</v>
@@ -53890,10 +53890,10 @@
         <v>1.27</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ245" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR245" t="n">
         <v>1.86</v>
@@ -54108,10 +54108,10 @@
         <v>0.45</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ246" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR246" t="n">
         <v>1.39</v>
@@ -54326,7 +54326,7 @@
         <v>0.82</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ247" t="n">
         <v>0.75</v>
@@ -54544,7 +54544,7 @@
         <v>1.55</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ248" t="n">
         <v>1.67</v>
@@ -54762,10 +54762,10 @@
         <v>1</v>
       </c>
       <c r="AP249" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ249" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR249" t="n">
         <v>1.33</v>
@@ -54980,10 +54980,10 @@
         <v>0.64</v>
       </c>
       <c r="AP250" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ250" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR250" t="n">
         <v>1.61</v>
@@ -55201,7 +55201,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ251" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR251" t="n">
         <v>1.84</v>
@@ -55416,10 +55416,10 @@
         <v>1.36</v>
       </c>
       <c r="AP252" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ252" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR252" t="n">
         <v>1.27</v>
@@ -55634,7 +55634,7 @@
         <v>1.8</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ253" t="n">
         <v>1.75</v>
@@ -55855,7 +55855,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR254" t="n">
         <v>1.51</v>
@@ -58329,6 +58329,1968 @@
       </c>
       <c r="BP265" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>8235059</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>46059.6875</v>
+      </c>
+      <c r="F266" t="n">
+        <v>25</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R266" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S266" t="n">
+        <v>4</v>
+      </c>
+      <c r="T266" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V266" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X266" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL266" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM266" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BN266" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO266" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="BP266" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>8235203</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>46060.41666666666</v>
+      </c>
+      <c r="F267" t="n">
+        <v>25</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Real Sociedad II</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
+      <c r="K267" t="n">
+        <v>2</v>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="n">
+        <v>2</v>
+      </c>
+      <c r="N267" t="n">
+        <v>3</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['10', '76']</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R267" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S267" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T267" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V267" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X267" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL267" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM267" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN267" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO267" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BP267" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>8235063</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>46060.51041666666</v>
+      </c>
+      <c r="F268" t="n">
+        <v>25</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R268" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S268" t="n">
+        <v>5</v>
+      </c>
+      <c r="T268" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V268" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X268" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BL268" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM268" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BN268" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO268" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP268" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>8235060</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>46060.60416666666</v>
+      </c>
+      <c r="F269" t="n">
+        <v>25</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="n">
+        <v>2</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R269" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S269" t="n">
+        <v>3</v>
+      </c>
+      <c r="T269" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V269" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X269" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL269" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM269" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN269" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO269" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP269" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>8234971</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>46061.41666666666</v>
+      </c>
+      <c r="F270" t="n">
+        <v>25</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>CD Castellón</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>3</v>
+      </c>
+      <c r="K270" t="n">
+        <v>3</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>4</v>
+      </c>
+      <c r="N270" t="n">
+        <v>4</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['21', '24', '38', '81']</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R270" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S270" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T270" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V270" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X270" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL270" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM270" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN270" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO270" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP270" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>8235055</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>46061.51041666666</v>
+      </c>
+      <c r="F271" t="n">
+        <v>25</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>2</v>
+      </c>
+      <c r="K271" t="n">
+        <v>3</v>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="n">
+        <v>2</v>
+      </c>
+      <c r="N271" t="n">
+        <v>3</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['6', '25']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R271" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S271" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T271" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U271" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="V271" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X271" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL271" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM271" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN271" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO271" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BP271" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>8235058</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>46061.51041666666</v>
+      </c>
+      <c r="F272" t="n">
+        <v>25</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Deportivo La Coruña</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>2</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2</v>
+      </c>
+      <c r="L272" t="n">
+        <v>2</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>3</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['25', '45+3']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R272" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S272" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T272" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V272" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X272" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL272" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM272" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN272" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO272" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP272" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>8235153</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>46061.60416666666</v>
+      </c>
+      <c r="F273" t="n">
+        <v>25</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>2</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="n">
+        <v>3</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['46', '53']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S273" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T273" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V273" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X273" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL273" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM273" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN273" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO273" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP273" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>8235205</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>46061.70833333334</v>
+      </c>
+      <c r="F274" t="n">
+        <v>25</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Cultural y Deportiva Leonesa</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>1</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="n">
+        <v>2</v>
+      </c>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="n">
+        <v>3</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['63', '90+3']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R274" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S274" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="T274" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V274" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X274" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL274" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM274" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN274" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO274" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP274" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP274"/>
+  <dimension ref="A1:BP275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.46</v>
@@ -2227,7 +2227,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.83</v>
@@ -7459,7 +7459,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR32" t="n">
         <v>1.33</v>
@@ -8113,7 +8113,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR35" t="n">
         <v>0.92</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.23</v>
@@ -13563,7 +13563,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR60" t="n">
         <v>1.58</v>
@@ -15522,7 +15522,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.15</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.08</v>
@@ -19449,7 +19449,7 @@
         <v>1</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR87" t="n">
         <v>1.75</v>
@@ -22719,7 +22719,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR102" t="n">
         <v>1.44</v>
@@ -23806,7 +23806,7 @@
         <v>1.6</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.85</v>
@@ -27076,7 +27076,7 @@
         <v>0</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.62</v>
@@ -27297,7 +27297,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR123" t="n">
         <v>1.11</v>
@@ -32526,7 +32526,7 @@
         <v>1</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.08</v>
@@ -36235,7 +36235,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR164" t="n">
         <v>1.62</v>
@@ -38412,7 +38412,7 @@
         <v>0.29</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ174" t="n">
         <v>0.42</v>
@@ -41249,7 +41249,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR187" t="n">
         <v>1.39</v>
@@ -42554,7 +42554,7 @@
         <v>1.44</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.31</v>
@@ -43865,7 +43865,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR199" t="n">
         <v>1.92</v>
@@ -46481,7 +46481,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR211" t="n">
         <v>1.86</v>
@@ -50184,7 +50184,7 @@
         <v>0.9</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ228" t="n">
         <v>1</v>
@@ -52582,7 +52582,7 @@
         <v>1.7</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.5</v>
@@ -54329,7 +54329,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ247" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR247" t="n">
         <v>1.6</v>
@@ -59376,10 +59376,10 @@
         <v>3</v>
       </c>
       <c r="BB270" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC270" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD270" t="n">
         <v>1.95</v>
@@ -59579,13 +59579,13 @@
         <v>6</v>
       </c>
       <c r="AW271" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX271" t="n">
         <v>8</v>
       </c>
       <c r="AY271" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ271" t="n">
         <v>14</v>
@@ -60291,6 +60291,224 @@
       </c>
       <c r="BP274" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>8235065</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>46062.6875</v>
+      </c>
+      <c r="F275" t="n">
+        <v>25</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R275" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S275" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T275" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U275" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V275" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X275" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL275" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM275" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN275" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO275" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP275" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -59376,10 +59376,10 @@
         <v>3</v>
       </c>
       <c r="BB270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC270" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD270" t="n">
         <v>1.95</v>
@@ -60448,13 +60448,13 @@
         <v>7</v>
       </c>
       <c r="AV275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW275" t="n">
         <v>12</v>
       </c>
       <c r="AX275" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY275" t="n">
         <v>19</v>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -56156,7 +56156,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>8235050</v>
+        <v>8235317</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -56176,197 +56176,197 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Albacete Balompié</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Leganés</t>
+          <t>Real Zaragoza</t>
         </is>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="n">
         <v>0</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L256" t="n">
         <v>2</v>
       </c>
       <c r="M256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>['48', '90+2']</t>
+          <t>['5', '56']</t>
         </is>
       </c>
       <c r="P256" t="inlineStr">
         <is>
-          <t>['84']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q256" t="n">
-        <v>2.9</v>
+        <v>2.56</v>
       </c>
       <c r="R256" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="S256" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T256" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V256" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X256" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB256" t="n">
         <v>4</v>
       </c>
-      <c r="T256" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U256" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V256" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="W256" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X256" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y256" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z256" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA256" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AB256" t="n">
-        <v>3.85</v>
-      </c>
       <c r="AC256" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="AD256" t="n">
-        <v>5.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE256" t="n">
-        <v>1.65</v>
+        <v>1.26</v>
       </c>
       <c r="AF256" t="n">
-        <v>2.3</v>
+        <v>3.24</v>
       </c>
       <c r="AG256" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="AH256" t="n">
-        <v>1.41</v>
+        <v>1.88</v>
       </c>
       <c r="AI256" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="AJ256" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="AK256" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AL256" t="n">
         <v>0</v>
       </c>
       <c r="AM256" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR256" t="n">
         <v>1.58</v>
       </c>
-      <c r="AN256" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AO256" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AP256" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AQ256" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AR256" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AS256" t="n">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AT256" t="n">
-        <v>2.4</v>
+        <v>2.96</v>
       </c>
       <c r="AU256" t="n">
         <v>4</v>
       </c>
       <c r="AV256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX256" t="n">
         <v>4</v>
       </c>
-      <c r="AW256" t="n">
+      <c r="AY256" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB256" t="n">
         <v>4</v>
       </c>
-      <c r="AX256" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY256" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ256" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA256" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB256" t="n">
-        <v>5</v>
-      </c>
       <c r="BC256" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD256" t="n">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="BE256" t="n">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="BF256" t="n">
-        <v>2.6</v>
+        <v>3.28</v>
       </c>
       <c r="BG256" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="BH256" t="n">
-        <v>2.67</v>
+        <v>4.09</v>
       </c>
       <c r="BI256" t="n">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="BJ256" t="n">
-        <v>2.01</v>
+        <v>2.75</v>
       </c>
       <c r="BK256" t="n">
-        <v>2.55</v>
+        <v>1.62</v>
       </c>
       <c r="BL256" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="BM256" t="n">
-        <v>2.83</v>
+        <v>2.11</v>
       </c>
       <c r="BN256" t="n">
-        <v>1.37</v>
+        <v>1.8</v>
       </c>
       <c r="BO256" t="n">
-        <v>3.76</v>
+        <v>2.44</v>
       </c>
       <c r="BP256" t="n">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="257">
@@ -56374,7 +56374,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>8235317</v>
+        <v>8235050</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -56394,197 +56394,197 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Albacete Balompié</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Real Zaragoza</t>
+          <t>Leganés</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="n">
         <v>0</v>
       </c>
       <c r="K257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>2</v>
       </c>
       <c r="M257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N257" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>['5', '56']</t>
+          <t>['48', '90+2']</t>
         </is>
       </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['84']</t>
         </is>
       </c>
       <c r="Q257" t="n">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="R257" t="n">
-        <v>2.04</v>
+        <v>1.76</v>
       </c>
       <c r="S257" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="T257" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V257" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X257" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AH257" t="n">
         <v>1.41</v>
       </c>
-      <c r="U257" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V257" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W257" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X257" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y257" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z257" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AA257" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AB257" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC257" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD257" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AE257" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AF257" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AG257" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH257" t="n">
-        <v>1.88</v>
-      </c>
       <c r="AI257" t="n">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="AJ257" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="AK257" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AL257" t="n">
         <v>0</v>
       </c>
       <c r="AM257" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="AN257" t="n">
-        <v>1.18</v>
+        <v>1.58</v>
       </c>
       <c r="AO257" t="n">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="AP257" t="n">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AQ257" t="n">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AR257" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AT257" t="n">
-        <v>2.96</v>
+        <v>2.4</v>
       </c>
       <c r="AU257" t="n">
         <v>4</v>
       </c>
       <c r="AV257" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW257" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC257" t="n">
         <v>6</v>
       </c>
-      <c r="AX257" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY257" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ257" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA257" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB257" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC257" t="n">
-        <v>10</v>
-      </c>
       <c r="BD257" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="BE257" t="n">
-        <v>9.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="BF257" t="n">
-        <v>3.28</v>
+        <v>2.6</v>
       </c>
       <c r="BG257" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL257" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM257" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BN257" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO257" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BP257" t="n">
         <v>1.18</v>
-      </c>
-      <c r="BH257" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="BI257" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BJ257" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BK257" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="BL257" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BM257" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="BN257" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BO257" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="BP257" t="n">
-        <v>1.49</v>
       </c>
     </row>
     <row r="258">
@@ -57464,7 +57464,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>8235056</v>
+        <v>8235053</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -57484,35 +57484,35 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>SD Huesca</t>
+          <t>CD Castellón</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>FC Andorra</t>
         </is>
       </c>
       <c r="I262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J262" t="n">
         <v>0</v>
       </c>
       <c r="K262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M262" t="n">
         <v>0</v>
       </c>
       <c r="N262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>['13']</t>
+          <t>['28', '40']</t>
         </is>
       </c>
       <c r="P262" t="inlineStr">
@@ -57521,160 +57521,160 @@
         </is>
       </c>
       <c r="Q262" t="n">
-        <v>3.35</v>
+        <v>1.93</v>
       </c>
       <c r="R262" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S262" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T262" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U262" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="V262" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X262" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL262" t="n">
         <v>1.83</v>
       </c>
-      <c r="S262" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T262" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U262" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="V262" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W262" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X262" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y262" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z262" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AA262" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AB262" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AC262" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD262" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE262" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF262" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AG262" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AH262" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AI262" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AJ262" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AK262" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AL262" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM262" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AN262" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AO262" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AP262" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AQ262" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AR262" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AS262" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AT262" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AU262" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV262" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW262" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX262" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY262" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ262" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA262" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB262" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC262" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD262" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="BE262" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF262" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BG262" t="n">
+      <c r="BM262" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN262" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO262" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BP262" t="n">
         <v>1.29</v>
-      </c>
-      <c r="BH262" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="BI262" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="BJ262" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="BK262" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="BL262" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="BM262" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BN262" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BO262" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BP262" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="263">
@@ -57682,7 +57682,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>8235053</v>
+        <v>8235056</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -57702,35 +57702,35 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>CD Castellón</t>
+          <t>SD Huesca</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>FC Andorra</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="I263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J263" t="n">
         <v>0</v>
       </c>
       <c r="K263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M263" t="n">
         <v>0</v>
       </c>
       <c r="N263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>['28', '40']</t>
+          <t>['13']</t>
         </is>
       </c>
       <c r="P263" t="inlineStr">
@@ -57739,160 +57739,160 @@
         </is>
       </c>
       <c r="Q263" t="n">
-        <v>1.93</v>
+        <v>3.35</v>
       </c>
       <c r="R263" t="n">
-        <v>2.45</v>
+        <v>1.83</v>
       </c>
       <c r="S263" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="T263" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="U263" t="n">
-        <v>3.42</v>
+        <v>2.29</v>
       </c>
       <c r="V263" t="n">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="W263" t="n">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="X263" t="n">
-        <v>5.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y263" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="Z263" t="n">
-        <v>1.48</v>
+        <v>2.64</v>
       </c>
       <c r="AA263" t="n">
-        <v>4.33</v>
+        <v>2.9</v>
       </c>
       <c r="AB263" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="AC263" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AD263" t="n">
-        <v>15.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE263" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AF263" t="n">
-        <v>4.5</v>
+        <v>2.48</v>
       </c>
       <c r="AG263" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="AH263" t="n">
-        <v>2.36</v>
+        <v>1.54</v>
       </c>
       <c r="AI263" t="n">
-        <v>1.69</v>
+        <v>2.12</v>
       </c>
       <c r="AJ263" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="AK263" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AL263" t="n">
         <v>0</v>
       </c>
       <c r="AM263" t="n">
-        <v>2.62</v>
+        <v>1.46</v>
       </c>
       <c r="AN263" t="n">
-        <v>2.09</v>
+        <v>1.45</v>
       </c>
       <c r="AO263" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AP263" t="n">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AR263" t="n">
-        <v>1.85</v>
+        <v>1.37</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.47</v>
+        <v>0.98</v>
       </c>
       <c r="AT263" t="n">
-        <v>3.32</v>
+        <v>2.35</v>
       </c>
       <c r="AU263" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV263" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA263" t="n">
         <v>5</v>
       </c>
-      <c r="AW263" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX263" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY263" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ263" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA263" t="n">
-        <v>6</v>
-      </c>
       <c r="BB263" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC263" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD263" t="n">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="BE263" t="n">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="BF263" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BG263" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BH263" t="n">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="BI263" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="BJ263" t="n">
-        <v>2.31</v>
+        <v>2.39</v>
       </c>
       <c r="BK263" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="BL263" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="BM263" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="BN263" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="BO263" t="n">
-        <v>3.13</v>
+        <v>2.95</v>
       </c>
       <c r="BP263" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="264">

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP275"/>
+  <dimension ref="A1:BP276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.31</v>
@@ -4407,7 +4407,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.75</v>
@@ -10293,7 +10293,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR45" t="n">
         <v>1.84</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.25</v>
@@ -15525,7 +15525,7 @@
         <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR69" t="n">
         <v>1.85</v>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ92" t="n">
         <v>1</v>
@@ -20757,7 +20757,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR93" t="n">
         <v>1.14</v>
@@ -26207,7 +26207,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR118" t="n">
         <v>1.58</v>
@@ -26422,7 +26422,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.46</v>
@@ -27948,7 +27948,7 @@
         <v>0.2</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.42</v>
@@ -30349,7 +30349,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR137" t="n">
         <v>1.31</v>
@@ -32311,7 +32311,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR146" t="n">
         <v>1.67</v>
@@ -33180,7 +33180,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.17</v>
@@ -36889,7 +36889,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR167" t="n">
         <v>1.46</v>
@@ -37758,7 +37758,7 @@
         <v>0.43</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.62</v>
@@ -42339,7 +42339,7 @@
         <v>1</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR192" t="n">
         <v>1.97</v>
@@ -43426,7 +43426,7 @@
         <v>1.63</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.42</v>
@@ -46914,7 +46914,7 @@
         <v>1.11</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.08</v>
@@ -48007,7 +48007,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR218" t="n">
         <v>1.47</v>
@@ -52146,7 +52146,7 @@
         <v>1.64</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.85</v>
@@ -52367,7 +52367,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR238" t="n">
         <v>1.33</v>
@@ -57160,7 +57160,7 @@
         <v>0.91</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ260" t="n">
         <v>0.83</v>
@@ -57599,7 +57599,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR262" t="n">
         <v>1.85</v>
@@ -60509,6 +60509,224 @@
       </c>
       <c r="BP275" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>8235066</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>46066.6875</v>
+      </c>
+      <c r="F276" t="n">
+        <v>26</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="n">
+        <v>2</v>
+      </c>
+      <c r="L276" t="n">
+        <v>3</v>
+      </c>
+      <c r="M276" t="n">
+        <v>2</v>
+      </c>
+      <c r="N276" t="n">
+        <v>5</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['9', '58', '83']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['39', '52']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R276" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S276" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="T276" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U276" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V276" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X276" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BL276" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM276" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN276" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO276" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP276" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP276"/>
+  <dimension ref="A1:BP285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.23</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.08</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.46</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR26" t="n">
         <v>1.17</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.6899999999999999</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.42</v>
@@ -7895,7 +7895,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR34" t="n">
         <v>1.16</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.6899999999999999</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.46</v>
@@ -8549,7 +8549,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR37" t="n">
         <v>1.1</v>
@@ -8767,7 +8767,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR38" t="n">
         <v>1.68</v>
@@ -9421,7 +9421,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR41" t="n">
         <v>0.74</v>
@@ -9636,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR42" t="n">
         <v>1.91</v>
@@ -9857,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR43" t="n">
         <v>3.16</v>
@@ -10072,10 +10072,10 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR44" t="n">
         <v>1.26</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.07</v>
@@ -10729,7 +10729,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR47" t="n">
         <v>0.71</v>
@@ -11162,7 +11162,7 @@
         <v>3</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.08</v>
@@ -12252,10 +12252,10 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR54" t="n">
         <v>1.6</v>
@@ -12470,10 +12470,10 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR55" t="n">
         <v>1.49</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.46</v>
@@ -13345,7 +13345,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR59" t="n">
         <v>1.57</v>
@@ -13781,7 +13781,7 @@
         <v>2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR61" t="n">
         <v>2.35</v>
@@ -14214,10 +14214,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR63" t="n">
         <v>1.48</v>
@@ -14432,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.62</v>
@@ -14653,7 +14653,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR65" t="n">
         <v>1.48</v>
@@ -14868,10 +14868,10 @@
         <v>3</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR66" t="n">
         <v>1.39</v>
@@ -15086,7 +15086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.08</v>
@@ -15740,10 +15740,10 @@
         <v>2.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR70" t="n">
         <v>1.76</v>
@@ -16394,7 +16394,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.08</v>
@@ -16615,7 +16615,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR74" t="n">
         <v>1.49</v>
@@ -17266,7 +17266,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.08</v>
@@ -18141,7 +18141,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR81" t="n">
         <v>1.74</v>
@@ -18356,7 +18356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.42</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.62</v>
@@ -19010,10 +19010,10 @@
         <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR85" t="n">
         <v>1.71</v>
@@ -19667,7 +19667,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR88" t="n">
         <v>1.43</v>
@@ -19882,7 +19882,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.31</v>
@@ -20100,10 +20100,10 @@
         <v>2.33</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR90" t="n">
         <v>1.45</v>
@@ -20321,7 +20321,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR91" t="n">
         <v>1.12</v>
@@ -20972,10 +20972,10 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR94" t="n">
         <v>1.68</v>
@@ -21190,7 +21190,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.46</v>
@@ -21411,7 +21411,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR96" t="n">
         <v>1.88</v>
@@ -21844,10 +21844,10 @@
         <v>1.33</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR98" t="n">
         <v>1.3</v>
@@ -22065,7 +22065,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR99" t="n">
         <v>1.59</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.23</v>
@@ -23373,7 +23373,7 @@
         <v>1</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR105" t="n">
         <v>1.89</v>
@@ -23588,7 +23588,7 @@
         <v>1.2</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.31</v>
@@ -23809,7 +23809,7 @@
         <v>2</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR107" t="n">
         <v>1.89</v>
@@ -24024,7 +24024,7 @@
         <v>1.6</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.46</v>
@@ -24678,10 +24678,10 @@
         <v>2</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR111" t="n">
         <v>1.32</v>
@@ -24896,10 +24896,10 @@
         <v>0.6</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR112" t="n">
         <v>0.99</v>
@@ -25114,7 +25114,7 @@
         <v>1</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.67</v>
@@ -25332,10 +25332,10 @@
         <v>1.8</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR114" t="n">
         <v>1.72</v>
@@ -25550,10 +25550,10 @@
         <v>1.25</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR115" t="n">
         <v>1.36</v>
@@ -25768,7 +25768,7 @@
         <v>0</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.62</v>
@@ -25989,7 +25989,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR117" t="n">
         <v>1.16</v>
@@ -26861,7 +26861,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR121" t="n">
         <v>1.5</v>
@@ -27294,7 +27294,7 @@
         <v>1.33</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.6899999999999999</v>
@@ -27730,7 +27730,7 @@
         <v>0.75</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.62</v>
@@ -28169,7 +28169,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR127" t="n">
         <v>1.55</v>
@@ -28387,7 +28387,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR128" t="n">
         <v>1.56</v>
@@ -28602,10 +28602,10 @@
         <v>1</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR129" t="n">
         <v>1.71</v>
@@ -28820,7 +28820,7 @@
         <v>0.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.08</v>
@@ -29041,7 +29041,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR131" t="n">
         <v>1.13</v>
@@ -29695,7 +29695,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR134" t="n">
         <v>1.22</v>
@@ -29913,7 +29913,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR135" t="n">
         <v>1.14</v>
@@ -30128,7 +30128,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.31</v>
@@ -30346,7 +30346,7 @@
         <v>1.17</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.07</v>
@@ -31003,7 +31003,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR140" t="n">
         <v>1.41</v>
@@ -31218,7 +31218,7 @@
         <v>0.67</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ141" t="n">
         <v>1</v>
@@ -31439,7 +31439,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR142" t="n">
         <v>1.3</v>
@@ -31654,7 +31654,7 @@
         <v>1.17</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.46</v>
@@ -31875,7 +31875,7 @@
         <v>1</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR144" t="n">
         <v>1.93</v>
@@ -32090,7 +32090,7 @@
         <v>0</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.62</v>
@@ -32308,7 +32308,7 @@
         <v>1.14</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.07</v>
@@ -32747,7 +32747,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR148" t="n">
         <v>1.46</v>
@@ -33183,7 +33183,7 @@
         <v>2</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR150" t="n">
         <v>2.17</v>
@@ -33616,10 +33616,10 @@
         <v>1.57</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR152" t="n">
         <v>1.68</v>
@@ -34052,7 +34052,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.08</v>
@@ -34924,7 +34924,7 @@
         <v>0.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ158" t="n">
         <v>1</v>
@@ -35142,7 +35142,7 @@
         <v>1.29</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.67</v>
@@ -35363,7 +35363,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR160" t="n">
         <v>1.4</v>
@@ -35796,10 +35796,10 @@
         <v>1</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR162" t="n">
         <v>1.32</v>
@@ -36014,10 +36014,10 @@
         <v>1.67</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR163" t="n">
         <v>1.22</v>
@@ -36453,7 +36453,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR165" t="n">
         <v>1.15</v>
@@ -37322,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.08</v>
@@ -37540,10 +37540,10 @@
         <v>1.75</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR170" t="n">
         <v>1.69</v>
@@ -38197,7 +38197,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR173" t="n">
         <v>1.11</v>
@@ -38630,10 +38630,10 @@
         <v>1</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR175" t="n">
         <v>1.78</v>
@@ -39066,10 +39066,10 @@
         <v>1.86</v>
       </c>
       <c r="AP177" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR177" t="n">
         <v>1.94</v>
@@ -39502,10 +39502,10 @@
         <v>1.29</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR179" t="n">
         <v>1.34</v>
@@ -39723,7 +39723,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR180" t="n">
         <v>1.17</v>
@@ -39941,7 +39941,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR181" t="n">
         <v>1.34</v>
@@ -40374,7 +40374,7 @@
         <v>1.5</v>
       </c>
       <c r="AP183" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.23</v>
@@ -40810,10 +40810,10 @@
         <v>0.75</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR185" t="n">
         <v>1.52</v>
@@ -41028,7 +41028,7 @@
         <v>1.13</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.31</v>
@@ -41682,7 +41682,7 @@
         <v>0.5</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.62</v>
@@ -41900,7 +41900,7 @@
         <v>0.25</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.42</v>
@@ -42557,7 +42557,7 @@
         <v>2</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR193" t="n">
         <v>1.76</v>
@@ -42775,7 +42775,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR194" t="n">
         <v>1.29</v>
@@ -43208,7 +43208,7 @@
         <v>0.5</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.08</v>
@@ -43647,7 +43647,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR198" t="n">
         <v>1.45</v>
@@ -43862,7 +43862,7 @@
         <v>1</v>
       </c>
       <c r="AP199" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.6899999999999999</v>
@@ -44080,10 +44080,10 @@
         <v>1.5</v>
       </c>
       <c r="AP200" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR200" t="n">
         <v>1.92</v>
@@ -44301,7 +44301,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR201" t="n">
         <v>1.57</v>
@@ -44516,10 +44516,10 @@
         <v>2</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR202" t="n">
         <v>1.37</v>
@@ -44737,7 +44737,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR203" t="n">
         <v>1.42</v>
@@ -45391,7 +45391,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR206" t="n">
         <v>1.14</v>
@@ -45824,7 +45824,7 @@
         <v>0.89</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ208" t="n">
         <v>1</v>
@@ -46042,7 +46042,7 @@
         <v>1.33</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.31</v>
@@ -46478,7 +46478,7 @@
         <v>0.9</v>
       </c>
       <c r="AP211" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.6899999999999999</v>
@@ -46696,7 +46696,7 @@
         <v>0.33</v>
       </c>
       <c r="AP212" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ212" t="n">
         <v>0.62</v>
@@ -47132,7 +47132,7 @@
         <v>0.78</v>
       </c>
       <c r="AP214" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ214" t="n">
         <v>0.62</v>
@@ -47353,7 +47353,7 @@
         <v>1</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR215" t="n">
         <v>1.96</v>
@@ -47568,7 +47568,7 @@
         <v>1.78</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ216" t="n">
         <v>1.42</v>
@@ -48225,7 +48225,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR219" t="n">
         <v>1.3</v>
@@ -48440,10 +48440,10 @@
         <v>1.4</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR220" t="n">
         <v>1.61</v>
@@ -48661,7 +48661,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR221" t="n">
         <v>1.46</v>
@@ -48879,7 +48879,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR222" t="n">
         <v>1.34</v>
@@ -49748,7 +49748,7 @@
         <v>0.33</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ226" t="n">
         <v>0.42</v>
@@ -49969,7 +49969,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR227" t="n">
         <v>1.34</v>
@@ -50405,7 +50405,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR229" t="n">
         <v>1.41</v>
@@ -50620,7 +50620,7 @@
         <v>1.4</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.46</v>
@@ -50841,7 +50841,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ231" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR231" t="n">
         <v>1.72</v>
@@ -51056,7 +51056,7 @@
         <v>1.4</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.67</v>
@@ -51274,10 +51274,10 @@
         <v>1.55</v>
       </c>
       <c r="AP233" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR233" t="n">
         <v>1.87</v>
@@ -51495,7 +51495,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR234" t="n">
         <v>1.43</v>
@@ -51710,10 +51710,10 @@
         <v>1.2</v>
       </c>
       <c r="AP235" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR235" t="n">
         <v>1.22</v>
@@ -52149,7 +52149,7 @@
         <v>2</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR237" t="n">
         <v>2.05</v>
@@ -52585,7 +52585,7 @@
         <v>2</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR239" t="n">
         <v>1.84</v>
@@ -52800,7 +52800,7 @@
         <v>0.7</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ240" t="n">
         <v>0.62</v>
@@ -53018,10 +53018,10 @@
         <v>1.4</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR241" t="n">
         <v>1.6</v>
@@ -53236,7 +53236,7 @@
         <v>1</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ242" t="n">
         <v>1.08</v>
@@ -53454,7 +53454,7 @@
         <v>0.3</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ243" t="n">
         <v>0.42</v>
@@ -55198,7 +55198,7 @@
         <v>1.45</v>
       </c>
       <c r="AP251" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ251" t="n">
         <v>1.46</v>
@@ -55637,7 +55637,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ253" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR253" t="n">
         <v>1.5</v>
@@ -56073,7 +56073,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ255" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR255" t="n">
         <v>1.14</v>
@@ -56288,7 +56288,7 @@
         <v>1.09</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ256" t="n">
         <v>1</v>
@@ -56506,10 +56506,10 @@
         <v>1.42</v>
       </c>
       <c r="AP257" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ257" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR257" t="n">
         <v>1.25</v>
@@ -56724,10 +56724,10 @@
         <v>1.75</v>
       </c>
       <c r="AP258" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ258" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR258" t="n">
         <v>1.3</v>
@@ -56942,10 +56942,10 @@
         <v>1.36</v>
       </c>
       <c r="AP259" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ259" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR259" t="n">
         <v>1.79</v>
@@ -57163,7 +57163,7 @@
         <v>2</v>
       </c>
       <c r="AQ260" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR260" t="n">
         <v>1.97</v>
@@ -57378,10 +57378,10 @@
         <v>1.36</v>
       </c>
       <c r="AP261" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR261" t="n">
         <v>1.84</v>
@@ -57596,7 +57596,7 @@
         <v>1.25</v>
       </c>
       <c r="AP262" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ262" t="n">
         <v>1.07</v>
@@ -57814,10 +57814,10 @@
         <v>1.27</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR263" t="n">
         <v>1.37</v>
@@ -58032,10 +58032,10 @@
         <v>1.91</v>
       </c>
       <c r="AP264" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ264" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR264" t="n">
         <v>1.53</v>
@@ -60727,6 +60727,1968 @@
       </c>
       <c r="BP276" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>8235206</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>46067.41666666666</v>
+      </c>
+      <c r="F277" t="n">
+        <v>26</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="n">
+        <v>2</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="n">
+        <v>3</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['5', '69']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R277" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S277" t="n">
+        <v>4</v>
+      </c>
+      <c r="T277" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V277" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X277" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL277" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM277" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN277" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO277" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP277" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>8234972</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>46067.51041666666</v>
+      </c>
+      <c r="F278" t="n">
+        <v>26</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>1</v>
+      </c>
+      <c r="K278" t="n">
+        <v>2</v>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="n">
+        <v>2</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R278" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S278" t="n">
+        <v>5</v>
+      </c>
+      <c r="T278" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V278" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X278" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL278" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM278" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BN278" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO278" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP278" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>8235207</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>46067.60416666666</v>
+      </c>
+      <c r="F279" t="n">
+        <v>26</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Cultural y Deportiva Leonesa</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R279" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S279" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T279" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V279" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X279" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL279" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM279" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN279" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO279" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BP279" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>8235204</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>46067.70833333334</v>
+      </c>
+      <c r="F280" t="n">
+        <v>26</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>4</v>
+      </c>
+      <c r="J280" t="n">
+        <v>1</v>
+      </c>
+      <c r="K280" t="n">
+        <v>5</v>
+      </c>
+      <c r="L280" t="n">
+        <v>5</v>
+      </c>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="N280" t="n">
+        <v>6</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['3', '10', '29', '40', '53']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R280" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S280" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T280" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V280" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X280" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL280" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM280" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN280" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO280" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="BP280" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>8235157</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>46068.41666666666</v>
+      </c>
+      <c r="F281" t="n">
+        <v>26</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="n">
+        <v>1</v>
+      </c>
+      <c r="N281" t="n">
+        <v>2</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="R281" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S281" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T281" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V281" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X281" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BL281" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN281" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO281" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BP281" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>8235154</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>46068.51041666666</v>
+      </c>
+      <c r="F282" t="n">
+        <v>26</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="n">
+        <v>2</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="n">
+        <v>3</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>['71', '90+4']</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R282" t="n">
+        <v>2</v>
+      </c>
+      <c r="S282" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="T282" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U282" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V282" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X282" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL282" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM282" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN282" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO282" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BP282" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>8235067</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>46068.51041666666</v>
+      </c>
+      <c r="F283" t="n">
+        <v>26</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>2</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>2</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>['47', '72']</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R283" t="n">
+        <v>2</v>
+      </c>
+      <c r="S283" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T283" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V283" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X283" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL283" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM283" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN283" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO283" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BP283" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>8235156</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>46068.60416666666</v>
+      </c>
+      <c r="F284" t="n">
+        <v>26</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>1</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="n">
+        <v>1</v>
+      </c>
+      <c r="N284" t="n">
+        <v>2</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="R284" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S284" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T284" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V284" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X284" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL284" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM284" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN284" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO284" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP284" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>8235057</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>46068.70833333334</v>
+      </c>
+      <c r="F285" t="n">
+        <v>26</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>CD Castellón</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Deportivo La Coruña</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>1</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="n">
+        <v>2</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>2</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>['10', '63']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="R285" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S285" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T285" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V285" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X285" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL285" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM285" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN285" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO285" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BP285" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -61105,13 +61105,13 @@
         <v>3</v>
       </c>
       <c r="AW278" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX278" t="n">
         <v>2</v>
       </c>
       <c r="AY278" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ278" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.46</v>
@@ -7241,7 +7241,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>1.03</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.15</v>
@@ -11165,7 +11165,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR49" t="n">
         <v>1.31</v>
@@ -16176,7 +16176,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.67</v>
@@ -16397,7 +16397,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.43</v>
@@ -19231,7 +19231,7 @@
         <v>2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR86" t="n">
         <v>1.89</v>
@@ -20754,7 +20754,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.07</v>
@@ -23155,7 +23155,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR104" t="n">
         <v>1.22</v>
@@ -28823,7 +28823,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR130" t="n">
         <v>1.82</v>
@@ -29474,7 +29474,7 @@
         <v>0.6</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.62</v>
@@ -29910,7 +29910,7 @@
         <v>1.67</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.21</v>
@@ -34055,7 +34055,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR154" t="n">
         <v>1.26</v>
@@ -36450,7 +36450,7 @@
         <v>1.5</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.15</v>
@@ -37979,7 +37979,7 @@
         <v>1</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR172" t="n">
         <v>1.95</v>
@@ -39720,7 +39720,7 @@
         <v>0.86</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.23</v>
@@ -43211,7 +43211,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR196" t="n">
         <v>1.64</v>
@@ -45388,7 +45388,7 @@
         <v>0.78</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.77</v>
@@ -47789,7 +47789,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR217" t="n">
         <v>1.58</v>
@@ -49312,7 +49312,7 @@
         <v>1.3</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.31</v>
@@ -53239,7 +53239,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR242" t="n">
         <v>1.75</v>
@@ -56070,7 +56070,7 @@
         <v>1.55</v>
       </c>
       <c r="AP255" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ255" t="n">
         <v>1.46</v>
@@ -58253,7 +58253,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ265" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR265" t="n">
         <v>1.36</v>
@@ -62688,6 +62688,224 @@
         <v>3.33</v>
       </c>
       <c r="BP285" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>8235061</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>46069.6875</v>
+      </c>
+      <c r="F286" t="n">
+        <v>26</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Real Sociedad II</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>1</v>
+      </c>
+      <c r="K286" t="n">
+        <v>2</v>
+      </c>
+      <c r="L286" t="n">
+        <v>2</v>
+      </c>
+      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+      <c r="N286" t="n">
+        <v>3</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>['24', '68']</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R286" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S286" t="n">
+        <v>3</v>
+      </c>
+      <c r="T286" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U286" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V286" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X286" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BL286" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM286" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN286" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO286" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP286" t="n">
         <v>1.22</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP286"/>
+  <dimension ref="A1:BP291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.21</v>
@@ -2881,7 +2881,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.31</v>
@@ -3317,7 +3317,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.15</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.23</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.42</v>
@@ -5933,7 +5933,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR25" t="n">
         <v>1.06</v>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR27" t="n">
         <v>2.09</v>
@@ -7459,7 +7459,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR32" t="n">
         <v>1.33</v>
@@ -7674,10 +7674,10 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR33" t="n">
         <v>1.37</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.71</v>
@@ -8113,7 +8113,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR35" t="n">
         <v>0.92</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.23</v>
@@ -8985,7 +8985,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR39" t="n">
         <v>1.75</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.62</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.62</v>
@@ -10947,7 +10947,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR48" t="n">
         <v>1.59</v>
@@ -11162,7 +11162,7 @@
         <v>3</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -11601,7 +11601,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR51" t="n">
         <v>1.54</v>
@@ -11819,7 +11819,7 @@
         <v>2</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR52" t="n">
         <v>1.64</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.62</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.46</v>
@@ -13563,7 +13563,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR60" t="n">
         <v>1.58</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.23</v>
@@ -13996,7 +13996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ62" t="n">
         <v>1</v>
@@ -15089,7 +15089,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.35</v>
@@ -16179,7 +16179,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR72" t="n">
         <v>1.08</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR76" t="n">
         <v>1.73</v>
@@ -17266,10 +17266,10 @@
         <v>0.67</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
         <v>1.34</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.46</v>
@@ -17702,10 +17702,10 @@
         <v>0.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR79" t="n">
         <v>1.39</v>
@@ -17920,7 +17920,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.46</v>
@@ -18356,7 +18356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.42</v>
@@ -18795,7 +18795,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR84" t="n">
         <v>1.2</v>
@@ -19449,7 +19449,7 @@
         <v>1</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR87" t="n">
         <v>1.75</v>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="AP92" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ92" t="n">
         <v>1</v>
@@ -22283,7 +22283,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR100" t="n">
         <v>1.73</v>
@@ -22501,7 +22501,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
         <v>1.58</v>
@@ -22716,10 +22716,10 @@
         <v>1.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR102" t="n">
         <v>1.44</v>
@@ -22937,7 +22937,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR103" t="n">
         <v>1.19</v>
@@ -23152,7 +23152,7 @@
         <v>0.75</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ104" t="n">
         <v>1</v>
@@ -24245,7 +24245,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR109" t="n">
         <v>1.39</v>
@@ -24678,7 +24678,7 @@
         <v>2</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.46</v>
@@ -25117,7 +25117,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR113" t="n">
         <v>1.59</v>
@@ -26422,7 +26422,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.46</v>
@@ -26858,7 +26858,7 @@
         <v>1.75</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.15</v>
@@ -27297,7 +27297,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR123" t="n">
         <v>1.11</v>
@@ -27512,7 +27512,7 @@
         <v>1.4</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.42</v>
@@ -27948,10 +27948,10 @@
         <v>0.2</v>
       </c>
       <c r="AP126" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR126" t="n">
         <v>2.35</v>
@@ -29259,7 +29259,7 @@
         <v>1</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR132" t="n">
         <v>1.91</v>
@@ -30346,7 +30346,7 @@
         <v>1.17</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.07</v>
@@ -30564,10 +30564,10 @@
         <v>1.5</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR138" t="n">
         <v>1.47</v>
@@ -30785,7 +30785,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR139" t="n">
         <v>1.63</v>
@@ -32529,7 +32529,7 @@
         <v>2</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR147" t="n">
         <v>1.84</v>
@@ -32744,7 +32744,7 @@
         <v>1.43</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.21</v>
@@ -32965,7 +32965,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR149" t="n">
         <v>1.43</v>
@@ -33180,7 +33180,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.15</v>
@@ -34706,7 +34706,7 @@
         <v>1.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.46</v>
@@ -35145,7 +35145,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR159" t="n">
         <v>1.46</v>
@@ -35360,7 +35360,7 @@
         <v>0.86</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.77</v>
@@ -35581,7 +35581,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR161" t="n">
         <v>1.25</v>
@@ -35796,7 +35796,7 @@
         <v>1</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.23</v>
@@ -36235,7 +36235,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR164" t="n">
         <v>1.62</v>
@@ -36668,7 +36668,7 @@
         <v>1.71</v>
       </c>
       <c r="AP166" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.46</v>
@@ -37104,7 +37104,7 @@
         <v>1.86</v>
       </c>
       <c r="AP168" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.42</v>
@@ -37325,7 +37325,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR169" t="n">
         <v>1.17</v>
@@ -37758,7 +37758,7 @@
         <v>0.43</v>
       </c>
       <c r="AP171" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.62</v>
@@ -38415,7 +38415,7 @@
         <v>2</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR174" t="n">
         <v>1.79</v>
@@ -39502,7 +39502,7 @@
         <v>1.29</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.15</v>
@@ -40156,10 +40156,10 @@
         <v>1.25</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR182" t="n">
         <v>1.49</v>
@@ -40377,7 +40377,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR183" t="n">
         <v>1.87</v>
@@ -40592,7 +40592,7 @@
         <v>1.38</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.46</v>
@@ -41249,7 +41249,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR187" t="n">
         <v>1.39</v>
@@ -41903,7 +41903,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR190" t="n">
         <v>1.81</v>
@@ -42121,7 +42121,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR191" t="n">
         <v>1.58</v>
@@ -42990,7 +42990,7 @@
         <v>0</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.62</v>
@@ -43426,7 +43426,7 @@
         <v>1.63</v>
       </c>
       <c r="AP197" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.42</v>
@@ -43644,7 +43644,7 @@
         <v>1.63</v>
       </c>
       <c r="AP198" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.46</v>
@@ -43865,7 +43865,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR199" t="n">
         <v>1.92</v>
@@ -44516,7 +44516,7 @@
         <v>2</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.62</v>
@@ -44734,7 +44734,7 @@
         <v>1.13</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ203" t="n">
         <v>1.23</v>
@@ -44955,7 +44955,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR204" t="n">
         <v>1.36</v>
@@ -45609,7 +45609,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR207" t="n">
         <v>1.41</v>
@@ -46481,7 +46481,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR211" t="n">
         <v>1.86</v>
@@ -46914,10 +46914,10 @@
         <v>1.11</v>
       </c>
       <c r="AP213" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR213" t="n">
         <v>2.12</v>
@@ -48004,7 +48004,7 @@
         <v>1.2</v>
       </c>
       <c r="AP218" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.07</v>
@@ -48658,7 +48658,7 @@
         <v>1.44</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.15</v>
@@ -49533,7 +49533,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR225" t="n">
         <v>1.56</v>
@@ -49751,7 +49751,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR226" t="n">
         <v>1.21</v>
@@ -50402,7 +50402,7 @@
         <v>1.33</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ229" t="n">
         <v>1.15</v>
@@ -51056,10 +51056,10 @@
         <v>1.4</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR232" t="n">
         <v>1.39</v>
@@ -51492,7 +51492,7 @@
         <v>1.2</v>
       </c>
       <c r="AP234" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.15</v>
@@ -52146,7 +52146,7 @@
         <v>1.64</v>
       </c>
       <c r="AP237" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.71</v>
@@ -53457,7 +53457,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ243" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR243" t="n">
         <v>1.54</v>
@@ -54108,7 +54108,7 @@
         <v>0.45</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ246" t="n">
         <v>0.62</v>
@@ -54329,7 +54329,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ247" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR247" t="n">
         <v>1.6</v>
@@ -54547,7 +54547,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR248" t="n">
         <v>1.37</v>
@@ -54765,7 +54765,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ249" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR249" t="n">
         <v>1.33</v>
@@ -55634,7 +55634,7 @@
         <v>1.8</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ253" t="n">
         <v>1.62</v>
@@ -55852,10 +55852,10 @@
         <v>1.45</v>
       </c>
       <c r="AP254" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR254" t="n">
         <v>1.51</v>
@@ -57160,7 +57160,7 @@
         <v>0.91</v>
       </c>
       <c r="AP260" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ260" t="n">
         <v>0.77</v>
@@ -57814,7 +57814,7 @@
         <v>1.27</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ263" t="n">
         <v>1.15</v>
@@ -58468,10 +58468,10 @@
         <v>1.18</v>
       </c>
       <c r="AP266" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ266" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR266" t="n">
         <v>1.45</v>
@@ -59125,7 +59125,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ269" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR269" t="n">
         <v>1.21</v>
@@ -59776,7 +59776,7 @@
         <v>1.42</v>
       </c>
       <c r="AP272" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ272" t="n">
         <v>1.31</v>
@@ -60215,7 +60215,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ274" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR274" t="n">
         <v>1.72</v>
@@ -60433,7 +60433,7 @@
         <v>2</v>
       </c>
       <c r="AQ275" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR275" t="n">
         <v>1.84</v>
@@ -60648,7 +60648,7 @@
         <v>1.15</v>
       </c>
       <c r="AP276" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ276" t="n">
         <v>1.07</v>
@@ -62174,7 +62174,7 @@
         <v>0.83</v>
       </c>
       <c r="AP283" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ283" t="n">
         <v>0.77</v>
@@ -62625,7 +62625,7 @@
         <v>3.26</v>
       </c>
       <c r="AU285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV285" t="n">
         <v>1</v>
@@ -62637,7 +62637,7 @@
         <v>11</v>
       </c>
       <c r="AY285" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ285" t="n">
         <v>12</v>
@@ -62907,6 +62907,1096 @@
       </c>
       <c r="BP286" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>8235064</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>46073.6875</v>
+      </c>
+      <c r="F287" t="n">
+        <v>27</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="n">
+        <v>2</v>
+      </c>
+      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+      <c r="N287" t="n">
+        <v>3</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['28', '79']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="R287" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S287" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="T287" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X287" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BL287" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM287" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP287" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>8235070</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>46074.41666666666</v>
+      </c>
+      <c r="F288" t="n">
+        <v>27</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Cultural y Deportiva Leonesa</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>1</v>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+      <c r="N288" t="n">
+        <v>2</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R288" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S288" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T288" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U288" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V288" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X288" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL288" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM288" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BN288" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO288" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP288" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>8235160</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>46074.51041666666</v>
+      </c>
+      <c r="F289" t="n">
+        <v>27</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>1</v>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="n">
+        <v>2</v>
+      </c>
+      <c r="N289" t="n">
+        <v>3</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>['20', '58']</t>
+        </is>
+      </c>
+      <c r="Q289" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="R289" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S289" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T289" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V289" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X289" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG289" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH289" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL289" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM289" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN289" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO289" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP289" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>8234973</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>46074.51041666666</v>
+      </c>
+      <c r="F290" t="n">
+        <v>27</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Deportivo La Coruña</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>1</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="R290" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S290" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="T290" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V290" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X290" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL290" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM290" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO290" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BP290" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>8235209</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>46074.60416666666</v>
+      </c>
+      <c r="F291" t="n">
+        <v>27</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>2</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>2</v>
+      </c>
+      <c r="L291" t="n">
+        <v>2</v>
+      </c>
+      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+      <c r="N291" t="n">
+        <v>3</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['27', '31']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R291" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S291" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="T291" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U291" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V291" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X291" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL291" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM291" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN291" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO291" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP291" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP291"/>
+  <dimension ref="A1:BP292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.07</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR36" t="n">
         <v>1.51</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.62</v>
@@ -13127,7 +13127,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR58" t="n">
         <v>1.07</v>
@@ -15958,7 +15958,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.46</v>
@@ -17487,7 +17487,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR78" t="n">
         <v>1.36</v>
@@ -19664,7 +19664,7 @@
         <v>1.67</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.15</v>
@@ -21193,7 +21193,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR95" t="n">
         <v>1.99</v>
@@ -24242,7 +24242,7 @@
         <v>0.25</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.38</v>
@@ -26425,7 +26425,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR119" t="n">
         <v>2.56</v>
@@ -31000,7 +31000,7 @@
         <v>2</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.62</v>
@@ -31657,7 +31657,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR143" t="n">
         <v>1.26</v>
@@ -34270,7 +34270,7 @@
         <v>1.29</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.31</v>
@@ -34491,7 +34491,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR156" t="n">
         <v>1.56</v>
@@ -40595,7 +40595,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR184" t="n">
         <v>1.46</v>
@@ -41246,7 +41246,7 @@
         <v>1</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.86</v>
@@ -44952,7 +44952,7 @@
         <v>1.67</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.21</v>
@@ -46263,7 +46263,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR210" t="n">
         <v>1.36</v>
@@ -49966,7 +49966,7 @@
         <v>1.7</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.71</v>
@@ -50623,7 +50623,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR230" t="n">
         <v>1.56</v>
@@ -54544,7 +54544,7 @@
         <v>1.55</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ248" t="n">
         <v>1.54</v>
@@ -55419,7 +55419,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ252" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR252" t="n">
         <v>1.27</v>
@@ -58904,7 +58904,7 @@
         <v>1.45</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ268" t="n">
         <v>1.42</v>
@@ -59343,7 +59343,7 @@
         <v>1</v>
       </c>
       <c r="AQ270" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR270" t="n">
         <v>1.76</v>
@@ -63997,6 +63997,224 @@
       </c>
       <c r="BP291" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>8235072</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>46074.70833333334</v>
+      </c>
+      <c r="F292" t="n">
+        <v>27</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>CD Castellón</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+      <c r="N292" t="n">
+        <v>2</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="R292" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S292" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="T292" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V292" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X292" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BL292" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM292" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN292" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO292" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="BP292" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP292"/>
+  <dimension ref="A1:BP296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.43</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.38</v>
@@ -2009,7 +2009,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.54</v>
@@ -3099,7 +3099,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.62</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.21</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.77</v>
@@ -6587,7 +6587,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR28" t="n">
         <v>1.46</v>
@@ -6802,10 +6802,10 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR30" t="n">
         <v>2.37</v>
@@ -8767,7 +8767,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR38" t="n">
         <v>1.68</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -11598,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.54</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.21</v>
@@ -12034,10 +12034,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR53" t="n">
         <v>1.5</v>
@@ -12691,7 +12691,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR56" t="n">
         <v>1.3</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.86</v>
@@ -13999,7 +13999,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR62" t="n">
         <v>1.59</v>
@@ -14217,7 +14217,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR63" t="n">
         <v>1.48</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.15</v>
@@ -15307,7 +15307,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR68" t="n">
         <v>0.97</v>
@@ -15522,7 +15522,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.07</v>
@@ -16830,10 +16830,10 @@
         <v>0.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR75" t="n">
         <v>2.02</v>
@@ -18138,7 +18138,7 @@
         <v>1.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.21</v>
@@ -18359,7 +18359,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ86" t="n">
         <v>1</v>
@@ -19885,7 +19885,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR89" t="n">
         <v>1.07</v>
@@ -20539,7 +20539,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR92" t="n">
         <v>2.49</v>
@@ -21408,7 +21408,7 @@
         <v>2.33</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.62</v>
@@ -21847,7 +21847,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR98" t="n">
         <v>1.3</v>
@@ -22062,7 +22062,7 @@
         <v>2</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.71</v>
@@ -22498,7 +22498,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ101" t="n">
         <v>1</v>
@@ -23591,7 +23591,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR106" t="n">
         <v>1.71</v>
@@ -23806,7 +23806,7 @@
         <v>1.6</v>
       </c>
       <c r="AP107" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.71</v>
@@ -24463,7 +24463,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR110" t="n">
         <v>1.34</v>
@@ -26204,7 +26204,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.07</v>
@@ -26640,10 +26640,10 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR120" t="n">
         <v>1.73</v>
@@ -26861,7 +26861,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR121" t="n">
         <v>1.5</v>
@@ -27076,7 +27076,7 @@
         <v>0</v>
       </c>
       <c r="AP122" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.62</v>
@@ -27515,7 +27515,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR124" t="n">
         <v>1.31</v>
@@ -28166,7 +28166,7 @@
         <v>1.2</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.15</v>
@@ -28384,7 +28384,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.46</v>
@@ -30131,7 +30131,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR136" t="n">
         <v>1.68</v>
@@ -30782,7 +30782,7 @@
         <v>1.33</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.54</v>
@@ -31221,7 +31221,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR141" t="n">
         <v>1.39</v>
@@ -31439,7 +31439,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR142" t="n">
         <v>1.3</v>
@@ -32526,7 +32526,7 @@
         <v>1</v>
       </c>
       <c r="AP147" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ147" t="n">
         <v>1</v>
@@ -32962,7 +32962,7 @@
         <v>0.17</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.38</v>
@@ -33401,7 +33401,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR151" t="n">
         <v>1.39</v>
@@ -34273,7 +34273,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR155" t="n">
         <v>1.44</v>
@@ -34488,7 +34488,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.43</v>
@@ -34927,7 +34927,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR158" t="n">
         <v>1.77</v>
@@ -36232,7 +36232,7 @@
         <v>1.14</v>
       </c>
       <c r="AP164" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.86</v>
@@ -36453,7 +36453,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR165" t="n">
         <v>1.15</v>
@@ -36886,7 +36886,7 @@
         <v>1</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.07</v>
@@ -37107,7 +37107,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR168" t="n">
         <v>1.43</v>
@@ -38412,7 +38412,7 @@
         <v>0.29</v>
       </c>
       <c r="AP174" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ174" t="n">
         <v>0.38</v>
@@ -39284,7 +39284,7 @@
         <v>1.5</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.46</v>
@@ -39505,7 +39505,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR179" t="n">
         <v>1.34</v>
@@ -41031,7 +41031,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR186" t="n">
         <v>1.2</v>
@@ -41464,10 +41464,10 @@
         <v>0.88</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR188" t="n">
         <v>1.69</v>
@@ -42118,7 +42118,7 @@
         <v>1.25</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ191" t="n">
         <v>1</v>
@@ -42554,7 +42554,7 @@
         <v>1.44</v>
       </c>
       <c r="AP193" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.21</v>
@@ -43429,7 +43429,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR197" t="n">
         <v>2.22</v>
@@ -44083,7 +44083,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR200" t="n">
         <v>1.92</v>
@@ -44298,7 +44298,7 @@
         <v>1.89</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.71</v>
@@ -45170,7 +45170,7 @@
         <v>1.67</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.46</v>
@@ -45827,7 +45827,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR208" t="n">
         <v>1.21</v>
@@ -46045,7 +46045,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR209" t="n">
         <v>1.52</v>
@@ -47571,7 +47571,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR216" t="n">
         <v>1.76</v>
@@ -47786,7 +47786,7 @@
         <v>0.78</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ217" t="n">
         <v>1</v>
@@ -49315,7 +49315,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR224" t="n">
         <v>1.14</v>
@@ -49530,7 +49530,7 @@
         <v>1.5</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ225" t="n">
         <v>1.21</v>
@@ -50184,10 +50184,10 @@
         <v>0.9</v>
       </c>
       <c r="AP228" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR228" t="n">
         <v>1.77</v>
@@ -50405,7 +50405,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR229" t="n">
         <v>1.41</v>
@@ -50838,7 +50838,7 @@
         <v>1</v>
       </c>
       <c r="AP231" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ231" t="n">
         <v>0.77</v>
@@ -51495,7 +51495,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR234" t="n">
         <v>1.43</v>
@@ -52582,7 +52582,7 @@
         <v>1.7</v>
       </c>
       <c r="AP239" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.46</v>
@@ -53672,10 +53672,10 @@
         <v>1.6</v>
       </c>
       <c r="AP244" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR244" t="n">
         <v>1.75</v>
@@ -53893,7 +53893,7 @@
         <v>1</v>
       </c>
       <c r="AQ245" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR245" t="n">
         <v>1.86</v>
@@ -54326,7 +54326,7 @@
         <v>0.82</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ247" t="n">
         <v>0.86</v>
@@ -54980,7 +54980,7 @@
         <v>0.64</v>
       </c>
       <c r="AP250" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ250" t="n">
         <v>0.62</v>
@@ -56291,7 +56291,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ256" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR256" t="n">
         <v>1.58</v>
@@ -56945,7 +56945,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ259" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR259" t="n">
         <v>1.79</v>
@@ -58686,7 +58686,7 @@
         <v>0.42</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ267" t="n">
         <v>0.62</v>
@@ -58907,7 +58907,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR268" t="n">
         <v>1.39</v>
@@ -59779,7 +59779,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ272" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR272" t="n">
         <v>1.46</v>
@@ -59994,7 +59994,7 @@
         <v>0.67</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ273" t="n">
         <v>0.62</v>
@@ -60212,7 +60212,7 @@
         <v>1.33</v>
       </c>
       <c r="AP274" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ274" t="n">
         <v>1.21</v>
@@ -60430,7 +60430,7 @@
         <v>0.75</v>
       </c>
       <c r="AP275" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ275" t="n">
         <v>0.86</v>
@@ -61305,7 +61305,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ279" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR279" t="n">
         <v>1.3</v>
@@ -61523,7 +61523,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ280" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR280" t="n">
         <v>1.54</v>
@@ -63064,13 +63064,13 @@
         <v>4</v>
       </c>
       <c r="AV287" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW287" t="n">
         <v>6</v>
       </c>
       <c r="AX287" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY287" t="n">
         <v>10</v>
@@ -63936,28 +63936,28 @@
         <v>4</v>
       </c>
       <c r="AV291" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW291" t="n">
         <v>10</v>
       </c>
       <c r="AX291" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY291" t="n">
         <v>14</v>
       </c>
       <c r="AZ291" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA291" t="n">
         <v>6</v>
       </c>
       <c r="BB291" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC291" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD291" t="n">
         <v>1.67</v>
@@ -64215,6 +64215,878 @@
       </c>
       <c r="BP292" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>8235161</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>46075.41666666666</v>
+      </c>
+      <c r="F293" t="n">
+        <v>27</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>1</v>
+      </c>
+      <c r="J293" t="n">
+        <v>2</v>
+      </c>
+      <c r="K293" t="n">
+        <v>3</v>
+      </c>
+      <c r="L293" t="n">
+        <v>2</v>
+      </c>
+      <c r="M293" t="n">
+        <v>2</v>
+      </c>
+      <c r="N293" t="n">
+        <v>4</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>['7', '80']</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>['45', '45+4']</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R293" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S293" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T293" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V293" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X293" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL293" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM293" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN293" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO293" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BP293" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>8235159</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>46075.51041666666</v>
+      </c>
+      <c r="F294" t="n">
+        <v>27</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>2</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>2</v>
+      </c>
+      <c r="L294" t="n">
+        <v>2</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
+      <c r="N294" t="n">
+        <v>3</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>['8', '23']</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R294" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S294" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="T294" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V294" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X294" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>8235068</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>46075.60416666666</v>
+      </c>
+      <c r="F295" t="n">
+        <v>27</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>1</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>1</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R295" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S295" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="T295" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V295" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X295" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BL295" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM295" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN295" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO295" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BP295" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>8234974</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>46075.70833333334</v>
+      </c>
+      <c r="F296" t="n">
+        <v>27</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>1</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R296" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S296" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T296" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V296" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X296" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM296" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN296" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO296" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP296" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP296"/>
+  <dimension ref="A1:BP297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.86</v>
@@ -5061,7 +5061,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR21" t="n">
         <v>1.34</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.21</v>
@@ -10511,7 +10511,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR46" t="n">
         <v>1.42</v>
@@ -10944,7 +10944,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.38</v>
@@ -14435,7 +14435,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR64" t="n">
         <v>1.87</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.77</v>
@@ -18577,7 +18577,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR83" t="n">
         <v>1.49</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.62</v>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.31</v>
@@ -25771,7 +25771,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR116" t="n">
         <v>1.21</v>
@@ -27079,7 +27079,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR122" t="n">
         <v>1.93</v>
@@ -31436,7 +31436,7 @@
         <v>1.6</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.14</v>
@@ -32093,7 +32093,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR145" t="n">
         <v>1.85</v>
@@ -35578,7 +35578,7 @@
         <v>1.29</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.21</v>
@@ -38851,7 +38851,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR176" t="n">
         <v>1.36</v>
@@ -39938,7 +39938,7 @@
         <v>1.86</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.62</v>
@@ -42993,7 +42993,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR195" t="n">
         <v>1.37</v>
@@ -46260,7 +46260,7 @@
         <v>1.56</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.43</v>
@@ -46699,7 +46699,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ212" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR212" t="n">
         <v>1.24</v>
@@ -48876,7 +48876,7 @@
         <v>1.33</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.23</v>
@@ -51931,7 +51931,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR236" t="n">
         <v>1.26</v>
@@ -54111,7 +54111,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ246" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR246" t="n">
         <v>1.39</v>
@@ -54762,7 +54762,7 @@
         <v>1</v>
       </c>
       <c r="AP249" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ249" t="n">
         <v>1</v>
@@ -58689,7 +58689,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ267" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR267" t="n">
         <v>1.65</v>
@@ -59558,7 +59558,7 @@
         <v>1.33</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ271" t="n">
         <v>1.46</v>
@@ -63064,13 +63064,13 @@
         <v>4</v>
       </c>
       <c r="AV287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW287" t="n">
         <v>6</v>
       </c>
       <c r="AX287" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY287" t="n">
         <v>10</v>
@@ -63503,13 +63503,13 @@
         <v>6</v>
       </c>
       <c r="AW289" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX289" t="n">
         <v>6</v>
       </c>
       <c r="AY289" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ289" t="n">
         <v>12</v>
@@ -65087,6 +65087,224 @@
       </c>
       <c r="BP296" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>8235062</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>46076.6875</v>
+      </c>
+      <c r="F297" t="n">
+        <v>27</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Real Sociedad II</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>2</v>
+      </c>
+      <c r="N297" t="n">
+        <v>2</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['72', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R297" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S297" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T297" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V297" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X297" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL297" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM297" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO297" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP297" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP297"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2881,7 +2881,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.23</v>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR27" t="n">
         <v>2.09</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.62</v>
@@ -11601,7 +11601,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR51" t="n">
         <v>1.54</v>
@@ -13996,7 +13996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.93</v>
@@ -16179,7 +16179,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR72" t="n">
         <v>1.08</v>
@@ -17702,7 +17702,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.38</v>
@@ -18795,7 +18795,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR84" t="n">
         <v>1.2</v>
@@ -22716,7 +22716,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.86</v>
@@ -25117,7 +25117,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR113" t="n">
         <v>1.59</v>
@@ -30785,7 +30785,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR139" t="n">
         <v>1.63</v>
@@ -32744,7 +32744,7 @@
         <v>1.43</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.21</v>
@@ -35145,7 +35145,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR159" t="n">
         <v>1.46</v>
@@ -36668,7 +36668,7 @@
         <v>1.71</v>
       </c>
       <c r="AP166" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.46</v>
@@ -37104,7 +37104,7 @@
         <v>1.86</v>
       </c>
       <c r="AP168" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.31</v>
@@ -40159,7 +40159,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR182" t="n">
         <v>1.49</v>
@@ -43644,7 +43644,7 @@
         <v>1.63</v>
       </c>
       <c r="AP198" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.46</v>
@@ -45609,7 +45609,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR207" t="n">
         <v>1.41</v>
@@ -48004,7 +48004,7 @@
         <v>1.2</v>
       </c>
       <c r="AP218" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.07</v>
@@ -51059,7 +51059,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR232" t="n">
         <v>1.39</v>
@@ -51492,7 +51492,7 @@
         <v>1.2</v>
       </c>
       <c r="AP234" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.14</v>
@@ -54547,7 +54547,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR248" t="n">
         <v>1.37</v>
@@ -55852,7 +55852,7 @@
         <v>1.45</v>
       </c>
       <c r="AP254" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.21</v>
@@ -63046,7 +63046,7 @@
         <v>1.08</v>
       </c>
       <c r="AP287" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ287" t="n">
         <v>1</v>
@@ -63921,7 +63921,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ291" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR291" t="n">
         <v>1.95</v>
@@ -65241,13 +65241,13 @@
         <v>2.76</v>
       </c>
       <c r="AU297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV297" t="n">
         <v>10</v>
       </c>
       <c r="AW297" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX297" t="n">
         <v>7</v>
@@ -65305,6 +65305,224 @@
       </c>
       <c r="BP297" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>8235052</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>46078.625</v>
+      </c>
+      <c r="F298" t="n">
+        <v>25</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>3</v>
+      </c>
+      <c r="J298" t="n">
+        <v>2</v>
+      </c>
+      <c r="K298" t="n">
+        <v>5</v>
+      </c>
+      <c r="L298" t="n">
+        <v>3</v>
+      </c>
+      <c r="M298" t="n">
+        <v>2</v>
+      </c>
+      <c r="N298" t="n">
+        <v>5</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['6', '12', '27']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>['8', '24']</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="R298" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S298" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T298" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V298" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X298" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL298" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM298" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN298" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO298" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP298" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Spain Segunda División_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.77</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.71</v>
@@ -3971,7 +3971,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.07</v>
@@ -4625,7 +4625,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.62</v>
@@ -5715,7 +5715,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR24" t="n">
         <v>0.47</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.43</v>
@@ -6805,7 +6805,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR31" t="n">
         <v>1.03</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.86</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.86</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.14</v>
@@ -9203,7 +9203,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR40" t="n">
         <v>1.62</v>
@@ -11165,7 +11165,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR49" t="n">
         <v>1.31</v>
@@ -11380,10 +11380,10 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR50" t="n">
         <v>1.82</v>
@@ -12037,7 +12037,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR53" t="n">
         <v>1.5</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.21</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.21</v>
@@ -12909,7 +12909,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR57" t="n">
         <v>1.41</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.14</v>
@@ -15961,7 +15961,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR71" t="n">
         <v>1.51</v>
@@ -16397,7 +16397,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR73" t="n">
         <v>1.43</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.21</v>
@@ -17923,7 +17923,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR80" t="n">
         <v>1.5</v>
@@ -18359,7 +18359,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.79</v>
@@ -18792,7 +18792,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.43</v>
@@ -19231,7 +19231,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR86" t="n">
         <v>1.89</v>
@@ -19446,7 +19446,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.86</v>
@@ -20100,7 +20100,7 @@
         <v>2.33</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.46</v>
@@ -20972,7 +20972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.77</v>
@@ -21629,7 +21629,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR97" t="n">
         <v>1.37</v>
@@ -22934,7 +22934,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.21</v>
@@ -23155,7 +23155,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR104" t="n">
         <v>1.22</v>
@@ -23370,7 +23370,7 @@
         <v>0.75</v>
       </c>
       <c r="AP105" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.23</v>
@@ -24027,7 +24027,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR108" t="n">
         <v>1.76</v>
@@ -24463,7 +24463,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR110" t="n">
         <v>1.34</v>
@@ -25114,7 +25114,7 @@
         <v>1</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.43</v>
@@ -25550,7 +25550,7 @@
         <v>1.25</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.15</v>
@@ -27515,7 +27515,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR124" t="n">
         <v>1.31</v>
@@ -27730,10 +27730,10 @@
         <v>0.75</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR125" t="n">
         <v>1.68</v>
@@ -28823,7 +28823,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR130" t="n">
         <v>1.82</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.71</v>
@@ -29256,7 +29256,7 @@
         <v>1.2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ132" t="n">
         <v>1</v>
@@ -29477,7 +29477,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR133" t="n">
         <v>1.1</v>
@@ -31218,7 +31218,7 @@
         <v>0.67</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.93</v>
@@ -31872,7 +31872,7 @@
         <v>1.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.46</v>
@@ -32308,7 +32308,7 @@
         <v>1.14</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.07</v>
@@ -33401,7 +33401,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR151" t="n">
         <v>1.39</v>
@@ -33834,10 +33834,10 @@
         <v>0.5</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR153" t="n">
         <v>1.16</v>
@@ -34055,7 +34055,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR154" t="n">
         <v>1.26</v>
@@ -34709,7 +34709,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR157" t="n">
         <v>1.33</v>
@@ -35142,7 +35142,7 @@
         <v>1.29</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.43</v>
@@ -36671,7 +36671,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR166" t="n">
         <v>1.46</v>
@@ -37107,7 +37107,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR168" t="n">
         <v>1.43</v>
@@ -37540,7 +37540,7 @@
         <v>1.75</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.71</v>
@@ -37761,7 +37761,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR171" t="n">
         <v>2.14</v>
@@ -37976,10 +37976,10 @@
         <v>0.43</v>
       </c>
       <c r="AP172" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR172" t="n">
         <v>1.95</v>
@@ -38194,7 +38194,7 @@
         <v>1.63</v>
       </c>
       <c r="AP173" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.21</v>
@@ -39287,7 +39287,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR178" t="n">
         <v>1.53</v>
@@ -40810,7 +40810,7 @@
         <v>0.75</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.77</v>
@@ -41685,7 +41685,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR189" t="n">
         <v>1.16</v>
@@ -42336,7 +42336,7 @@
         <v>1</v>
       </c>
       <c r="AP192" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.07</v>
@@ -42772,7 +42772,7 @@
         <v>1.25</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.15</v>
@@ -43208,10 +43208,10 @@
         <v>0.5</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR196" t="n">
         <v>1.64</v>
@@ -43429,7 +43429,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR197" t="n">
         <v>2.22</v>
@@ -45173,7 +45173,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR205" t="n">
         <v>1.72</v>
@@ -46042,7 +46042,7 @@
         <v>1.33</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.21</v>
@@ -47135,7 +47135,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ214" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR214" t="n">
         <v>1.91</v>
@@ -47350,7 +47350,7 @@
         <v>1.89</v>
       </c>
       <c r="AP215" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.62</v>
@@ -47571,7 +47571,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR216" t="n">
         <v>1.76</v>
@@ -47789,7 +47789,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR217" t="n">
         <v>1.58</v>
@@ -48222,7 +48222,7 @@
         <v>1.56</v>
       </c>
       <c r="AP219" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.46</v>
@@ -48440,7 +48440,7 @@
         <v>1.4</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ220" t="n">
         <v>1.21</v>
@@ -49097,7 +49097,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR223" t="n">
         <v>1.36</v>
@@ -50620,7 +50620,7 @@
         <v>1.4</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.43</v>
@@ -51928,7 +51928,7 @@
         <v>0.4</v>
       </c>
       <c r="AP236" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ236" t="n">
         <v>0.79</v>
@@ -52803,7 +52803,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ240" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR240" t="n">
         <v>1.22</v>
@@ -53018,7 +53018,7 @@
         <v>1.4</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ241" t="n">
         <v>1.15</v>
@@ -53239,7 +53239,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR242" t="n">
         <v>1.75</v>
@@ -53454,7 +53454,7 @@
         <v>0.3</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ243" t="n">
         <v>0.38</v>
@@ -53675,7 +53675,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR244" t="n">
         <v>1.75</v>
@@ -53890,7 +53890,7 @@
         <v>1.27</v>
       </c>
       <c r="AP245" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ245" t="n">
         <v>1.21</v>
@@ -54983,7 +54983,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ250" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR250" t="n">
         <v>1.61</v>
@@ -55201,7 +55201,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ251" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR251" t="n">
         <v>1.84</v>
@@ -55416,7 +55416,7 @@
         <v>1.36</v>
       </c>
       <c r="AP252" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ252" t="n">
         <v>1.43</v>
@@ -56288,7 +56288,7 @@
         <v>1.09</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ256" t="n">
         <v>0.93</v>
@@ -58032,7 +58032,7 @@
         <v>1.91</v>
       </c>
       <c r="AP264" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ264" t="n">
         <v>1.62</v>
@@ -58253,7 +58253,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ265" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR265" t="n">
         <v>1.36</v>
@@ -58907,7 +58907,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR268" t="n">
         <v>1.39</v>
@@ -59122,7 +59122,7 @@
         <v>0.36</v>
       </c>
       <c r="AP269" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ269" t="n">
         <v>0.38</v>
@@ -59340,7 +59340,7 @@
         <v>1.33</v>
       </c>
       <c r="AP270" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ270" t="n">
         <v>1.43</v>
@@ -59561,7 +59561,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ271" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR271" t="n">
         <v>1.37</v>
@@ -59997,7 +59997,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR273" t="n">
         <v>1.62</v>
@@ -61520,7 +61520,7 @@
         <v>1.25</v>
       </c>
       <c r="AP280" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ280" t="n">
         <v>1.14</v>
@@ -62392,7 +62392,7 @@
         <v>1.25</v>
       </c>
       <c r="AP284" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ284" t="n">
         <v>1.23</v>
@@ -62831,7 +62831,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ286" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR286" t="n">
         <v>1.16</v>
@@ -64793,7 +64793,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ295" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR295" t="n">
         <v>1.85</v>
@@ -65523,6 +65523,878 @@
       </c>
       <c r="BP298" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>8235069</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>46080.6875</v>
+      </c>
+      <c r="F299" t="n">
+        <v>28</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="n">
+        <v>1</v>
+      </c>
+      <c r="N299" t="n">
+        <v>2</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>3</v>
+      </c>
+      <c r="R299" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S299" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T299" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V299" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X299" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL299" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM299" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN299" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO299" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BP299" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>8235167</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>46081.51041666666</v>
+      </c>
+      <c r="F300" t="n">
+        <v>28</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>1</v>
+      </c>
+      <c r="N300" t="n">
+        <v>1</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="R300" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S300" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T300" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U300" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V300" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X300" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BL300" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM300" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BN300" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO300" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP300" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>8235075</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>46081.60416666666</v>
+      </c>
+      <c r="F301" t="n">
+        <v>28</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>1</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="R301" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S301" t="n">
+        <v>5</v>
+      </c>
+      <c r="T301" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V301" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X301" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BG301" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH301" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ301" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK301" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL301" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM301" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN301" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO301" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BP301" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>8235164</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>46081.60416666666</v>
+      </c>
+      <c r="F302" t="n">
+        <v>28</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>1</v>
+      </c>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q302" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R302" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S302" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="T302" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U302" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V302" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W302" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X302" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ302" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA302" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB302" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC302" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD302" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE302" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF302" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BG302" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH302" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BI302" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ302" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK302" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL302" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM302" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN302" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO302" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BP302" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>
